--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC322"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5278180</v>
+        <v>5278067</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,56 +3856,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>54</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3913,19 +3913,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5278067</v>
+        <v>5278180</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,56 +3945,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -4002,19 +4002,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5278183</v>
+        <v>5278070</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4301,58 +4301,58 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>53</v>
       </c>
       <c r="K43">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M43">
         <v>3</v>
       </c>
       <c r="N43">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
         <v>3.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4361,7 +4361,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4370,7 +4370,7 @@
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5278070</v>
+        <v>5278069</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4390,58 +4390,58 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>2</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>53</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4450,16 +4450,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4467,7 +4467,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5278069</v>
+        <v>5278183</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4479,40 +4479,40 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>53</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L45">
         <v>4.2</v>
       </c>
       <c r="M45">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
         <v>1.9</v>
@@ -4521,7 +4521,7 @@
         <v>1.9</v>
       </c>
       <c r="T45">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U45">
         <v>1.925</v>
@@ -4530,7 +4530,7 @@
         <v>1.875</v>
       </c>
       <c r="W45">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4539,16 +4539,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5278187</v>
+        <v>5278186</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,58 +4924,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4984,13 +4984,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5278186</v>
+        <v>5278187</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,58 +5013,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O51">
+        <v>4.75</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>-1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>1.775</v>
+      </c>
+      <c r="T51">
         <v>3.75</v>
       </c>
-      <c r="P51">
-        <v>3.2</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5073,13 +5073,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5285793</v>
+        <v>5278074</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K53">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N53">
         <v>1.333</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
         <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5278074</v>
+        <v>5285793</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
         <v>1.333</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q54">
         <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5278077</v>
+        <v>5278076</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
         <v>4</v>
       </c>
       <c r="M57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5278076</v>
+        <v>5278077</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>4</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5278008</v>
+        <v>5278078</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,49 +5725,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
+        <v>3.75</v>
+      </c>
+      <c r="L59">
+        <v>4.75</v>
+      </c>
+      <c r="M59">
+        <v>1.571</v>
+      </c>
+      <c r="N59">
+        <v>4.333</v>
+      </c>
+      <c r="O59">
+        <v>4.75</v>
+      </c>
+      <c r="P59">
+        <v>1.5</v>
+      </c>
+      <c r="Q59">
         <v>1.25</v>
       </c>
-      <c r="L59">
-        <v>6</v>
-      </c>
-      <c r="M59">
-        <v>7</v>
-      </c>
-      <c r="N59">
-        <v>1.2</v>
-      </c>
-      <c r="O59">
-        <v>6.5</v>
-      </c>
-      <c r="P59">
-        <v>8.5</v>
-      </c>
-      <c r="Q59">
-        <v>-2.25</v>
-      </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U59">
         <v>1.925</v>
@@ -5776,7 +5776,7 @@
         <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.2</v>
+        <v>3.333</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,49 +5903,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O61">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q61">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5954,7 +5954,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5290650</v>
+        <v>5290651</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,73 +12578,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L136">
         <v>4.5</v>
       </c>
       <c r="M136">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N136">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>3.5</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z136">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5290651</v>
+        <v>5290652</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,34 +12667,34 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>54</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N137">
         <v>2.7</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
         <v>1.95</v>
@@ -12703,19 +12703,19 @@
         <v>0.25</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12730,13 +12730,13 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5290652</v>
+        <v>5290680</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>53</v>
+      </c>
+      <c r="K138">
+        <v>1.333</v>
+      </c>
+      <c r="L138">
+        <v>4.75</v>
+      </c>
+      <c r="M138">
+        <v>6.5</v>
+      </c>
+      <c r="N138">
+        <v>1.166</v>
+      </c>
+      <c r="O138">
+        <v>7.5</v>
+      </c>
+      <c r="P138">
+        <v>12</v>
+      </c>
+      <c r="Q138">
+        <v>-2.25</v>
+      </c>
+      <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>4.25</v>
+      </c>
+      <c r="U138">
         <v>2</v>
       </c>
-      <c r="J138" t="s">
-        <v>54</v>
-      </c>
-      <c r="K138">
-        <v>2.625</v>
-      </c>
-      <c r="L138">
-        <v>4.333</v>
-      </c>
-      <c r="M138">
-        <v>2</v>
-      </c>
-      <c r="N138">
-        <v>2.7</v>
-      </c>
-      <c r="O138">
-        <v>4.333</v>
-      </c>
-      <c r="P138">
-        <v>1.95</v>
-      </c>
-      <c r="Q138">
-        <v>0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>4</v>
-      </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290681</v>
+        <v>5290704</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>1.071</v>
       </c>
       <c r="L139">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M139">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="N139">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="O139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P139">
-        <v>1.166</v>
+        <v>15</v>
       </c>
       <c r="Q139">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC139">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5290704</v>
+        <v>5290650</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,58 +12934,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H140">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>53</v>
       </c>
       <c r="K140">
-        <v>1.071</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M140">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="N140">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>15</v>
+        <v>1.75</v>
       </c>
       <c r="Q140">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
         <v>1.775</v>
       </c>
-      <c r="S140">
+      <c r="T140">
+        <v>3.5</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="T140">
-        <v>4.75</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>0.1000000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12994,13 +12994,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5289675</v>
+        <v>5290681</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>11</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>1.166</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
+        <v>1.95</v>
+      </c>
+      <c r="T141">
+        <v>4.25</v>
+      </c>
+      <c r="U141">
         <v>1.925</v>
       </c>
-      <c r="S141">
-        <v>1.775</v>
-      </c>
-      <c r="T141">
-        <v>4</v>
-      </c>
-      <c r="U141">
-        <v>1.825</v>
-      </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5290680</v>
+        <v>5289675</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,58 +13112,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
         <v>4.75</v>
       </c>
       <c r="M142">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O142">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
         <v>1.775</v>
       </c>
-      <c r="S142">
-        <v>2.025</v>
-      </c>
       <c r="T142">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,16 +13172,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5289674</v>
+        <v>5289673</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L143">
         <v>5</v>
       </c>
       <c r="M143">
+        <v>1.363</v>
+      </c>
+      <c r="N143">
+        <v>5.75</v>
+      </c>
+      <c r="O143">
+        <v>5.25</v>
+      </c>
+      <c r="P143">
+        <v>1.333</v>
+      </c>
+      <c r="Q143">
+        <v>1.75</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
         <v>4</v>
       </c>
-      <c r="N143">
-        <v>1.75</v>
-      </c>
-      <c r="O143">
-        <v>4.5</v>
-      </c>
-      <c r="P143">
-        <v>3.25</v>
-      </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
-      <c r="T143">
-        <v>4.25</v>
-      </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5289673</v>
+        <v>5289674</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L144">
         <v>5</v>
       </c>
       <c r="M144">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="O144">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P144">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q144">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,76 +22724,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M250">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N250">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O250">
         <v>4.2</v>
       </c>
       <c r="P250">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y250">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA250">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,76 +22813,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L251">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N251">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
         <v>4.2</v>
       </c>
       <c r="P251">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,10 +23258,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23273,40 +23273,40 @@
         <v>54</v>
       </c>
       <c r="K256">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L256">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M256">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N256">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O256">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q256">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB256">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,10 +23347,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23362,40 +23362,40 @@
         <v>54</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L257">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M257">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N257">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P257">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,16 +23404,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M263">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N263">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P263">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC263">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,76 +23970,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K264">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L264">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N264">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O264">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>3.75</v>
       </c>
       <c r="U264">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X264">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24949,13 +24949,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -24964,61 +24964,61 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L275">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M275">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O275">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P275">
+        <v>2.9</v>
+      </c>
+      <c r="Q275">
+        <v>-0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
         <v>2</v>
       </c>
-      <c r="Q275">
-        <v>0.25</v>
-      </c>
-      <c r="R275">
+      <c r="T275">
+        <v>4</v>
+      </c>
+      <c r="U275">
         <v>1.95</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.85</v>
       </c>
-      <c r="T275">
-        <v>3.75</v>
-      </c>
-      <c r="U275">
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
         <v>1.9</v>
       </c>
-      <c r="V275">
-        <v>1.9</v>
-      </c>
-      <c r="W275">
-        <v>-1</v>
-      </c>
-      <c r="X275">
-        <v>-1</v>
-      </c>
-      <c r="Y275">
+      <c r="Z275">
+        <v>-1</v>
+      </c>
+      <c r="AA275">
         <v>1</v>
       </c>
-      <c r="Z275">
-        <v>-1</v>
-      </c>
-      <c r="AA275">
+      <c r="AB275">
+        <v>-1</v>
+      </c>
+      <c r="AC275">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB275">
-        <v>-1</v>
-      </c>
-      <c r="AC275">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,13 +25038,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G276" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25053,40 +25053,40 @@
         <v>54</v>
       </c>
       <c r="K276">
+        <v>2.3</v>
+      </c>
+      <c r="L276">
+        <v>4.2</v>
+      </c>
+      <c r="M276">
+        <v>2.25</v>
+      </c>
+      <c r="N276">
+        <v>2.625</v>
+      </c>
+      <c r="O276">
+        <v>4.2</v>
+      </c>
+      <c r="P276">
+        <v>2</v>
+      </c>
+      <c r="Q276">
+        <v>0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.95</v>
+      </c>
+      <c r="S276">
         <v>1.85</v>
       </c>
-      <c r="L276">
-        <v>4</v>
-      </c>
-      <c r="M276">
-        <v>3.1</v>
-      </c>
-      <c r="N276">
-        <v>1.95</v>
-      </c>
-      <c r="O276">
-        <v>3.8</v>
-      </c>
-      <c r="P276">
-        <v>2.9</v>
-      </c>
-      <c r="Q276">
-        <v>-0.25</v>
-      </c>
-      <c r="R276">
-        <v>1.8</v>
-      </c>
-      <c r="S276">
-        <v>2</v>
-      </c>
       <c r="T276">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -25095,19 +25095,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G288" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L288">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N288">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O288">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P288">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q288">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R288">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S288">
+        <v>1.975</v>
+      </c>
+      <c r="T288">
+        <v>4.75</v>
+      </c>
+      <c r="U288">
         <v>1.875</v>
       </c>
-      <c r="T288">
-        <v>3</v>
-      </c>
-      <c r="U288">
+      <c r="V288">
         <v>1.825</v>
       </c>
-      <c r="V288">
-        <v>1.975</v>
-      </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X288">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA288">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC288">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G289" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H289">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K289">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L289">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M289">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N289">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O289">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P289">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q289">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R289">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S289">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T289">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U289">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W289">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB289">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6893369</v>
+        <v>6893741</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,10 +26284,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G290" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26299,61 +26299,61 @@
         <v>55</v>
       </c>
       <c r="K290">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L290">
         <v>4.2</v>
       </c>
       <c r="M290">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N290">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O290">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P290">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q290">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T290">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U290">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V290">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W290">
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA290">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB290">
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -29031,7 +29031,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6893307</v>
+        <v>6918230</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29040,49 +29040,49 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45339.375</v>
+        <v>45340.28125</v>
       </c>
       <c r="F321" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G321" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K321">
-        <v>1.062</v>
+        <v>1.166</v>
       </c>
       <c r="L321">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="M321">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="N321">
-        <v>1.09</v>
+        <v>1.166</v>
       </c>
       <c r="O321">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="P321">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Q321">
-        <v>-2.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R321">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S321">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T321">
         <v>4.25</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V321">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29105,7 +29105,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6893767</v>
+        <v>6893770</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29114,49 +29114,49 @@
         <v>28</v>
       </c>
       <c r="E322" s="2">
-        <v>45339.41666666666</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F322" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K322">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="L322">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="M322">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="N322">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="O322">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P322">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="Q322">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R322">
+        <v>1.975</v>
+      </c>
+      <c r="S322">
         <v>1.825</v>
       </c>
-      <c r="S322">
+      <c r="T322">
+        <v>4</v>
+      </c>
+      <c r="U322">
+        <v>1.825</v>
+      </c>
+      <c r="V322">
         <v>1.975</v>
-      </c>
-      <c r="T322">
-        <v>3.25</v>
-      </c>
-      <c r="U322">
-        <v>1.85</v>
-      </c>
-      <c r="V322">
-        <v>1.95</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29171,6 +29171,80 @@
         <v>0</v>
       </c>
       <c r="AA322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>6893768</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45340.45833333334</v>
+      </c>
+      <c r="F323" t="s">
+        <v>51</v>
+      </c>
+      <c r="G323" t="s">
+        <v>33</v>
+      </c>
+      <c r="K323">
+        <v>5.25</v>
+      </c>
+      <c r="L323">
+        <v>6</v>
+      </c>
+      <c r="M323">
+        <v>1.333</v>
+      </c>
+      <c r="N323">
+        <v>5.25</v>
+      </c>
+      <c r="O323">
+        <v>6</v>
+      </c>
+      <c r="P323">
+        <v>1.333</v>
+      </c>
+      <c r="Q323">
+        <v>1.75</v>
+      </c>
+      <c r="R323">
+        <v>1.825</v>
+      </c>
+      <c r="S323">
+        <v>1.975</v>
+      </c>
+      <c r="T323">
+        <v>3.75</v>
+      </c>
+      <c r="U323">
+        <v>1.9</v>
+      </c>
+      <c r="V323">
+        <v>1.9</v>
+      </c>
+      <c r="W323">
+        <v>0</v>
+      </c>
+      <c r="X323">
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <v>0</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
         <v>0</v>
       </c>
     </row>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5278067</v>
+        <v>5278180</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,56 +3856,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>54</v>
       </c>
       <c r="K38">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3913,19 +3913,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5278180</v>
+        <v>5278067</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,56 +3945,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -4002,19 +4002,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5278186</v>
+        <v>5278187</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,58 +4924,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
+        <v>4.75</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.775</v>
+      </c>
+      <c r="T50">
         <v>3.75</v>
       </c>
-      <c r="P50">
-        <v>3.2</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4984,13 +4984,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5278187</v>
+        <v>5278186</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,58 +5013,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5073,13 +5073,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5278076</v>
+        <v>5278077</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>4</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N57">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5278077</v>
+        <v>5278076</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L58">
         <v>4</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,49 +5725,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M59">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O59">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U59">
         <v>1.925</v>
@@ -5776,7 +5776,7 @@
         <v>1.875</v>
       </c>
       <c r="W59">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278008</v>
+        <v>5278078</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,49 +5903,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
+        <v>3.75</v>
+      </c>
+      <c r="L61">
+        <v>4.75</v>
+      </c>
+      <c r="M61">
+        <v>1.571</v>
+      </c>
+      <c r="N61">
+        <v>4.333</v>
+      </c>
+      <c r="O61">
+        <v>4.75</v>
+      </c>
+      <c r="P61">
+        <v>1.5</v>
+      </c>
+      <c r="Q61">
         <v>1.25</v>
       </c>
-      <c r="L61">
-        <v>6</v>
-      </c>
-      <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
-        <v>1.2</v>
-      </c>
-      <c r="O61">
-        <v>6.5</v>
-      </c>
-      <c r="P61">
-        <v>8.5</v>
-      </c>
-      <c r="Q61">
-        <v>-2.25</v>
-      </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5954,7 +5954,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.2</v>
+        <v>3.333</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N263">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O263">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X263">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23958,7 +23958,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23970,76 +23970,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G264" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H264">
         <v>2</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K264">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M264">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N264">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P264">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T264">
         <v>3.75</v>
       </c>
       <c r="U264">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC264">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24949,13 +24949,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G275" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -24964,40 +24964,40 @@
         <v>54</v>
       </c>
       <c r="K275">
+        <v>2.3</v>
+      </c>
+      <c r="L275">
+        <v>4.2</v>
+      </c>
+      <c r="M275">
+        <v>2.25</v>
+      </c>
+      <c r="N275">
+        <v>2.625</v>
+      </c>
+      <c r="O275">
+        <v>4.2</v>
+      </c>
+      <c r="P275">
+        <v>2</v>
+      </c>
+      <c r="Q275">
+        <v>0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.95</v>
+      </c>
+      <c r="S275">
         <v>1.85</v>
       </c>
-      <c r="L275">
-        <v>4</v>
-      </c>
-      <c r="M275">
-        <v>3.1</v>
-      </c>
-      <c r="N275">
-        <v>1.95</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>2.9</v>
-      </c>
-      <c r="Q275">
-        <v>-0.25</v>
-      </c>
-      <c r="R275">
-        <v>1.8</v>
-      </c>
-      <c r="S275">
-        <v>2</v>
-      </c>
       <c r="T275">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
@@ -25006,19 +25006,19 @@
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB275">
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,13 +25038,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25053,61 +25053,61 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M276">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
+        <v>2.9</v>
+      </c>
+      <c r="Q276">
+        <v>-0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.8</v>
+      </c>
+      <c r="S276">
         <v>2</v>
       </c>
-      <c r="Q276">
-        <v>0.25</v>
-      </c>
-      <c r="R276">
+      <c r="T276">
+        <v>4</v>
+      </c>
+      <c r="U276">
         <v>1.95</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.85</v>
       </c>
-      <c r="T276">
-        <v>3.75</v>
-      </c>
-      <c r="U276">
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
         <v>1.9</v>
       </c>
-      <c r="V276">
-        <v>1.9</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
         <v>1</v>
       </c>
-      <c r="Z276">
-        <v>-1</v>
-      </c>
-      <c r="AA276">
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB276">
-        <v>-1</v>
-      </c>
-      <c r="AC276">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H288">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K288">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M288">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O288">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q288">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V288">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6893369</v>
+        <v>6893741</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,10 +26195,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26210,61 +26210,61 @@
         <v>55</v>
       </c>
       <c r="K289">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L289">
         <v>4.2</v>
       </c>
       <c r="M289">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N289">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O289">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P289">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T289">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA289">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB289">
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,76 +26284,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I290">
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K290">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L290">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M290">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N290">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O290">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P290">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
+        <v>1.975</v>
+      </c>
+      <c r="T290">
+        <v>4.75</v>
+      </c>
+      <c r="U290">
         <v>1.875</v>
       </c>
-      <c r="T290">
-        <v>3</v>
-      </c>
-      <c r="U290">
+      <c r="V290">
         <v>1.825</v>
       </c>
-      <c r="V290">
-        <v>1.975</v>
-      </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X290">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA290">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -106,10 +106,10 @@
     <t>FC Sderelbe</t>
   </si>
   <si>
-    <t>TuRa Harksheide</t>
+    <t>TuS Osdorf</t>
   </si>
   <si>
-    <t>TuS Osdorf</t>
+    <t>TuRa Harksheide</t>
   </si>
   <si>
     <t>SV CurslackNeuengamme</t>
@@ -139,10 +139,10 @@
     <t>FC Union Tornesch</t>
   </si>
   <si>
-    <t>Niendorfer TSV</t>
+    <t>TSV Buchholz 08</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
+    <t>Niendorfer TSV</t>
   </si>
   <si>
     <t>TSV Sasel</t>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5285798</v>
+        <v>5278162</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="N3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5278162</v>
+        <v>5285798</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
       <c r="W4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1189,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5278055</v>
+        <v>5278167</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1723,46 +1723,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
       </c>
       <c r="K14">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.9</v>
@@ -1774,22 +1774,22 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA14">
+        <v>-0.5</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB14">
-        <v>-0.5</v>
-      </c>
-      <c r="AC14">
-        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5278167</v>
+        <v>5278055</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1812,46 +1812,46 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>1.125</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U15">
         <v>1.9</v>
@@ -1863,22 +1863,22 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB15">
         <v>-0.5</v>
       </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5285796</v>
+        <v>5278171</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1990,52 +1990,52 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
+        <v>1.95</v>
+      </c>
+      <c r="S17">
         <v>1.85</v>
       </c>
-      <c r="S17">
-        <v>1.95</v>
-      </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2044,19 +2044,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5278171</v>
+        <v>5285796</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2168,52 +2168,52 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>1.95</v>
       </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2222,19 +2222,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2613,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2877,10 +2877,10 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -3055,7 +3055,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3236,7 +3236,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5278180</v>
+        <v>5278067</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,56 +3856,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>54</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3913,19 +3913,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5278067</v>
+        <v>5278180</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,56 +3945,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -4002,19 +4002,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4126,7 +4126,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -4301,7 +4301,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -4479,10 +4479,10 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4746,7 +4746,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5285793</v>
+        <v>5278074</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K53">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N53">
         <v>1.333</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q53">
         <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5278074</v>
+        <v>5285793</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
         <v>1.333</v>
       </c>
       <c r="O54">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q54">
         <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z54">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5636,7 +5636,7 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5725,7 +5725,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,49 +5814,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M60">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O60">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U60">
         <v>1.925</v>
@@ -5865,7 +5865,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278008</v>
+        <v>5278078</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,49 +5903,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
+        <v>3.75</v>
+      </c>
+      <c r="L61">
+        <v>4.75</v>
+      </c>
+      <c r="M61">
+        <v>1.571</v>
+      </c>
+      <c r="N61">
+        <v>4.333</v>
+      </c>
+      <c r="O61">
+        <v>4.75</v>
+      </c>
+      <c r="P61">
+        <v>1.5</v>
+      </c>
+      <c r="Q61">
         <v>1.25</v>
       </c>
-      <c r="L61">
-        <v>6</v>
-      </c>
-      <c r="M61">
-        <v>7</v>
-      </c>
-      <c r="N61">
-        <v>1.2</v>
-      </c>
-      <c r="O61">
-        <v>6.5</v>
-      </c>
-      <c r="P61">
-        <v>8.5</v>
-      </c>
-      <c r="Q61">
-        <v>-2.25</v>
-      </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5954,7 +5954,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.2</v>
+        <v>3.333</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5995,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6069,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5285882</v>
+        <v>5285789</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6084,73 +6084,73 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="Q63">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X63">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5285789</v>
+        <v>5285882</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6173,73 +6173,73 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K64">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M64">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6336,7 +6336,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5279883</v>
+        <v>5278080</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6348,58 +6348,58 @@
         <v>45011.23958333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>53</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N66">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O66">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T66">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.6000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6408,13 +6408,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5278080</v>
+        <v>5279883</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6437,58 +6437,58 @@
         <v>45011.23958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P67">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.3</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6497,13 +6497,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6526,7 +6526,7 @@
         <v>45011.375</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>40</v>
@@ -6618,7 +6618,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6707,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6796,7 +6796,7 @@
         <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6885,7 +6885,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6959,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5285865</v>
+        <v>5279879</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,76 +6971,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73" t="s">
+        <v>54</v>
+      </c>
+      <c r="K73">
+        <v>4.2</v>
+      </c>
+      <c r="L73">
+        <v>4.2</v>
+      </c>
+      <c r="M73">
+        <v>1.571</v>
+      </c>
+      <c r="N73">
+        <v>4.75</v>
+      </c>
+      <c r="O73">
+        <v>4.5</v>
+      </c>
+      <c r="P73">
+        <v>1.5</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
+        <v>3.5</v>
+      </c>
+      <c r="U73">
+        <v>1.85</v>
+      </c>
+      <c r="V73">
+        <v>1.95</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>0.5</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>55</v>
-      </c>
-      <c r="K73">
-        <v>9</v>
-      </c>
-      <c r="L73">
-        <v>6</v>
-      </c>
-      <c r="M73">
-        <v>1.2</v>
-      </c>
-      <c r="N73">
-        <v>6.5</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="P73">
-        <v>1.3</v>
-      </c>
-      <c r="Q73">
-        <v>1.75</v>
-      </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>1.95</v>
-      </c>
-      <c r="V73">
-        <v>1.85</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>4</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AA73">
+        <v>-0</v>
+      </c>
+      <c r="AB73">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5279879</v>
+        <v>5285865</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,76 +7060,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M74">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R74">
+        <v>1.85</v>
+      </c>
+      <c r="S74">
         <v>1.95</v>
       </c>
-      <c r="S74">
+      <c r="T74">
+        <v>3.75</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="T74">
-        <v>3.5</v>
-      </c>
-      <c r="U74">
-        <v>1.85</v>
-      </c>
-      <c r="V74">
-        <v>1.95</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y74">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7152,7 +7152,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7315,7 +7315,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5279882</v>
+        <v>5284631</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7327,56 +7327,56 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>54</v>
       </c>
       <c r="K77">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="L77">
         <v>4</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U77">
+        <v>1.95</v>
+      </c>
+      <c r="V77">
         <v>1.85</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
@@ -7384,19 +7384,19 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.833</v>
+        <v>0.615</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7404,7 +7404,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5284631</v>
+        <v>5279882</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7416,56 +7416,56 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>54</v>
       </c>
       <c r="K78">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="L78">
         <v>4</v>
       </c>
       <c r="M78">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N78">
+        <v>3.2</v>
+      </c>
+      <c r="O78">
         <v>4</v>
       </c>
-      <c r="O78">
-        <v>4.2</v>
-      </c>
       <c r="P78">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="Q78">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
+        <v>1.85</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.85</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
@@ -7473,19 +7473,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.615</v>
+        <v>0.833</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7683,7 +7683,7 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7772,7 +7772,7 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
         <v>34</v>
@@ -8306,10 +8306,10 @@
         <v>45023.375</v>
       </c>
       <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
         <v>41</v>
-      </c>
-      <c r="G88" t="s">
-        <v>42</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8398,7 +8398,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>45026.375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8662,7 +8662,7 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8754,7 +8754,7 @@
         <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9466,7 +9466,7 @@
         <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5286284</v>
+        <v>5286038</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,73 +9552,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
+        <v>2.3</v>
+      </c>
+      <c r="N102">
         <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>2.2</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5286038</v>
+        <v>5286284</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,73 +9641,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9911,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>45038.375</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10356,7 +10356,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10798,7 +10798,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10979,7 +10979,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11599,7 +11599,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>33</v>
@@ -11691,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11869,7 +11869,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12047,7 +12047,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5289673</v>
+        <v>5289674</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,76 +12578,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
         <v>5</v>
       </c>
       <c r="M136">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5290681</v>
+        <v>5290650</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L137">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M137">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="N137">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O137">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="Q137">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
         <v>1.925</v>
       </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5290652</v>
+        <v>5290680</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>53</v>
+      </c>
+      <c r="K138">
+        <v>1.333</v>
+      </c>
+      <c r="L138">
+        <v>4.75</v>
+      </c>
+      <c r="M138">
+        <v>6.5</v>
+      </c>
+      <c r="N138">
+        <v>1.166</v>
+      </c>
+      <c r="O138">
+        <v>7.5</v>
+      </c>
+      <c r="P138">
+        <v>12</v>
+      </c>
+      <c r="Q138">
+        <v>-2.25</v>
+      </c>
+      <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>4.25</v>
+      </c>
+      <c r="U138">
         <v>2</v>
       </c>
-      <c r="J138" t="s">
-        <v>54</v>
-      </c>
-      <c r="K138">
-        <v>2.625</v>
-      </c>
-      <c r="L138">
-        <v>4.333</v>
-      </c>
-      <c r="M138">
-        <v>2</v>
-      </c>
-      <c r="N138">
-        <v>2.7</v>
-      </c>
-      <c r="O138">
-        <v>4.333</v>
-      </c>
-      <c r="P138">
-        <v>1.95</v>
-      </c>
-      <c r="Q138">
-        <v>0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.825</v>
-      </c>
-      <c r="T138">
-        <v>4</v>
-      </c>
-      <c r="U138">
-        <v>1.975</v>
-      </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290651</v>
+        <v>5289675</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,73 +12845,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M139">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N139">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O139">
         <v>4.5</v>
       </c>
       <c r="P139">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5289675</v>
+        <v>5289673</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>4</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="L140">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>5.75</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>4</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5290650</v>
+        <v>5290652</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M141">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N141">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5289674</v>
+        <v>5290704</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,58 +13112,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>1.071</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,13 +13172,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5290680</v>
+        <v>5290651</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>3</v>
       </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K143">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L143">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q143">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z143">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5290704</v>
+        <v>5290681</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>1.071</v>
+        <v>5.5</v>
       </c>
       <c r="L144">
+        <v>5.5</v>
+      </c>
+      <c r="M144">
+        <v>1.333</v>
+      </c>
+      <c r="N144">
         <v>11</v>
       </c>
-      <c r="M144">
-        <v>15</v>
-      </c>
-      <c r="N144">
-        <v>1.1</v>
-      </c>
       <c r="O144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P144">
-        <v>15</v>
+        <v>1.166</v>
       </c>
       <c r="Q144">
-        <v>-3</v>
+        <v>2.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
+        <v>4.25</v>
+      </c>
+      <c r="U144">
         <v>1.925</v>
       </c>
-      <c r="T144">
-        <v>4.75</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z144">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13824,10 +13824,10 @@
         <v>45137.375</v>
       </c>
       <c r="F150" t="s">
+        <v>42</v>
+      </c>
+      <c r="G150" t="s">
         <v>41</v>
-      </c>
-      <c r="G150" t="s">
-        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13913,7 +13913,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>40</v>
@@ -14447,7 +14447,7 @@
         <v>45144.375</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
         <v>48</v>
@@ -14536,7 +14536,7 @@
         <v>45144.375</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
         <v>45</v>
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160" t="s">
+        <v>54</v>
+      </c>
+      <c r="K160">
+        <v>11</v>
+      </c>
+      <c r="L160">
+        <v>9</v>
+      </c>
+      <c r="M160">
+        <v>1.1</v>
+      </c>
+      <c r="N160">
+        <v>19</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="P160">
+        <v>1.083</v>
+      </c>
+      <c r="Q160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>53</v>
-      </c>
-      <c r="K160">
-        <v>1.444</v>
-      </c>
-      <c r="L160">
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
         <v>4.5</v>
       </c>
-      <c r="M160">
-        <v>5</v>
-      </c>
-      <c r="N160">
-        <v>1.25</v>
-      </c>
-      <c r="O160">
-        <v>5.5</v>
-      </c>
-      <c r="P160">
-        <v>7.5</v>
-      </c>
-      <c r="Q160">
-        <v>-2</v>
-      </c>
-      <c r="R160">
+      <c r="U160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>1.925</v>
       </c>
-      <c r="T160">
-        <v>4.25</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.825</v>
-      </c>
       <c r="W160">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
+      <c r="J161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>1.444</v>
+      </c>
+      <c r="L161">
+        <v>4.5</v>
+      </c>
+      <c r="M161">
         <v>5</v>
       </c>
-      <c r="J161" t="s">
-        <v>54</v>
-      </c>
-      <c r="K161">
-        <v>11</v>
-      </c>
-      <c r="L161">
-        <v>9</v>
-      </c>
-      <c r="M161">
-        <v>1.1</v>
-      </c>
       <c r="N161">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O161">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P161">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q161">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,76 +14981,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
         <v>4</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P163">
+        <v>2.8</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>3.5</v>
       </c>
-      <c r="Q163">
-        <v>-0.75</v>
-      </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>4</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
+        <v>0.5</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB163">
-        <v>-1</v>
-      </c>
-      <c r="AC163">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893660</v>
+        <v>6893659</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,16 +15070,16 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>55</v>
@@ -15094,52 +15094,52 @@
         <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P164">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB164">
         <v>-0.5</v>
       </c>
-      <c r="AA164">
-        <v>0.5</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,76 +15159,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165" t="s">
+        <v>54</v>
+      </c>
+      <c r="K165">
         <v>2</v>
-      </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
-      <c r="J165" t="s">
-        <v>55</v>
-      </c>
-      <c r="K165">
-        <v>2.1</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O165">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15251,7 +15251,7 @@
         <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45151.375</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K168">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L168">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N168">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P168">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q168">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45151.375</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L169">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M169">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N169">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O169">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P169">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15785,7 +15785,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16037,7 +16037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6893288</v>
+        <v>6893667</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,76 +16049,76 @@
         <v>45158.375</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>54</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>4.2</v>
+      </c>
+      <c r="M175">
+        <v>1.6</v>
+      </c>
+      <c r="N175">
+        <v>7.5</v>
+      </c>
+      <c r="O175">
+        <v>5.75</v>
+      </c>
+      <c r="P175">
+        <v>1.285</v>
+      </c>
+      <c r="Q175">
         <v>2</v>
       </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175" t="s">
-        <v>53</v>
-      </c>
-      <c r="K175">
-        <v>2.1</v>
-      </c>
-      <c r="L175">
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
         <v>4</v>
       </c>
-      <c r="M175">
-        <v>2.6</v>
-      </c>
-      <c r="N175">
-        <v>2.5</v>
-      </c>
-      <c r="O175">
-        <v>4</v>
-      </c>
-      <c r="P175">
-        <v>2.15</v>
-      </c>
-      <c r="Q175">
-        <v>0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>3.75</v>
-      </c>
       <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
         <v>1.85</v>
       </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
       <c r="W175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16126,7 +16126,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6893667</v>
+        <v>6893288</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16138,76 +16138,76 @@
         <v>45158.375</v>
       </c>
       <c r="F176" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>3</v>
-      </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
+        <v>2.1</v>
+      </c>
+      <c r="L176">
         <v>4</v>
       </c>
-      <c r="L176">
-        <v>4.2</v>
-      </c>
       <c r="M176">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N176">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="Q176">
+        <v>0.25</v>
+      </c>
+      <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
         <v>2</v>
       </c>
-      <c r="R176">
-        <v>1.825</v>
-      </c>
-      <c r="S176">
-        <v>1.975</v>
-      </c>
       <c r="T176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,73 +16227,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L177">
         <v>4.2</v>
       </c>
       <c r="M177">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O177">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,73 +16316,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K178">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L178">
         <v>4.2</v>
       </c>
       <c r="M178">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N178">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z178">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,58 +16405,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J179" t="s">
         <v>53</v>
       </c>
       <c r="K179">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M179">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N179">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O179">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16465,13 +16465,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L180">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M180">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P180">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,76 +16583,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
+        <v>4.5</v>
+      </c>
+      <c r="M181">
+        <v>1.615</v>
+      </c>
+      <c r="N181">
+        <v>2.625</v>
+      </c>
+      <c r="O181">
         <v>4.2</v>
       </c>
-      <c r="M181">
-        <v>2.3</v>
-      </c>
-      <c r="N181">
-        <v>1.833</v>
-      </c>
-      <c r="O181">
-        <v>4.5</v>
-      </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q181">
+        <v>0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.925</v>
+      </c>
+      <c r="S181">
+        <v>1.875</v>
+      </c>
+      <c r="T181">
+        <v>3.75</v>
+      </c>
+      <c r="U181">
+        <v>1.85</v>
+      </c>
+      <c r="V181">
+        <v>1.95</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>-1</v>
+      </c>
+      <c r="Y181">
+        <v>1</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.875</v>
+      </c>
+      <c r="AB181">
+        <v>0.425</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>1.9</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>4.25</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
-      <c r="W181">
-        <v>0.833</v>
-      </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
-      <c r="Y181">
-        <v>-1</v>
-      </c>
-      <c r="Z181">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16853,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893674</v>
+        <v>6893673</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45165.375</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+      <c r="N185">
+        <v>1.5</v>
+      </c>
+      <c r="O185">
+        <v>5</v>
+      </c>
+      <c r="P185">
+        <v>4</v>
+      </c>
+      <c r="Q185">
+        <v>-1</v>
+      </c>
+      <c r="R185">
+        <v>1.75</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>4</v>
+      </c>
+      <c r="U185">
+        <v>1.925</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>0.5</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>2</v>
-      </c>
-      <c r="J185" t="s">
-        <v>54</v>
-      </c>
-      <c r="K185">
-        <v>2.8</v>
-      </c>
-      <c r="L185">
-        <v>4.333</v>
-      </c>
-      <c r="M185">
-        <v>1.909</v>
-      </c>
-      <c r="N185">
-        <v>2.25</v>
-      </c>
-      <c r="O185">
-        <v>4.333</v>
-      </c>
-      <c r="P185">
-        <v>2.3</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>1.875</v>
-      </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
-      <c r="T185">
-        <v>3.5</v>
-      </c>
-      <c r="U185">
-        <v>1.975</v>
-      </c>
-      <c r="V185">
-        <v>1.825</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>1.3</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,76 +17028,76 @@
         <v>45165.375</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G186" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
+        <v>2.1</v>
+      </c>
+      <c r="L186">
+        <v>4.2</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.1</v>
+      </c>
+      <c r="O186">
+        <v>4.2</v>
+      </c>
+      <c r="P186">
+        <v>2.5</v>
+      </c>
+      <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.925</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>3.5</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
         <v>1.5</v>
       </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>4</v>
-      </c>
-      <c r="N186">
-        <v>1.5</v>
-      </c>
-      <c r="O186">
-        <v>5</v>
-      </c>
-      <c r="P186">
-        <v>4</v>
-      </c>
-      <c r="Q186">
-        <v>-1</v>
-      </c>
-      <c r="R186">
-        <v>1.75</v>
-      </c>
-      <c r="S186">
-        <v>1.95</v>
-      </c>
-      <c r="T186">
-        <v>4</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.775</v>
-      </c>
-      <c r="W186">
-        <v>0.5</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6892994</v>
+        <v>6893674</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,55 +17117,55 @@
         <v>45165.375</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>54</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M187">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N187">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
+        <v>1.875</v>
+      </c>
+      <c r="S187">
         <v>1.925</v>
-      </c>
-      <c r="S187">
-        <v>1.875</v>
       </c>
       <c r="T187">
         <v>3.5</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -17174,19 +17174,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17206,7 +17206,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17298,7 +17298,7 @@
         <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6893678</v>
+        <v>6893677</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,76 +17740,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K194">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L194">
+        <v>4.333</v>
+      </c>
+      <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
+        <v>2.1</v>
+      </c>
+      <c r="O194">
         <v>4.2</v>
       </c>
-      <c r="M194">
-        <v>1.8</v>
-      </c>
-      <c r="N194">
-        <v>4.333</v>
-      </c>
-      <c r="O194">
-        <v>4.75</v>
-      </c>
       <c r="P194">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q194">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y194">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB194">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6893677</v>
+        <v>6893678</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17829,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K195">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L195">
+        <v>4.2</v>
+      </c>
+      <c r="M195">
+        <v>1.8</v>
+      </c>
+      <c r="N195">
         <v>4.333</v>
       </c>
-      <c r="M195">
-        <v>3</v>
-      </c>
-      <c r="N195">
-        <v>2.1</v>
-      </c>
       <c r="O195">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P195">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R195">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
+        <v>0.95</v>
+      </c>
+      <c r="AB195">
         <v>-0.5</v>
       </c>
-      <c r="AA195">
-        <v>0.4125</v>
-      </c>
-      <c r="AB195">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17921,7 +17921,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,73 +18096,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H198">
         <v>3</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K198">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N198">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,58 +18185,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>53</v>
       </c>
       <c r="K199">
+        <v>4.5</v>
+      </c>
+      <c r="L199">
+        <v>4.2</v>
+      </c>
+      <c r="M199">
+        <v>1.533</v>
+      </c>
+      <c r="N199">
+        <v>3.6</v>
+      </c>
+      <c r="O199">
+        <v>4</v>
+      </c>
+      <c r="P199">
+        <v>1.75</v>
+      </c>
+      <c r="Q199">
+        <v>0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
         <v>1.95</v>
       </c>
-      <c r="L199">
-        <v>4</v>
-      </c>
-      <c r="M199">
-        <v>2.875</v>
-      </c>
-      <c r="N199">
-        <v>1.333</v>
-      </c>
-      <c r="O199">
-        <v>4.75</v>
-      </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
-      <c r="Q199">
-        <v>-1.75</v>
-      </c>
-      <c r="R199">
+      <c r="T199">
+        <v>3.75</v>
+      </c>
+      <c r="U199">
+        <v>1.825</v>
+      </c>
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="S199">
-        <v>1.825</v>
-      </c>
-      <c r="T199">
-        <v>4</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>1.95</v>
-      </c>
       <c r="W199">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18245,16 +18245,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L200">
         <v>4</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N200">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O200">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q200">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T200">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X200">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18719,10 +18719,10 @@
         <v>45179.375</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6893684</v>
+        <v>6892996</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,58 +18897,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>53</v>
       </c>
       <c r="K207">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M207">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N207">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O207">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
+        <v>4.75</v>
+      </c>
+      <c r="Q207">
+        <v>-1.25</v>
+      </c>
+      <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
+        <v>1.875</v>
+      </c>
+      <c r="T207">
+        <v>3.75</v>
+      </c>
+      <c r="U207">
         <v>1.95</v>
       </c>
-      <c r="Q207">
-        <v>0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.825</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>4</v>
-      </c>
-      <c r="U207">
-        <v>1.75</v>
-      </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18957,16 +18957,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18986,7 +18986,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>48</v>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6892996</v>
+        <v>6893684</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,58 +19164,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H210">
+        <v>7</v>
+      </c>
+      <c r="I210">
         <v>2</v>
-      </c>
-      <c r="I210">
-        <v>1</v>
       </c>
       <c r="J210" t="s">
         <v>53</v>
       </c>
       <c r="K210">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L210">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N210">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U210">
+        <v>1.75</v>
+      </c>
+      <c r="V210">
         <v>1.95</v>
       </c>
-      <c r="V210">
-        <v>1.85</v>
-      </c>
       <c r="W210">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA210">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19701,7 +19701,7 @@
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -19879,7 +19879,7 @@
         <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -19953,7 +19953,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19965,76 +19965,76 @@
         <v>45186.375</v>
       </c>
       <c r="F219" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K219">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L219">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M219">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N219">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O219">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P219">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q219">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S219">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T219">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U219">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y219">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,76 +20054,76 @@
         <v>45186.375</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K220">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L220">
+        <v>5.5</v>
+      </c>
+      <c r="M220">
+        <v>1.333</v>
+      </c>
+      <c r="N220">
         <v>4.5</v>
       </c>
-      <c r="M220">
-        <v>1.533</v>
-      </c>
-      <c r="N220">
-        <v>4.333</v>
-      </c>
       <c r="O220">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P220">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q220">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>1.8</v>
+      </c>
+      <c r="T220">
+        <v>3.75</v>
+      </c>
+      <c r="U220">
         <v>1.875</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.925</v>
       </c>
-      <c r="T220">
-        <v>3.25</v>
-      </c>
-      <c r="U220">
-        <v>1.975</v>
-      </c>
-      <c r="V220">
-        <v>1.825</v>
-      </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z220">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20143,7 +20143,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
         <v>49</v>
@@ -20232,7 +20232,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20677,7 +20677,7 @@
         <v>45193.375</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
         <v>48</v>
@@ -20766,7 +20766,7 @@
         <v>45193.375</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
         <v>46</v>
@@ -21214,7 +21214,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21377,7 +21377,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21389,76 +21389,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K235">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L235">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M235">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O235">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P235">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q235">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R235">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U235">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X235">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N236">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O236">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P236">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q236">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W236">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45200.375</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K237">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L237">
         <v>4.2</v>
       </c>
       <c r="M237">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N237">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O237">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U237">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45200.375</v>
       </c>
       <c r="F238" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K238">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L238">
         <v>4.2</v>
       </c>
       <c r="M238">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N238">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O238">
+        <v>4.333</v>
+      </c>
+      <c r="P238">
         <v>4.5</v>
       </c>
-      <c r="P238">
-        <v>1.4</v>
-      </c>
       <c r="Q238">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U238">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21745,7 +21745,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
         <v>50</v>
@@ -22101,7 +22101,7 @@
         <v>45207.375</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
         <v>44</v>
@@ -22282,7 +22282,7 @@
         <v>40</v>
       </c>
       <c r="G245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22727,7 +22727,7 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -22902,7 +22902,7 @@
         <v>45214.375</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
         <v>43</v>
@@ -22991,7 +22991,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G253" t="s">
         <v>49</v>
@@ -23169,7 +23169,7 @@
         <v>45221.375</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G255" t="s">
         <v>50</v>
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,10 +23258,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23273,40 +23273,40 @@
         <v>54</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L256">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N256">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P256">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R256">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U256">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB256">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,10 +23347,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23362,40 +23362,40 @@
         <v>54</v>
       </c>
       <c r="K257">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L257">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M257">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N257">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O257">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P257">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,16 +23404,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23780,7 +23780,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23792,76 +23792,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N262">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
         <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X262">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M263">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N263">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P263">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC263">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23970,10 +23970,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -24685,7 +24685,7 @@
         <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24863,7 +24863,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,76 +25661,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K283">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L283">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M283">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N283">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O283">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P283">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R283">
+        <v>1.975</v>
+      </c>
+      <c r="S283">
         <v>1.825</v>
-      </c>
-      <c r="S283">
-        <v>1.975</v>
       </c>
       <c r="T283">
         <v>3.75</v>
       </c>
       <c r="U283">
+        <v>1.925</v>
+      </c>
+      <c r="V283">
         <v>1.875</v>
       </c>
-      <c r="V283">
-        <v>1.925</v>
-      </c>
       <c r="W283">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z283">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
+        <v>0.825</v>
+      </c>
+      <c r="AB283">
+        <v>0.4625</v>
+      </c>
+      <c r="AC283">
         <v>-0.5</v>
-      </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
-      <c r="AC283">
-        <v>0.925</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
         <v>1</v>
       </c>
-      <c r="I285">
-        <v>3</v>
-      </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K285">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M285">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O285">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P285">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R285">
+        <v>1.825</v>
+      </c>
+      <c r="S285">
         <v>1.975</v>
-      </c>
-      <c r="S285">
-        <v>1.825</v>
       </c>
       <c r="T285">
         <v>3.75</v>
       </c>
       <c r="U285">
+        <v>1.875</v>
+      </c>
+      <c r="V285">
         <v>1.925</v>
       </c>
-      <c r="V285">
-        <v>1.875</v>
-      </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA285">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB285">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26198,7 +26198,7 @@
         <v>48</v>
       </c>
       <c r="G289" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26465,7 +26465,7 @@
         <v>45</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -27266,7 +27266,7 @@
         <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27355,7 +27355,7 @@
         <v>51</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,40 +27708,40 @@
         <v>45325.375</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G306" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J306" t="s">
         <v>54</v>
       </c>
       <c r="K306">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L306">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M306">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N306">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O306">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P306">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q306">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R306">
         <v>1.95</v>
@@ -27750,13 +27750,13 @@
         <v>1.85</v>
       </c>
       <c r="T306">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U306">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V306">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27765,7 +27765,7 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z306">
         <v>-1</v>
@@ -27774,10 +27774,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB306">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27785,7 +27785,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27797,40 +27797,40 @@
         <v>45325.375</v>
       </c>
       <c r="F307" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J307" t="s">
         <v>54</v>
       </c>
       <c r="K307">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L307">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M307">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N307">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O307">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P307">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q307">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R307">
         <v>1.95</v>
@@ -27839,13 +27839,13 @@
         <v>1.85</v>
       </c>
       <c r="T307">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V307">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27854,7 +27854,7 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z307">
         <v>-1</v>
@@ -27863,10 +27863,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB307">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,56 +27975,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J309" t="s">
         <v>54</v>
       </c>
       <c r="K309">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L309">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M309">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N309">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O309">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P309">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q309">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R309">
+        <v>1.775</v>
+      </c>
+      <c r="S309">
+        <v>1.925</v>
+      </c>
+      <c r="T309">
+        <v>3.75</v>
+      </c>
+      <c r="U309">
+        <v>1.75</v>
+      </c>
+      <c r="V309">
         <v>1.95</v>
       </c>
-      <c r="S309">
-        <v>1.85</v>
-      </c>
-      <c r="T309">
-        <v>4.5</v>
-      </c>
-      <c r="U309">
-        <v>1.975</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
@@ -28032,16 +28032,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB309">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC309">
         <v>-1</v>
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,55 +28064,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L310">
+        <v>11</v>
+      </c>
+      <c r="M310">
+        <v>1.062</v>
+      </c>
+      <c r="N310">
+        <v>23</v>
+      </c>
+      <c r="O310">
+        <v>13</v>
+      </c>
+      <c r="P310">
+        <v>1.062</v>
+      </c>
+      <c r="Q310">
+        <v>3.25</v>
+      </c>
+      <c r="R310">
+        <v>1.95</v>
+      </c>
+      <c r="S310">
+        <v>1.85</v>
+      </c>
+      <c r="T310">
         <v>4.5</v>
       </c>
-      <c r="M310">
-        <v>1.727</v>
-      </c>
-      <c r="N310">
-        <v>3.8</v>
-      </c>
-      <c r="O310">
-        <v>4.5</v>
-      </c>
-      <c r="P310">
-        <v>1.615</v>
-      </c>
-      <c r="Q310">
-        <v>1</v>
-      </c>
-      <c r="R310">
-        <v>1.775</v>
-      </c>
-      <c r="S310">
-        <v>1.925</v>
-      </c>
-      <c r="T310">
-        <v>3.75</v>
-      </c>
       <c r="U310">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z310">
         <v>-1</v>
       </c>
       <c r="AA310">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB310">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28423,7 +28423,7 @@
         <v>52</v>
       </c>
       <c r="G314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,13 +28598,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G316" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -28613,43 +28613,43 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L316">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N316">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O316">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P316">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R316">
+        <v>1.95</v>
+      </c>
+      <c r="S316">
+        <v>1.85</v>
+      </c>
+      <c r="T316">
+        <v>4.25</v>
+      </c>
+      <c r="U316">
+        <v>1.975</v>
+      </c>
+      <c r="V316">
         <v>1.825</v>
       </c>
-      <c r="S316">
-        <v>1.975</v>
-      </c>
-      <c r="T316">
-        <v>3.75</v>
-      </c>
-      <c r="U316">
-        <v>1.925</v>
-      </c>
-      <c r="V316">
-        <v>1.875</v>
-      </c>
       <c r="W316">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,16 +28658,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
         <v>0.825</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
-      <c r="AC316">
-        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,13 +28687,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G317" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -28702,43 +28702,43 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L317">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M317">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N317">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O317">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q317">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28747,16 +28747,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28954,10 +28954,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H320">
         <v>0</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -136,13 +136,13 @@
     <t>FC Trkiye Wilhelmsburg</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
-  </si>
-  <si>
     <t>TSV Buchholz 08</t>
   </si>
   <si>
     <t>Niendorfer TSV</t>
+  </si>
+  <si>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>TSV Sasel</t>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5278166</v>
+        <v>5278167</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,73 +1634,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5278167</v>
+        <v>5278055</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1723,46 +1723,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>55</v>
       </c>
       <c r="K14">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P14">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U14">
         <v>1.9</v>
@@ -1774,22 +1774,22 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB14">
         <v>-0.5</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5278055</v>
+        <v>5278166</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1812,37 +1812,37 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="N15">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q15">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
         <v>1.9</v>
@@ -1851,22 +1851,22 @@
         <v>1.9</v>
       </c>
       <c r="T15">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
         <v>-1</v>
@@ -1875,10 +1875,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1975,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5278171</v>
+        <v>5285796</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,55 +1987,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P17">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
         <v>1.95</v>
       </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2044,19 +2044,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.7270000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5278169</v>
+        <v>5278171</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,49 +2076,49 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -2133,19 +2133,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5285796</v>
+        <v>5278169</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,55 +2165,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O19">
         <v>3.8</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2222,19 +2222,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2877,7 +2877,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -2966,7 +2966,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3055,7 +3055,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3770,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -4301,7 +4301,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -4390,7 +4390,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4479,7 +4479,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4645,7 +4645,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5285794</v>
+        <v>5278185</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4657,76 +4657,76 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="L47">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M47">
-        <v>1.8</v>
+        <v>1.181</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O47">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P47">
-        <v>1.6</v>
+        <v>1.142</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5278185</v>
+        <v>5285794</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4746,76 +4746,76 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48">
+        <v>3.1</v>
+      </c>
+      <c r="L48">
+        <v>4.2</v>
+      </c>
+      <c r="M48">
+        <v>1.8</v>
+      </c>
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K48">
-        <v>9</v>
-      </c>
-      <c r="L48">
-        <v>6.5</v>
-      </c>
-      <c r="M48">
-        <v>1.181</v>
-      </c>
-      <c r="N48">
-        <v>11</v>
-      </c>
       <c r="O48">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>1.142</v>
+        <v>1.6</v>
       </c>
       <c r="Q48">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T48">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y48">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5016,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5179,7 +5179,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5278074</v>
+        <v>5285793</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5191,76 +5191,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K53">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L53">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
         <v>1.333</v>
       </c>
       <c r="O53">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P53">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q53">
         <v>-1.5</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>3.75</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z53">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5268,7 +5268,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5285793</v>
+        <v>5278074</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5280,76 +5280,76 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>2</v>
-      </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L54">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N54">
         <v>1.333</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P54">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
         <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>3.75</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5636,7 +5636,7 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5278189</v>
+        <v>5278078</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,58 +5725,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M59">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N59">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>1.3</v>
+        <v>3.333</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5278008</v>
+        <v>5278189</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,58 +5814,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N60">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O60">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U60">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5874,13 +5874,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,49 +5903,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O61">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q61">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5954,7 +5954,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5995,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6069,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5285789</v>
+        <v>5285882</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6081,76 +6081,76 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M63">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="N63">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P63">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5285882</v>
+        <v>5285789</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,76 +6170,76 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="N64">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="O64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="Q64">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X64">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6526,10 +6526,10 @@
         <v>45011.375</v>
       </c>
       <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
         <v>42</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6618,7 +6618,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6707,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -7152,7 +7152,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7416,7 +7416,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -8042,7 +8042,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8306,10 +8306,10 @@
         <v>45023.375</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>45026.375</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8662,7 +8662,7 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8932,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9552,7 +9552,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
         <v>31</v>
@@ -9641,7 +9641,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
         <v>35</v>
@@ -9911,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10798,10 +10798,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10979,7 +10979,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11409,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5289670</v>
+        <v>5288444</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11421,40 +11421,40 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K123">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M123">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O123">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q123">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>1.925</v>
@@ -11463,34 +11463,34 @@
         <v>1.875</v>
       </c>
       <c r="T123">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5288444</v>
+        <v>5289598</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>55</v>
+      </c>
+      <c r="K124">
+        <v>4.75</v>
+      </c>
+      <c r="L124">
+        <v>4.75</v>
+      </c>
+      <c r="M124">
+        <v>1.444</v>
+      </c>
+      <c r="N124">
+        <v>4.333</v>
+      </c>
+      <c r="O124">
+        <v>4.75</v>
+      </c>
+      <c r="P124">
+        <v>1.5</v>
+      </c>
+      <c r="Q124">
+        <v>1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
+        <v>3.25</v>
+      </c>
+      <c r="U124">
         <v>2</v>
       </c>
-      <c r="J124" t="s">
-        <v>53</v>
-      </c>
-      <c r="K124">
-        <v>2.375</v>
-      </c>
-      <c r="L124">
-        <v>4.2</v>
-      </c>
-      <c r="M124">
-        <v>2.2</v>
-      </c>
-      <c r="N124">
-        <v>2.05</v>
-      </c>
-      <c r="O124">
-        <v>4.2</v>
-      </c>
-      <c r="P124">
-        <v>2.55</v>
-      </c>
-      <c r="Q124">
-        <v>-0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.925</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>1.825</v>
-      </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5289598</v>
+        <v>5289670</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N125">
         <v>4.333</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
         <v>1.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>4.25</v>
+      </c>
+      <c r="U125">
         <v>1.95</v>
       </c>
-      <c r="T125">
-        <v>3.25</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11691,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11780,7 +11780,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -12047,7 +12047,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12403,7 +12403,7 @@
         <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5289674</v>
+        <v>5290651</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,73 +12578,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
         <v>4.5</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1.8</v>
+      </c>
+      <c r="T136">
+        <v>3.5</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
         <v>1.95</v>
       </c>
-      <c r="S136">
-        <v>1.85</v>
-      </c>
-      <c r="T136">
-        <v>4.25</v>
-      </c>
-      <c r="U136">
-        <v>2</v>
-      </c>
-      <c r="V136">
-        <v>1.8</v>
-      </c>
       <c r="W136">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5290650</v>
+        <v>5290704</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,58 +12667,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>53</v>
       </c>
       <c r="K137">
-        <v>3.75</v>
+        <v>1.071</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="M137">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="P137">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="Q137">
-        <v>0.5</v>
+        <v>-3</v>
       </c>
       <c r="R137">
+        <v>1.775</v>
+      </c>
+      <c r="S137">
         <v>1.925</v>
       </c>
-      <c r="S137">
-        <v>1.775</v>
-      </c>
       <c r="T137">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>2.2</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12727,13 +12727,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5289675</v>
+        <v>5290652</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M139">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N139">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
         <v>4</v>
       </c>
       <c r="U139">
+        <v>1.975</v>
+      </c>
+      <c r="V139">
         <v>1.825</v>
       </c>
-      <c r="V139">
-        <v>1.975</v>
-      </c>
       <c r="W139">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.825</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5289673</v>
+        <v>5290681</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,16 +12934,16 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>54</v>
@@ -12952,38 +12952,38 @@
         <v>5.5</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M140">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="N140">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="O140">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P140">
-        <v>1.333</v>
+        <v>1.166</v>
       </c>
       <c r="Q140">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
         <v>1.875</v>
       </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
       <c r="W140">
         <v>-1</v>
       </c>
@@ -12991,19 +12991,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.333</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5290652</v>
+        <v>5290650</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N141">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5290704</v>
+        <v>5289674</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,58 +13112,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.071</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>0.1000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,13 +13172,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5290651</v>
+        <v>5289673</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,55 +13201,55 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J143" t="s">
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="N143">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13258,19 +13258,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.95</v>
+        <v>0.333</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5290681</v>
+        <v>5289675</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
       <c r="J144" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M144">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="O144">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P144">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T144">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC144">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13824,10 +13824,10 @@
         <v>45137.375</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13916,7 +13916,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6893332</v>
+        <v>6893654</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14450,10 +14450,10 @@
         <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14462,25 +14462,25 @@
         <v>53</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P157">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R157">
         <v>1.925</v>
@@ -14489,7 +14489,7 @@
         <v>1.875</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U157">
         <v>1.875</v>
@@ -14498,7 +14498,7 @@
         <v>1.925</v>
       </c>
       <c r="W157">
-        <v>2.4</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,13 +14536,13 @@
         <v>45144.375</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H158">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -14551,25 +14551,25 @@
         <v>53</v>
       </c>
       <c r="K158">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M158">
+        <v>2.3</v>
+      </c>
+      <c r="N158">
+        <v>3.4</v>
+      </c>
+      <c r="O158">
         <v>4.5</v>
       </c>
-      <c r="N158">
-        <v>1.333</v>
-      </c>
-      <c r="O158">
-        <v>5.5</v>
-      </c>
       <c r="P158">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q158">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
         <v>1.925</v>
@@ -14578,7 +14578,7 @@
         <v>1.875</v>
       </c>
       <c r="T158">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
         <v>1.875</v>
@@ -14587,7 +14587,7 @@
         <v>1.925</v>
       </c>
       <c r="W158">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>1</v>
       </c>
-      <c r="I160">
+      <c r="J160" t="s">
+        <v>53</v>
+      </c>
+      <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>4.5</v>
+      </c>
+      <c r="M160">
         <v>5</v>
       </c>
-      <c r="J160" t="s">
-        <v>54</v>
-      </c>
-      <c r="K160">
-        <v>11</v>
-      </c>
-      <c r="L160">
-        <v>9</v>
-      </c>
-      <c r="M160">
-        <v>1.1</v>
-      </c>
       <c r="N160">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O160">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P160">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q160">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>5</v>
+      </c>
+      <c r="J161" t="s">
+        <v>54</v>
+      </c>
+      <c r="K161">
+        <v>11</v>
+      </c>
+      <c r="L161">
+        <v>9</v>
+      </c>
+      <c r="M161">
+        <v>1.1</v>
+      </c>
+      <c r="N161">
+        <v>19</v>
+      </c>
+      <c r="O161">
+        <v>10</v>
+      </c>
+      <c r="P161">
+        <v>1.083</v>
+      </c>
+      <c r="Q161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161" t="s">
-        <v>53</v>
-      </c>
-      <c r="K161">
-        <v>1.444</v>
-      </c>
-      <c r="L161">
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1.8</v>
+      </c>
+      <c r="T161">
         <v>4.5</v>
       </c>
-      <c r="M161">
-        <v>5</v>
-      </c>
-      <c r="N161">
-        <v>1.25</v>
-      </c>
-      <c r="O161">
-        <v>5.5</v>
-      </c>
-      <c r="P161">
-        <v>7.5</v>
-      </c>
-      <c r="Q161">
-        <v>-2</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.875</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.925</v>
       </c>
-      <c r="T161">
-        <v>4.25</v>
-      </c>
-      <c r="U161">
-        <v>1.975</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164" t="s">
+        <v>54</v>
+      </c>
+      <c r="K164">
         <v>2</v>
-      </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
-      <c r="J164" t="s">
-        <v>55</v>
-      </c>
-      <c r="K164">
-        <v>2.1</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O164">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P164">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6892992</v>
+        <v>6893659</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,76 +15159,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N165">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P165">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y165">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15251,7 +15251,7 @@
         <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15515,10 +15515,10 @@
         <v>45151.375</v>
       </c>
       <c r="F169" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" t="s">
         <v>42</v>
-      </c>
-      <c r="G169" t="s">
-        <v>40</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -16138,7 +16138,7 @@
         <v>45158.375</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16215,7 +16215,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16227,73 +16227,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K177">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L177">
         <v>4.2</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16304,7 +16304,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16316,73 +16316,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K178">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L178">
         <v>4.2</v>
       </c>
       <c r="M178">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N178">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P178">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L179">
+        <v>4.5</v>
+      </c>
+      <c r="M179">
+        <v>1.615</v>
+      </c>
+      <c r="N179">
+        <v>2.625</v>
+      </c>
+      <c r="O179">
         <v>4.2</v>
       </c>
-      <c r="M179">
-        <v>2.3</v>
-      </c>
-      <c r="N179">
-        <v>1.833</v>
-      </c>
-      <c r="O179">
-        <v>4.5</v>
-      </c>
       <c r="P179">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>3.75</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.875</v>
+      </c>
+      <c r="AB179">
+        <v>0.425</v>
+      </c>
+      <c r="AC179">
         <v>-0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>4.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
-      <c r="W179">
-        <v>0.833</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,58 +16494,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H180">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
         <v>53</v>
       </c>
       <c r="K180">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L180">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N180">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O180">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P180">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q180">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U180">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X180">
         <v>-1</v>
@@ -16554,13 +16554,13 @@
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA180">
         <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,76 +16583,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L181">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M181">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N181">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P181">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T181">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16764,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16853,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893673</v>
+        <v>6893674</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45165.375</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G185" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
         <v>2</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M185">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N185">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O185">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893674</v>
+        <v>6893673</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,76 +17117,76 @@
         <v>45165.375</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>53</v>
+      </c>
+      <c r="K187">
+        <v>1.5</v>
+      </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
+      <c r="M187">
+        <v>4</v>
+      </c>
+      <c r="N187">
+        <v>1.5</v>
+      </c>
+      <c r="O187">
+        <v>5</v>
+      </c>
+      <c r="P187">
+        <v>4</v>
+      </c>
+      <c r="Q187">
+        <v>-1</v>
+      </c>
+      <c r="R187">
+        <v>1.75</v>
+      </c>
+      <c r="S187">
+        <v>1.95</v>
+      </c>
+      <c r="T187">
+        <v>4</v>
+      </c>
+      <c r="U187">
+        <v>1.925</v>
+      </c>
+      <c r="V187">
+        <v>1.775</v>
+      </c>
+      <c r="W187">
+        <v>0.5</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
         <v>0</v>
       </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187" t="s">
-        <v>54</v>
-      </c>
-      <c r="K187">
-        <v>2.8</v>
-      </c>
-      <c r="L187">
-        <v>4.333</v>
-      </c>
-      <c r="M187">
-        <v>1.909</v>
-      </c>
-      <c r="N187">
-        <v>2.25</v>
-      </c>
-      <c r="O187">
-        <v>4.333</v>
-      </c>
-      <c r="P187">
-        <v>2.3</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>1.875</v>
-      </c>
-      <c r="S187">
-        <v>1.925</v>
-      </c>
-      <c r="T187">
-        <v>3.5</v>
-      </c>
-      <c r="U187">
-        <v>1.975</v>
-      </c>
-      <c r="V187">
-        <v>1.825</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>1.3</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
       <c r="AA187">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45171.375</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N189">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q189">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,73 +17384,73 @@
         <v>45171.375</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K190">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N190">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P190">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17829,7 +17829,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
         <v>44</v>
@@ -17921,7 +17921,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H198">
         <v>3</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L198">
         <v>4</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O198">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q198">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X198">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,73 +18185,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P199">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,58 +18274,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
+        <v>4.5</v>
+      </c>
+      <c r="L200">
+        <v>4.2</v>
+      </c>
+      <c r="M200">
+        <v>1.533</v>
+      </c>
+      <c r="N200">
+        <v>3.6</v>
+      </c>
+      <c r="O200">
+        <v>4</v>
+      </c>
+      <c r="P200">
+        <v>1.75</v>
+      </c>
+      <c r="Q200">
+        <v>0.75</v>
+      </c>
+      <c r="R200">
+        <v>1.85</v>
+      </c>
+      <c r="S200">
         <v>1.95</v>
       </c>
-      <c r="L200">
-        <v>4</v>
-      </c>
-      <c r="M200">
-        <v>2.875</v>
-      </c>
-      <c r="N200">
-        <v>1.333</v>
-      </c>
-      <c r="O200">
-        <v>4.75</v>
-      </c>
-      <c r="P200">
-        <v>6</v>
-      </c>
-      <c r="Q200">
-        <v>-1.75</v>
-      </c>
-      <c r="R200">
+      <c r="T200">
+        <v>3.75</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
         <v>1.975</v>
       </c>
-      <c r="S200">
-        <v>1.825</v>
-      </c>
-      <c r="T200">
-        <v>4</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>1.95</v>
-      </c>
       <c r="W200">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18334,16 +18334,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18544,7 +18544,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18719,7 +18719,7 @@
         <v>45179.375</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
         <v>31</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6893685</v>
+        <v>6893684</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,73 +18986,73 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
       </c>
       <c r="K208">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N208">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="Q208">
+        <v>0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
+        <v>4</v>
+      </c>
+      <c r="U208">
+        <v>1.75</v>
+      </c>
+      <c r="V208">
+        <v>1.95</v>
+      </c>
+      <c r="W208">
+        <v>2</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.825</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
         <v>0.75</v>
-      </c>
-      <c r="R208">
-        <v>1.95</v>
-      </c>
-      <c r="S208">
-        <v>1.85</v>
-      </c>
-      <c r="T208">
-        <v>3.5</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
-      <c r="W208">
-        <v>2.4</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.95</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>0.825</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6893687</v>
+        <v>6893685</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,76 +19075,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M209">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P209">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q209">
         <v>0.75</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T209">
         <v>3.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X209">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6893684</v>
+        <v>6893687</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H210">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
         <v>4</v>
       </c>
       <c r="M210">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N210">
+        <v>3.6</v>
+      </c>
+      <c r="O210">
+        <v>4</v>
+      </c>
+      <c r="P210">
+        <v>1.7</v>
+      </c>
+      <c r="Q210">
+        <v>0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>3.5</v>
+      </c>
+      <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
+        <v>1.925</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
         <v>3</v>
       </c>
-      <c r="O210">
-        <v>4.2</v>
-      </c>
-      <c r="P210">
-        <v>1.95</v>
-      </c>
-      <c r="Q210">
-        <v>0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.825</v>
-      </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>4</v>
-      </c>
-      <c r="U210">
-        <v>1.75</v>
-      </c>
-      <c r="V210">
-        <v>1.95</v>
-      </c>
-      <c r="W210">
-        <v>2</v>
-      </c>
-      <c r="X210">
-        <v>-1</v>
-      </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19345,7 +19345,7 @@
         <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H212">
         <v>8</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
         <v>3</v>
       </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L217">
         <v>4.5</v>
       </c>
       <c r="M217">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N217">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O217">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19838,25 +19838,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z217">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19864,7 +19864,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19876,49 +19876,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>3</v>
-      </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L218">
         <v>4.5</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O218">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P218">
+        <v>4.333</v>
+      </c>
+      <c r="Q218">
+        <v>-1.25</v>
+      </c>
+      <c r="R218">
+        <v>1.925</v>
+      </c>
+      <c r="S218">
+        <v>1.775</v>
+      </c>
+      <c r="T218">
         <v>4</v>
-      </c>
-      <c r="Q218">
-        <v>-1</v>
-      </c>
-      <c r="R218">
-        <v>1.85</v>
-      </c>
-      <c r="S218">
-        <v>1.95</v>
-      </c>
-      <c r="T218">
-        <v>3.75</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19927,25 +19927,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA218">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20057,7 +20057,7 @@
         <v>46</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20143,7 +20143,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
         <v>49</v>
@@ -20677,7 +20677,7 @@
         <v>45193.375</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
         <v>48</v>
@@ -20766,7 +20766,7 @@
         <v>45193.375</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
         <v>46</v>
@@ -20932,7 +20932,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,49 +20944,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L230">
         <v>5.25</v>
       </c>
       <c r="M230">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N230">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O230">
         <v>5.25</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q230">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T230">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U230">
         <v>1.825</v>
@@ -20995,25 +20995,25 @@
         <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21021,7 +21021,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21033,49 +21033,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K231">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L231">
         <v>5.25</v>
       </c>
       <c r="M231">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N231">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O231">
         <v>5.25</v>
       </c>
       <c r="P231">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q231">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U231">
         <v>1.825</v>
@@ -21084,25 +21084,25 @@
         <v>1.975</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X231">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21214,7 +21214,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21377,7 +21377,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21389,76 +21389,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K235">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L235">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M235">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O235">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P235">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q235">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W235">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB235">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K236">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L236">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M236">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N236">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O236">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P236">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q236">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R236">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T236">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X236">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA236">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC236">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21555,7 +21555,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21567,76 +21567,76 @@
         <v>45200.375</v>
       </c>
       <c r="F237" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K237">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L237">
         <v>4.2</v>
       </c>
       <c r="M237">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N237">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O237">
+        <v>4.333</v>
+      </c>
+      <c r="P237">
         <v>4.5</v>
       </c>
-      <c r="P237">
-        <v>1.4</v>
-      </c>
       <c r="Q237">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21644,7 +21644,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21656,76 +21656,76 @@
         <v>45200.375</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K238">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L238">
         <v>4.2</v>
       </c>
       <c r="M238">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N238">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O238">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q238">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U238">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22101,7 +22101,7 @@
         <v>45207.375</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
         <v>44</v>
@@ -22178,7 +22178,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22190,58 +22190,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
         <v>53</v>
       </c>
       <c r="K244">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L244">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M244">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N244">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P244">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R244">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T244">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22250,7 +22250,7 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA244">
         <v>-1</v>
@@ -22259,7 +22259,7 @@
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22267,7 +22267,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22279,58 +22279,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G245" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245">
         <v>1</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>53</v>
       </c>
       <c r="K245">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L245">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M245">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N245">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P245">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q245">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R245">
+        <v>1.9</v>
+      </c>
+      <c r="S245">
+        <v>1.9</v>
+      </c>
+      <c r="T245">
+        <v>3.5</v>
+      </c>
+      <c r="U245">
+        <v>1.925</v>
+      </c>
+      <c r="V245">
         <v>1.875</v>
       </c>
-      <c r="S245">
-        <v>1.925</v>
-      </c>
-      <c r="T245">
-        <v>4.25</v>
-      </c>
-      <c r="U245">
-        <v>1.975</v>
-      </c>
-      <c r="V245">
-        <v>1.825</v>
-      </c>
       <c r="W245">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22339,16 +22339,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA245">
+        <v>-1</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
         <v>0.875</v>
-      </c>
-      <c r="AA245">
-        <v>-1</v>
-      </c>
-      <c r="AB245">
-        <v>-1</v>
-      </c>
-      <c r="AC245">
-        <v>0.825</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22638,7 +22638,7 @@
         <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H249">
         <v>5</v>
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,76 +22724,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L250">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M250">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N250">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O250">
         <v>4.2</v>
       </c>
       <c r="P250">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T250">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,76 +22813,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M251">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N251">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O251">
         <v>4.2</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y251">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22902,7 +22902,7 @@
         <v>45214.375</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G252" t="s">
         <v>43</v>
@@ -23169,7 +23169,7 @@
         <v>45221.375</v>
       </c>
       <c r="F255" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G255" t="s">
         <v>50</v>
@@ -23350,7 +23350,7 @@
         <v>51</v>
       </c>
       <c r="G257" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23780,7 +23780,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23792,76 +23792,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M262">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N262">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O262">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
         <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC262">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N263">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O263">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X263">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23973,7 +23973,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,40 +24237,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L267">
         <v>5.5</v>
       </c>
       <c r="M267">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N267">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O267">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P267">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q267">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R267">
         <v>1.825</v>
@@ -24279,34 +24279,34 @@
         <v>1.975</v>
       </c>
       <c r="T267">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y267">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB267">
         <v>-0.5</v>
       </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,40 +24326,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K268">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L268">
         <v>5.5</v>
       </c>
       <c r="M268">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N268">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O268">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P268">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q268">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R268">
         <v>1.825</v>
@@ -24368,34 +24368,34 @@
         <v>1.975</v>
       </c>
       <c r="T268">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,58 +24771,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
         <v>53</v>
       </c>
       <c r="K273">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L273">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M273">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N273">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O273">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P273">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q273">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R273">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S273">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T273">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V273">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24831,7 +24831,7 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA273">
         <v>-1</v>
@@ -24840,7 +24840,7 @@
         <v>-1</v>
       </c>
       <c r="AC273">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24848,7 +24848,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24860,58 +24860,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F274" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G274" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="s">
         <v>53</v>
       </c>
       <c r="K274">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L274">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M274">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N274">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O274">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P274">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q274">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R274">
+        <v>1.9</v>
+      </c>
+      <c r="S274">
+        <v>1.9</v>
+      </c>
+      <c r="T274">
+        <v>3.75</v>
+      </c>
+      <c r="U274">
+        <v>1.85</v>
+      </c>
+      <c r="V274">
         <v>1.95</v>
       </c>
-      <c r="S274">
-        <v>1.85</v>
-      </c>
-      <c r="T274">
-        <v>3.5</v>
-      </c>
-      <c r="U274">
-        <v>1.875</v>
-      </c>
-      <c r="V274">
-        <v>1.925</v>
-      </c>
       <c r="W274">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -24920,16 +24920,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
         <v>0.95</v>
-      </c>
-      <c r="AA274">
-        <v>-1</v>
-      </c>
-      <c r="AB274">
-        <v>-1</v>
-      </c>
-      <c r="AC274">
-        <v>0.925</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24949,13 +24949,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G275" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -24964,40 +24964,40 @@
         <v>54</v>
       </c>
       <c r="K275">
+        <v>2.3</v>
+      </c>
+      <c r="L275">
+        <v>4.2</v>
+      </c>
+      <c r="M275">
+        <v>2.25</v>
+      </c>
+      <c r="N275">
+        <v>2.625</v>
+      </c>
+      <c r="O275">
+        <v>4.2</v>
+      </c>
+      <c r="P275">
+        <v>2</v>
+      </c>
+      <c r="Q275">
+        <v>0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.95</v>
+      </c>
+      <c r="S275">
         <v>1.85</v>
       </c>
-      <c r="L275">
-        <v>4</v>
-      </c>
-      <c r="M275">
-        <v>3.1</v>
-      </c>
-      <c r="N275">
-        <v>1.95</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>2.9</v>
-      </c>
-      <c r="Q275">
-        <v>-0.25</v>
-      </c>
-      <c r="R275">
-        <v>1.8</v>
-      </c>
-      <c r="S275">
-        <v>2</v>
-      </c>
       <c r="T275">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
@@ -25006,19 +25006,19 @@
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB275">
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,13 +25038,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25053,61 +25053,61 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M276">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
+        <v>2.9</v>
+      </c>
+      <c r="Q276">
+        <v>-0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.8</v>
+      </c>
+      <c r="S276">
         <v>2</v>
       </c>
-      <c r="Q276">
-        <v>0.25</v>
-      </c>
-      <c r="R276">
+      <c r="T276">
+        <v>4</v>
+      </c>
+      <c r="U276">
         <v>1.95</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.85</v>
       </c>
-      <c r="T276">
-        <v>3.75</v>
-      </c>
-      <c r="U276">
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
         <v>1.9</v>
       </c>
-      <c r="V276">
-        <v>1.9</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
         <v>1</v>
       </c>
-      <c r="Z276">
-        <v>-1</v>
-      </c>
-      <c r="AA276">
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB276">
-        <v>-1</v>
-      </c>
-      <c r="AC276">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,76 +25661,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G283" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
         <v>1</v>
       </c>
-      <c r="I283">
-        <v>3</v>
-      </c>
       <c r="J283" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K283">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M283">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N283">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O283">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P283">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q283">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
+        <v>1.825</v>
+      </c>
+      <c r="S283">
         <v>1.975</v>
-      </c>
-      <c r="S283">
-        <v>1.825</v>
       </c>
       <c r="T283">
         <v>3.75</v>
       </c>
       <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
         <v>1.925</v>
       </c>
-      <c r="V283">
-        <v>1.875</v>
-      </c>
       <c r="W283">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA283">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB283">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,73 +25750,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L284">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M284">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N284">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O284">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P284">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q284">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>3.75</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC284">
         <v>-0.5</v>
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6893737</v>
+        <v>6893738</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G285" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H285">
         <v>2</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K285">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L285">
         <v>5</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N285">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O285">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P285">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S285">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T285">
         <v>3.75</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W285">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.4875</v>
+      </c>
+      <c r="AC285">
         <v>-0.5</v>
-      </c>
-      <c r="AB285">
-        <v>-1</v>
-      </c>
-      <c r="AC285">
-        <v>0.925</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H288">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K288">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M288">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O288">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q288">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V288">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K289">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L289">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M289">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N289">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O289">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P289">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q289">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S289">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U289">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X289">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA289">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC289">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26465,7 +26465,7 @@
         <v>45</v>
       </c>
       <c r="G292" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -27263,10 +27263,10 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27696,7 +27696,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27708,40 +27708,40 @@
         <v>45325.375</v>
       </c>
       <c r="F306" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G306" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J306" t="s">
         <v>54</v>
       </c>
       <c r="K306">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L306">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M306">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N306">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O306">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P306">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q306">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R306">
         <v>1.95</v>
@@ -27750,13 +27750,13 @@
         <v>1.85</v>
       </c>
       <c r="T306">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U306">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W306">
         <v>-1</v>
@@ -27765,7 +27765,7 @@
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z306">
         <v>-1</v>
@@ -27774,10 +27774,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB306">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27785,7 +27785,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27797,40 +27797,40 @@
         <v>45325.375</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G307" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J307" t="s">
         <v>54</v>
       </c>
       <c r="K307">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L307">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M307">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N307">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O307">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P307">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q307">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R307">
         <v>1.95</v>
@@ -27839,13 +27839,13 @@
         <v>1.85</v>
       </c>
       <c r="T307">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U307">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
         <v>-1</v>
@@ -27854,7 +27854,7 @@
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z307">
         <v>-1</v>
@@ -27863,10 +27863,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB307">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,55 +27975,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G309" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J309" t="s">
         <v>54</v>
       </c>
       <c r="K309">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L309">
+        <v>11</v>
+      </c>
+      <c r="M309">
+        <v>1.062</v>
+      </c>
+      <c r="N309">
+        <v>23</v>
+      </c>
+      <c r="O309">
+        <v>13</v>
+      </c>
+      <c r="P309">
+        <v>1.062</v>
+      </c>
+      <c r="Q309">
+        <v>3.25</v>
+      </c>
+      <c r="R309">
+        <v>1.95</v>
+      </c>
+      <c r="S309">
+        <v>1.85</v>
+      </c>
+      <c r="T309">
         <v>4.5</v>
       </c>
-      <c r="M309">
-        <v>1.727</v>
-      </c>
-      <c r="N309">
-        <v>3.8</v>
-      </c>
-      <c r="O309">
-        <v>4.5</v>
-      </c>
-      <c r="P309">
-        <v>1.615</v>
-      </c>
-      <c r="Q309">
-        <v>1</v>
-      </c>
-      <c r="R309">
-        <v>1.775</v>
-      </c>
-      <c r="S309">
-        <v>1.925</v>
-      </c>
-      <c r="T309">
-        <v>3.75</v>
-      </c>
       <c r="U309">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V309">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28032,16 +28032,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB309">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC309">
         <v>-1</v>
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,56 +28064,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G310" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L310">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M310">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N310">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O310">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P310">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q310">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R310">
+        <v>1.775</v>
+      </c>
+      <c r="S310">
+        <v>1.925</v>
+      </c>
+      <c r="T310">
+        <v>3.75</v>
+      </c>
+      <c r="U310">
+        <v>1.75</v>
+      </c>
+      <c r="V310">
         <v>1.95</v>
       </c>
-      <c r="S310">
-        <v>1.85</v>
-      </c>
-      <c r="T310">
-        <v>4.5</v>
-      </c>
-      <c r="U310">
-        <v>1.975</v>
-      </c>
-      <c r="V310">
-        <v>1.825</v>
-      </c>
       <c r="W310">
         <v>-1</v>
       </c>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z310">
         <v>-1</v>
       </c>
       <c r="AA310">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB310">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28334,7 +28334,7 @@
         <v>44</v>
       </c>
       <c r="G313" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,13 +28598,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -28613,43 +28613,43 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L316">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M316">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N316">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O316">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P316">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q316">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,16 +28658,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA316">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,13 +28687,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -28702,43 +28702,43 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L317">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M317">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N317">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P317">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R317">
+        <v>1.95</v>
+      </c>
+      <c r="S317">
+        <v>1.85</v>
+      </c>
+      <c r="T317">
+        <v>4.25</v>
+      </c>
+      <c r="U317">
+        <v>1.975</v>
+      </c>
+      <c r="V317">
         <v>1.825</v>
       </c>
-      <c r="S317">
-        <v>1.975</v>
-      </c>
-      <c r="T317">
-        <v>3.75</v>
-      </c>
-      <c r="U317">
-        <v>1.925</v>
-      </c>
-      <c r="V317">
-        <v>1.875</v>
-      </c>
       <c r="W317">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28747,16 +28747,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB317">
+        <v>-1</v>
+      </c>
+      <c r="AC317">
         <v>0.825</v>
-      </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
-      <c r="AB317">
-        <v>-1</v>
-      </c>
-      <c r="AC317">
-        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28957,7 +28957,7 @@
         <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29310,7 +29310,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -106,10 +106,10 @@
     <t>FC Sderelbe</t>
   </si>
   <si>
-    <t>TuS Osdorf</t>
+    <t>TuRa Harksheide</t>
   </si>
   <si>
-    <t>TuRa Harksheide</t>
+    <t>TuS Osdorf</t>
   </si>
   <si>
     <t>SV CurslackNeuengamme</t>
@@ -136,13 +136,13 @@
     <t>FC Trkiye Wilhelmsburg</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
-  </si>
-  <si>
     <t>Niendorfer TSV</t>
   </si>
   <si>
     <t>FC Union Tornesch</t>
+  </si>
+  <si>
+    <t>TSV Buchholz 08</t>
   </si>
   <si>
     <t>TSV Sasel</t>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5278162</v>
+        <v>5285798</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>1.975</v>
-      </c>
       <c r="W3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5285798</v>
+        <v>5278162</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="N4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
         <v>1.975</v>
       </c>
-      <c r="V4">
-        <v>1.825</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1189,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5278167</v>
+        <v>5278055</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,46 +1634,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
       </c>
       <c r="K13">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>2.25</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.125</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P13">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U13">
         <v>1.9</v>
@@ -1685,22 +1685,22 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB13">
         <v>-0.5</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5278055</v>
+        <v>5278166</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1723,37 +1723,37 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="N14">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="O14">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q14">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
         <v>1.9</v>
@@ -1762,22 +1762,22 @@
         <v>1.9</v>
       </c>
       <c r="T14">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1786,10 +1786,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5278166</v>
+        <v>5278167</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1812,73 +1812,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O15">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
+        <v>1.875</v>
+      </c>
+      <c r="S15">
+        <v>1.925</v>
+      </c>
+      <c r="T15">
+        <v>3.25</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="T15">
-        <v>3.5</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.825</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA15">
+        <v>-0.5</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB15">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5285796</v>
+        <v>5278169</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,55 +1987,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2044,19 +2044,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2076,7 +2076,7 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5278169</v>
+        <v>5285796</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,55 +2165,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L19">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>3.8</v>
       </c>
       <c r="P19">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2222,19 +2222,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2613,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2877,10 +2877,10 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2954,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5278175</v>
+        <v>5278061</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2969,46 +2969,46 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>1.6</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>2.1</v>
-      </c>
-      <c r="N28">
-        <v>3.5</v>
-      </c>
-      <c r="O28">
-        <v>4.2</v>
-      </c>
       <c r="P28">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
         <v>1.875</v>
@@ -3020,22 +3020,22 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5278061</v>
+        <v>5278175</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3055,49 +3055,49 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
         <v>1.875</v>
@@ -3109,22 +3109,22 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3236,7 +3236,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3770,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5278067</v>
+        <v>5278180</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,56 +3856,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>54</v>
       </c>
       <c r="K38">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M38">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P38">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3913,19 +3913,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5278180</v>
+        <v>5278067</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,56 +3945,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -4002,19 +4002,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4126,7 +4126,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -4301,7 +4301,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -4390,7 +4390,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4479,10 +4479,10 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4746,7 +4746,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5016,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5194,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5278077</v>
+        <v>5278076</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
         <v>4</v>
       </c>
       <c r="M57">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O57">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P57">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5278076</v>
+        <v>5278077</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L58">
         <v>4</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N58">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O58">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P58">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,49 +5725,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
         <v>1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M59">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O59">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T59">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U59">
         <v>1.925</v>
@@ -5776,7 +5776,7 @@
         <v>1.875</v>
       </c>
       <c r="W59">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5785,16 +5785,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC59">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5278189</v>
+        <v>5278078</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,58 +5814,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N60">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P60">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.3</v>
+        <v>3.333</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278008</v>
+        <v>5278189</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,58 +5903,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N61">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O61">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q61">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,13 +5963,13 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5995,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6081,7 +6081,7 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6170,7 +6170,7 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6526,10 +6526,10 @@
         <v>45011.375</v>
       </c>
       <c r="F68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s">
         <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>42</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6618,7 +6618,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6707,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6796,7 +6796,7 @@
         <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6885,7 +6885,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -6959,7 +6959,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5279879</v>
+        <v>5285865</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6971,76 +6971,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K73">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>1.2</v>
       </c>
       <c r="N73">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P73">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>3.75</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>3.5</v>
-      </c>
-      <c r="U73">
-        <v>1.85</v>
-      </c>
-      <c r="V73">
-        <v>1.95</v>
-      </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y73">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5285865</v>
+        <v>5279879</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7060,76 +7060,76 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74" t="s">
+        <v>54</v>
+      </c>
+      <c r="K74">
+        <v>4.2</v>
+      </c>
+      <c r="L74">
+        <v>4.2</v>
+      </c>
+      <c r="M74">
+        <v>1.571</v>
+      </c>
+      <c r="N74">
+        <v>4.75</v>
+      </c>
+      <c r="O74">
+        <v>4.5</v>
+      </c>
+      <c r="P74">
+        <v>1.5</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>3.5</v>
+      </c>
+      <c r="U74">
+        <v>1.85</v>
+      </c>
+      <c r="V74">
+        <v>1.95</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>0.5</v>
+      </c>
+      <c r="Z74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>55</v>
-      </c>
-      <c r="K74">
-        <v>9</v>
-      </c>
-      <c r="L74">
-        <v>6</v>
-      </c>
-      <c r="M74">
-        <v>1.2</v>
-      </c>
-      <c r="N74">
-        <v>6.5</v>
-      </c>
-      <c r="O74">
-        <v>5</v>
-      </c>
-      <c r="P74">
-        <v>1.3</v>
-      </c>
-      <c r="Q74">
-        <v>1.75</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.75</v>
-      </c>
-      <c r="U74">
-        <v>1.95</v>
-      </c>
-      <c r="V74">
-        <v>1.85</v>
-      </c>
-      <c r="W74">
-        <v>-1</v>
-      </c>
-      <c r="X74">
-        <v>4</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
+      <c r="AA74">
+        <v>-0</v>
+      </c>
+      <c r="AB74">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7152,7 +7152,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7327,7 +7327,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7416,7 +7416,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7683,7 +7683,7 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>44</v>
@@ -7772,7 +7772,7 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
         <v>34</v>
@@ -8042,7 +8042,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8306,10 +8306,10 @@
         <v>45023.375</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8383,7 +8383,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6108974</v>
+        <v>6344789</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8395,76 +8395,76 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K89">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L89">
+        <v>4.5</v>
+      </c>
+      <c r="M89">
         <v>4.2</v>
       </c>
-      <c r="M89">
-        <v>2.5</v>
-      </c>
       <c r="N89">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O89">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P89">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
         <v>-0.75</v>
       </c>
       <c r="R89">
+        <v>1.75</v>
+      </c>
+      <c r="S89">
         <v>1.95</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>3.25</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="T89">
-        <v>3.5</v>
-      </c>
-      <c r="U89">
-        <v>1.925</v>
-      </c>
-      <c r="V89">
-        <v>1.775</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8472,7 +8472,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6344789</v>
+        <v>6108974</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8484,76 +8484,76 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
+        <v>4.2</v>
+      </c>
+      <c r="M90">
+        <v>2.5</v>
+      </c>
+      <c r="N90">
+        <v>1.727</v>
+      </c>
+      <c r="O90">
         <v>4.5</v>
       </c>
-      <c r="M90">
-        <v>4.2</v>
-      </c>
-      <c r="N90">
-        <v>1.615</v>
-      </c>
-      <c r="O90">
-        <v>4.333</v>
-      </c>
       <c r="P90">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q90">
         <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W90">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8573,7 +8573,7 @@
         <v>45026.375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8662,7 +8662,7 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8754,7 +8754,7 @@
         <v>47</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9466,7 +9466,7 @@
         <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5286038</v>
+        <v>5286284</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9555,70 +9555,70 @@
         <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5286284</v>
+        <v>5286038</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,73 +9641,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
+        <v>2.3</v>
+      </c>
+      <c r="N103">
         <v>2.5</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9911,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>45038.375</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10356,7 +10356,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10798,10 +10798,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10979,7 +10979,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5289598</v>
+        <v>5289670</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N124">
         <v>4.333</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q124">
         <v>1.25</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>4.25</v>
+      </c>
+      <c r="U124">
         <v>1.95</v>
       </c>
-      <c r="T124">
-        <v>3.25</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5289670</v>
+        <v>5289598</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K125">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M125">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N125">
         <v>4.333</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P125">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q125">
         <v>1.25</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11691,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11780,7 +11780,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -11869,7 +11869,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12047,7 +12047,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12403,7 +12403,7 @@
         <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5290651</v>
+        <v>5290704</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,73 +12578,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
-        <v>2.7</v>
+        <v>1.071</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="M136">
-        <v>1.95</v>
+        <v>15</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P136">
-        <v>1.95</v>
+        <v>15</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5290704</v>
+        <v>5290680</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,13 +12667,13 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12682,43 +12682,43 @@
         <v>53</v>
       </c>
       <c r="K137">
-        <v>1.071</v>
+        <v>1.333</v>
       </c>
       <c r="L137">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="M137">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.1</v>
+        <v>1.166</v>
       </c>
       <c r="O137">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="P137">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q137">
-        <v>-3</v>
+        <v>-2.25</v>
       </c>
       <c r="R137">
         <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.1000000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12733,10 +12733,10 @@
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5290680</v>
+        <v>5290651</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>3</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M138">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N138">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O138">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P138">
-        <v>12</v>
+        <v>1.95</v>
       </c>
       <c r="Q138">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T138">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z138">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290652</v>
+        <v>5290681</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,55 +12845,55 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M139">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N139">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P139">
+        <v>1.166</v>
+      </c>
+      <c r="Q139">
+        <v>2.5</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
         <v>1.95</v>
       </c>
-      <c r="Q139">
-        <v>0.25</v>
-      </c>
-      <c r="R139">
-        <v>1.975</v>
-      </c>
-      <c r="S139">
-        <v>1.825</v>
-      </c>
       <c r="T139">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12902,19 +12902,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.95</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC139">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5290681</v>
+        <v>5289675</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,76 +12934,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M140">
-        <v>1.333</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>11</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5290650</v>
+        <v>5290652</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M141">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N141">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O141">
         <v>4.333</v>
       </c>
       <c r="P141">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q141">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5289674</v>
+        <v>5290650</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,58 +13112,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>53</v>
       </c>
       <c r="K142">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="N142">
+        <v>3.2</v>
+      </c>
+      <c r="O142">
+        <v>4.333</v>
+      </c>
+      <c r="P142">
         <v>1.75</v>
       </c>
-      <c r="O142">
-        <v>4.5</v>
-      </c>
-      <c r="P142">
-        <v>3.25</v>
-      </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>2.2</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,13 +13172,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5289675</v>
+        <v>5289674</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,13 +13290,13 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13308,40 +13308,40 @@
         <v>1.5</v>
       </c>
       <c r="L144">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N144">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O144">
         <v>4.5</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
-        <v>0.615</v>
+        <v>0.75</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13350,13 +13350,13 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13824,10 +13824,10 @@
         <v>45137.375</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13913,10 +13913,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,13 +14447,13 @@
         <v>45144.375</v>
       </c>
       <c r="F157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14462,25 +14462,25 @@
         <v>53</v>
       </c>
       <c r="K157">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M157">
+        <v>2.3</v>
+      </c>
+      <c r="N157">
+        <v>3.4</v>
+      </c>
+      <c r="O157">
         <v>4.5</v>
       </c>
-      <c r="N157">
-        <v>1.333</v>
-      </c>
-      <c r="O157">
-        <v>5.5</v>
-      </c>
       <c r="P157">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q157">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
         <v>1.925</v>
@@ -14489,7 +14489,7 @@
         <v>1.875</v>
       </c>
       <c r="T157">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U157">
         <v>1.875</v>
@@ -14498,7 +14498,7 @@
         <v>1.925</v>
       </c>
       <c r="W157">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6893332</v>
+        <v>6893655</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,58 +14536,58 @@
         <v>45144.375</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M158">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N158">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O158">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P158">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
+        <v>1.875</v>
+      </c>
+      <c r="S158">
         <v>1.925</v>
       </c>
-      <c r="S158">
-        <v>1.875</v>
-      </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
-        <v>2.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14596,16 +14596,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6893655</v>
+        <v>6893654</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14625,58 +14625,58 @@
         <v>45144.375</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H159">
+        <v>6</v>
+      </c>
+      <c r="I159">
         <v>2</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L159">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M159">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O159">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P159">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>4</v>
+      </c>
+      <c r="U159">
+        <v>1.875</v>
+      </c>
+      <c r="V159">
         <v>1.925</v>
       </c>
-      <c r="T159">
-        <v>3.75</v>
-      </c>
-      <c r="U159">
-        <v>1.95</v>
-      </c>
-      <c r="V159">
-        <v>1.85</v>
-      </c>
       <c r="W159">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14685,16 +14685,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
+        <v>0.925</v>
+      </c>
+      <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
         <v>0.875</v>
       </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
       <c r="AC159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160" t="s">
+        <v>54</v>
+      </c>
+      <c r="K160">
+        <v>11</v>
+      </c>
+      <c r="L160">
+        <v>9</v>
+      </c>
+      <c r="M160">
+        <v>1.1</v>
+      </c>
+      <c r="N160">
+        <v>19</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="P160">
+        <v>1.083</v>
+      </c>
+      <c r="Q160">
         <v>3</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="J160" t="s">
-        <v>53</v>
-      </c>
-      <c r="K160">
-        <v>1.444</v>
-      </c>
-      <c r="L160">
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>1.8</v>
+      </c>
+      <c r="T160">
         <v>4.5</v>
       </c>
-      <c r="M160">
-        <v>5</v>
-      </c>
-      <c r="N160">
-        <v>1.25</v>
-      </c>
-      <c r="O160">
-        <v>5.5</v>
-      </c>
-      <c r="P160">
-        <v>7.5</v>
-      </c>
-      <c r="Q160">
-        <v>-2</v>
-      </c>
-      <c r="R160">
+      <c r="U160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="V160">
         <v>1.925</v>
       </c>
-      <c r="T160">
-        <v>4.25</v>
-      </c>
-      <c r="U160">
-        <v>1.975</v>
-      </c>
-      <c r="V160">
-        <v>1.825</v>
-      </c>
       <c r="W160">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161">
         <v>1</v>
       </c>
-      <c r="I161">
+      <c r="J161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>1.444</v>
+      </c>
+      <c r="L161">
+        <v>4.5</v>
+      </c>
+      <c r="M161">
         <v>5</v>
       </c>
-      <c r="J161" t="s">
-        <v>54</v>
-      </c>
-      <c r="K161">
-        <v>11</v>
-      </c>
-      <c r="L161">
-        <v>9</v>
-      </c>
-      <c r="M161">
-        <v>1.1</v>
-      </c>
       <c r="N161">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O161">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P161">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q161">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T161">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA161">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB161">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,76 +14981,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L163">
         <v>4</v>
       </c>
       <c r="M163">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N163">
+        <v>1.727</v>
+      </c>
+      <c r="O163">
+        <v>4.2</v>
+      </c>
+      <c r="P163">
+        <v>3.5</v>
+      </c>
+      <c r="Q163">
+        <v>-0.75</v>
+      </c>
+      <c r="R163">
         <v>1.95</v>
       </c>
-      <c r="O163">
+      <c r="S163">
+        <v>1.85</v>
+      </c>
+      <c r="T163">
         <v>4</v>
       </c>
-      <c r="P163">
-        <v>2.8</v>
-      </c>
-      <c r="Q163">
-        <v>-0.25</v>
-      </c>
-      <c r="R163">
-        <v>1.8</v>
-      </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>3.5</v>
-      </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P164">
+        <v>2.8</v>
+      </c>
+      <c r="Q164">
+        <v>-0.25</v>
+      </c>
+      <c r="R164">
+        <v>1.8</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
         <v>3.5</v>
       </c>
-      <c r="Q164">
-        <v>-0.75</v>
-      </c>
-      <c r="R164">
+      <c r="U164">
         <v>1.95</v>
       </c>
-      <c r="S164">
+      <c r="V164">
         <v>1.85</v>
       </c>
-      <c r="T164">
-        <v>4</v>
-      </c>
-      <c r="U164">
-        <v>1.9</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y164">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA164">
+        <v>0.5</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15251,7 +15251,7 @@
         <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15515,10 +15515,10 @@
         <v>45151.375</v>
       </c>
       <c r="F169" t="s">
+        <v>40</v>
+      </c>
+      <c r="G169" t="s">
         <v>41</v>
-      </c>
-      <c r="G169" t="s">
-        <v>42</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15785,7 +15785,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16037,7 +16037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6893667</v>
+        <v>6893288</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,76 +16049,76 @@
         <v>45158.375</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>3</v>
-      </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
+        <v>2.1</v>
+      </c>
+      <c r="L175">
         <v>4</v>
       </c>
-      <c r="L175">
-        <v>4.2</v>
-      </c>
       <c r="M175">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N175">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O175">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P175">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="Q175">
+        <v>0.25</v>
+      </c>
+      <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
         <v>2</v>
       </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
       <c r="T175">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="V175">
-        <v>1.85</v>
-      </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16126,7 +16126,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6893288</v>
+        <v>6893667</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16138,76 +16138,76 @@
         <v>45158.375</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176" t="s">
+        <v>54</v>
+      </c>
+      <c r="K176">
+        <v>4</v>
+      </c>
+      <c r="L176">
+        <v>4.2</v>
+      </c>
+      <c r="M176">
+        <v>1.6</v>
+      </c>
+      <c r="N176">
+        <v>7.5</v>
+      </c>
+      <c r="O176">
+        <v>5.75</v>
+      </c>
+      <c r="P176">
+        <v>1.285</v>
+      </c>
+      <c r="Q176">
         <v>2</v>
       </c>
-      <c r="I176">
-        <v>1</v>
-      </c>
-      <c r="J176" t="s">
-        <v>53</v>
-      </c>
-      <c r="K176">
-        <v>2.1</v>
-      </c>
-      <c r="L176">
+      <c r="R176">
+        <v>1.825</v>
+      </c>
+      <c r="S176">
+        <v>1.975</v>
+      </c>
+      <c r="T176">
         <v>4</v>
       </c>
-      <c r="M176">
-        <v>2.6</v>
-      </c>
-      <c r="N176">
-        <v>2.5</v>
-      </c>
-      <c r="O176">
-        <v>4</v>
-      </c>
-      <c r="P176">
-        <v>2.15</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.8</v>
-      </c>
-      <c r="S176">
-        <v>2</v>
-      </c>
-      <c r="T176">
-        <v>3.75</v>
-      </c>
       <c r="U176">
+        <v>1.95</v>
+      </c>
+      <c r="V176">
         <v>1.85</v>
       </c>
-      <c r="V176">
-        <v>1.95</v>
-      </c>
       <c r="W176">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z176">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16227,7 +16227,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177" t="s">
         <v>48</v>
@@ -16319,7 +16319,7 @@
         <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>3</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K179">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
+        <v>4.2</v>
+      </c>
+      <c r="M179">
+        <v>2.3</v>
+      </c>
+      <c r="N179">
+        <v>1.833</v>
+      </c>
+      <c r="O179">
         <v>4.5</v>
       </c>
-      <c r="M179">
-        <v>1.615</v>
-      </c>
-      <c r="N179">
-        <v>2.625</v>
-      </c>
-      <c r="O179">
-        <v>4.2</v>
-      </c>
       <c r="P179">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I180">
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
+        <v>4.5</v>
+      </c>
+      <c r="M180">
+        <v>1.615</v>
+      </c>
+      <c r="N180">
+        <v>2.625</v>
+      </c>
+      <c r="O180">
         <v>4.2</v>
       </c>
-      <c r="M180">
-        <v>2.3</v>
-      </c>
-      <c r="N180">
-        <v>1.833</v>
-      </c>
-      <c r="O180">
-        <v>4.5</v>
-      </c>
       <c r="P180">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q180">
+        <v>0.25</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>3.75</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
+        <v>1.95</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>-1</v>
+      </c>
+      <c r="Y180">
+        <v>1</v>
+      </c>
+      <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>0.875</v>
+      </c>
+      <c r="AB180">
+        <v>0.425</v>
+      </c>
+      <c r="AC180">
         <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.9</v>
-      </c>
-      <c r="S180">
-        <v>1.9</v>
-      </c>
-      <c r="T180">
-        <v>4.25</v>
-      </c>
-      <c r="U180">
-        <v>1.975</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
-      <c r="W180">
-        <v>0.833</v>
-      </c>
-      <c r="X180">
-        <v>-1</v>
-      </c>
-      <c r="Y180">
-        <v>-1</v>
-      </c>
-      <c r="Z180">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC180">
-        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16764,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16853,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893674</v>
+        <v>6893673</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45165.375</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>53</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
+        <v>5</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+      <c r="N185">
+        <v>1.5</v>
+      </c>
+      <c r="O185">
+        <v>5</v>
+      </c>
+      <c r="P185">
+        <v>4</v>
+      </c>
+      <c r="Q185">
+        <v>-1</v>
+      </c>
+      <c r="R185">
+        <v>1.75</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>4</v>
+      </c>
+      <c r="U185">
+        <v>1.925</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>0.5</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>2</v>
-      </c>
-      <c r="J185" t="s">
-        <v>54</v>
-      </c>
-      <c r="K185">
-        <v>2.8</v>
-      </c>
-      <c r="L185">
-        <v>4.333</v>
-      </c>
-      <c r="M185">
-        <v>1.909</v>
-      </c>
-      <c r="N185">
-        <v>2.25</v>
-      </c>
-      <c r="O185">
-        <v>4.333</v>
-      </c>
-      <c r="P185">
-        <v>2.3</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>1.875</v>
-      </c>
-      <c r="S185">
-        <v>1.925</v>
-      </c>
-      <c r="T185">
-        <v>3.5</v>
-      </c>
-      <c r="U185">
-        <v>1.975</v>
-      </c>
-      <c r="V185">
-        <v>1.825</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>1.3</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
       <c r="AA185">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6893673</v>
+        <v>6893674</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,76 +17117,76 @@
         <v>45165.375</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>2</v>
       </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
       <c r="J187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K187">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N187">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T187">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U187">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17206,7 +17206,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45171.375</v>
       </c>
       <c r="F189" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K189">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M189">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O189">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P189">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q189">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S189">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,73 +17384,73 @@
         <v>45171.375</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K190">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L190">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X190">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17728,7 +17728,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6893677</v>
+        <v>6893678</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17740,76 +17740,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K194">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L194">
+        <v>4.2</v>
+      </c>
+      <c r="M194">
+        <v>1.8</v>
+      </c>
+      <c r="N194">
         <v>4.333</v>
       </c>
-      <c r="M194">
-        <v>3</v>
-      </c>
-      <c r="N194">
-        <v>2.1</v>
-      </c>
       <c r="O194">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P194">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
+        <v>0.95</v>
+      </c>
+      <c r="AB194">
         <v>-0.5</v>
       </c>
-      <c r="AA194">
-        <v>0.4125</v>
-      </c>
-      <c r="AB194">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17817,7 +17817,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6893678</v>
+        <v>6893677</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17829,76 +17829,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L195">
+        <v>4.333</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>2.1</v>
+      </c>
+      <c r="O195">
         <v>4.2</v>
       </c>
-      <c r="M195">
-        <v>1.8</v>
-      </c>
-      <c r="N195">
-        <v>4.333</v>
-      </c>
-      <c r="O195">
-        <v>4.75</v>
-      </c>
       <c r="P195">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q195">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y195">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC195">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17921,7 +17921,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,73 +18185,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L199">
+        <v>4.2</v>
+      </c>
+      <c r="M199">
+        <v>1.533</v>
+      </c>
+      <c r="N199">
+        <v>3.6</v>
+      </c>
+      <c r="O199">
         <v>4</v>
       </c>
-      <c r="M199">
-        <v>3.1</v>
-      </c>
-      <c r="N199">
-        <v>1.363</v>
-      </c>
-      <c r="O199">
-        <v>5.25</v>
-      </c>
       <c r="P199">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q199">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X199">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18274,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K200">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L200">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P200">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18544,7 +18544,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18719,10 +18719,10 @@
         <v>45179.375</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6892996</v>
+        <v>6893684</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,58 +18897,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H207">
+        <v>7</v>
+      </c>
+      <c r="I207">
         <v>2</v>
-      </c>
-      <c r="I207">
-        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>53</v>
       </c>
       <c r="K207">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L207">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M207">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N207">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O207">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P207">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U207">
+        <v>1.75</v>
+      </c>
+      <c r="V207">
         <v>1.95</v>
       </c>
-      <c r="V207">
-        <v>1.85</v>
-      </c>
       <c r="W207">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18957,16 +18957,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6893684</v>
+        <v>6893685</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,58 +18986,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
       </c>
       <c r="K208">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P208">
+        <v>1.666</v>
+      </c>
+      <c r="Q208">
+        <v>0.75</v>
+      </c>
+      <c r="R208">
         <v>1.95</v>
       </c>
-      <c r="Q208">
-        <v>0.5</v>
-      </c>
-      <c r="R208">
+      <c r="S208">
+        <v>1.85</v>
+      </c>
+      <c r="T208">
+        <v>3.5</v>
+      </c>
+      <c r="U208">
         <v>1.825</v>
       </c>
-      <c r="S208">
+      <c r="V208">
         <v>1.975</v>
       </c>
-      <c r="T208">
-        <v>4</v>
-      </c>
-      <c r="U208">
-        <v>1.75</v>
-      </c>
-      <c r="V208">
-        <v>1.95</v>
-      </c>
       <c r="W208">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,13 +19046,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
+        <v>0.95</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
         <v>0.825</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>0.75</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,13 +19075,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -19090,43 +19090,43 @@
         <v>53</v>
       </c>
       <c r="K209">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L209">
+        <v>4.75</v>
+      </c>
+      <c r="M209">
         <v>4.5</v>
       </c>
-      <c r="M209">
-        <v>1.666</v>
-      </c>
       <c r="N209">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O209">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P209">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q209">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.875</v>
+      </c>
+      <c r="T209">
+        <v>3.75</v>
+      </c>
+      <c r="U209">
         <v>1.95</v>
       </c>
-      <c r="S209">
+      <c r="V209">
         <v>1.85</v>
       </c>
-      <c r="T209">
-        <v>3.5</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
-      </c>
-      <c r="V209">
-        <v>1.975</v>
-      </c>
       <c r="W209">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19164,7 +19164,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
         <v>50</v>
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6893689</v>
+        <v>6893691</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,13 +19342,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19357,25 +19357,25 @@
         <v>53</v>
       </c>
       <c r="K212">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N212">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O212">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="P212">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q212">
-        <v>-3</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
         <v>1.85</v>
@@ -19384,16 +19384,16 @@
         <v>1.95</v>
       </c>
       <c r="T212">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19408,10 +19408,10 @@
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6893690</v>
+        <v>6893689</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,40 +19431,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H213">
+        <v>8</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>3</v>
-      </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K213">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M213">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="N213">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O213">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P213">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="R213">
         <v>1.85</v>
@@ -19473,34 +19473,34 @@
         <v>1.95</v>
       </c>
       <c r="T213">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6893691</v>
+        <v>6893690</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,40 +19520,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K214">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N214">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O214">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q214">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R214">
         <v>1.85</v>
@@ -19562,34 +19562,34 @@
         <v>1.95</v>
       </c>
       <c r="T214">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z214">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19701,7 +19701,7 @@
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H217">
+        <v>3</v>
+      </c>
+      <c r="I217">
         <v>1</v>
       </c>
-      <c r="I217">
-        <v>3</v>
-      </c>
       <c r="J217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K217">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L217">
         <v>4.5</v>
       </c>
       <c r="M217">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N217">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O217">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P217">
+        <v>4.333</v>
+      </c>
+      <c r="Q217">
+        <v>-1.25</v>
+      </c>
+      <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>1.775</v>
+      </c>
+      <c r="T217">
         <v>4</v>
-      </c>
-      <c r="Q217">
-        <v>-1</v>
-      </c>
-      <c r="R217">
-        <v>1.85</v>
-      </c>
-      <c r="S217">
-        <v>1.95</v>
-      </c>
-      <c r="T217">
-        <v>3.75</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19838,25 +19838,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA217">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19864,7 +19864,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19876,49 +19876,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
         <v>3</v>
       </c>
-      <c r="I218">
-        <v>1</v>
-      </c>
       <c r="J218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K218">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L218">
         <v>4.5</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N218">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O218">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P218">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q218">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19927,25 +19927,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB218">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC218">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19953,7 +19953,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19965,76 +19965,76 @@
         <v>45186.375</v>
       </c>
       <c r="F219" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K219">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L219">
+        <v>5.5</v>
+      </c>
+      <c r="M219">
+        <v>1.333</v>
+      </c>
+      <c r="N219">
         <v>4.5</v>
       </c>
-      <c r="M219">
-        <v>1.533</v>
-      </c>
-      <c r="N219">
-        <v>4.333</v>
-      </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P219">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q219">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>1.8</v>
+      </c>
+      <c r="T219">
+        <v>3.75</v>
+      </c>
+      <c r="U219">
         <v>1.875</v>
       </c>
-      <c r="S219">
+      <c r="V219">
         <v>1.925</v>
       </c>
-      <c r="T219">
-        <v>3.25</v>
-      </c>
-      <c r="U219">
-        <v>1.975</v>
-      </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
       <c r="W219">
         <v>-1</v>
       </c>
       <c r="X219">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z219">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20042,7 +20042,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20054,76 +20054,76 @@
         <v>45186.375</v>
       </c>
       <c r="F220" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220">
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L220">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M220">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N220">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O220">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P220">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q220">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y220">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC220">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20143,7 +20143,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
         <v>49</v>
@@ -20232,7 +20232,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20665,7 +20665,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20677,58 +20677,58 @@
         <v>45193.375</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H227">
+        <v>4</v>
+      </c>
+      <c r="I227">
         <v>2</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>53</v>
       </c>
       <c r="K227">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L227">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M227">
         <v>4.5</v>
       </c>
       <c r="N227">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O227">
         <v>4</v>
       </c>
       <c r="P227">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T227">
         <v>3.75</v>
       </c>
       <c r="U227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W227">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20737,16 +20737,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC227">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20754,7 +20754,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20769,55 +20769,55 @@
         <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>53</v>
       </c>
       <c r="K228">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L228">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M228">
         <v>4.5</v>
       </c>
       <c r="N228">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O228">
         <v>4</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q228">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T228">
         <v>3.75</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W228">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20826,16 +20826,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21214,7 +21214,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21392,7 +21392,7 @@
         <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21481,7 +21481,7 @@
         <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H236">
         <v>4</v>
@@ -21567,7 +21567,7 @@
         <v>45200.375</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G237" t="s">
         <v>45</v>
@@ -21745,7 +21745,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
         <v>50</v>
@@ -22101,7 +22101,7 @@
         <v>45207.375</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
         <v>44</v>
@@ -22190,10 +22190,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F244" t="s">
+        <v>41</v>
+      </c>
+      <c r="G244" t="s">
         <v>42</v>
-      </c>
-      <c r="G244" t="s">
-        <v>40</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22638,7 +22638,7 @@
         <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H249">
         <v>5</v>
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,76 +22724,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K250">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L250">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M250">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N250">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O250">
         <v>4.2</v>
       </c>
       <c r="P250">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U250">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y250">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA250">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,76 +22813,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L251">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N251">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
         <v>4.2</v>
       </c>
       <c r="P251">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22902,7 +22902,7 @@
         <v>45214.375</v>
       </c>
       <c r="F252" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>43</v>
@@ -22991,7 +22991,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>49</v>
@@ -23169,7 +23169,7 @@
         <v>45221.375</v>
       </c>
       <c r="F255" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
         <v>50</v>
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,10 +23258,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23273,40 +23273,40 @@
         <v>54</v>
       </c>
       <c r="K256">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L256">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M256">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N256">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O256">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P256">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q256">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S256">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB256">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,10 +23347,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G257" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23362,40 +23362,40 @@
         <v>54</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L257">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M257">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N257">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O257">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P257">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q257">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R257">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T257">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,16 +23404,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23780,7 +23780,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23792,76 +23792,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K262">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N262">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O262">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S262">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
         <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X262">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M263">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N263">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P263">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC263">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23970,10 +23970,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,40 +24237,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K267">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L267">
         <v>5.5</v>
       </c>
       <c r="M267">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N267">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O267">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P267">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q267">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R267">
         <v>1.825</v>
@@ -24279,34 +24279,34 @@
         <v>1.975</v>
       </c>
       <c r="T267">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA267">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB267">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,40 +24326,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268">
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K268">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L268">
         <v>5.5</v>
       </c>
       <c r="M268">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N268">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O268">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P268">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q268">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R268">
         <v>1.825</v>
@@ -24368,34 +24368,34 @@
         <v>1.975</v>
       </c>
       <c r="T268">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V268">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y268">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB268">
         <v>-0.5</v>
       </c>
-      <c r="AB268">
-        <v>-1</v>
-      </c>
       <c r="AC268">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24685,7 +24685,7 @@
         <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24759,7 +24759,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24771,58 +24771,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F273" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G273" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="s">
         <v>53</v>
       </c>
       <c r="K273">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L273">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M273">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N273">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O273">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P273">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q273">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R273">
+        <v>1.9</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>3.75</v>
+      </c>
+      <c r="U273">
+        <v>1.85</v>
+      </c>
+      <c r="V273">
         <v>1.95</v>
       </c>
-      <c r="S273">
-        <v>1.85</v>
-      </c>
-      <c r="T273">
-        <v>3.5</v>
-      </c>
-      <c r="U273">
-        <v>1.875</v>
-      </c>
-      <c r="V273">
-        <v>1.925</v>
-      </c>
       <c r="W273">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24831,16 +24831,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA273">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>-1</v>
+      </c>
+      <c r="AC273">
         <v>0.95</v>
-      </c>
-      <c r="AA273">
-        <v>-1</v>
-      </c>
-      <c r="AB273">
-        <v>-1</v>
-      </c>
-      <c r="AC273">
-        <v>0.925</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24848,7 +24848,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24860,58 +24860,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="s">
         <v>53</v>
       </c>
       <c r="K274">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L274">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M274">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N274">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O274">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P274">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q274">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R274">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S274">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T274">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U274">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V274">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W274">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -24920,7 +24920,7 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA274">
         <v>-1</v>
@@ -24929,7 +24929,7 @@
         <v>-1</v>
       </c>
       <c r="AC274">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24949,13 +24949,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -24964,61 +24964,61 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L275">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M275">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N275">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O275">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P275">
+        <v>2.9</v>
+      </c>
+      <c r="Q275">
+        <v>-0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
         <v>2</v>
       </c>
-      <c r="Q275">
-        <v>0.25</v>
-      </c>
-      <c r="R275">
+      <c r="T275">
+        <v>4</v>
+      </c>
+      <c r="U275">
         <v>1.95</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.85</v>
       </c>
-      <c r="T275">
-        <v>3.75</v>
-      </c>
-      <c r="U275">
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
         <v>1.9</v>
       </c>
-      <c r="V275">
-        <v>1.9</v>
-      </c>
-      <c r="W275">
-        <v>-1</v>
-      </c>
-      <c r="X275">
-        <v>-1</v>
-      </c>
-      <c r="Y275">
+      <c r="Z275">
+        <v>-1</v>
+      </c>
+      <c r="AA275">
         <v>1</v>
       </c>
-      <c r="Z275">
-        <v>-1</v>
-      </c>
-      <c r="AA275">
+      <c r="AB275">
+        <v>-1</v>
+      </c>
+      <c r="AC275">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB275">
-        <v>-1</v>
-      </c>
-      <c r="AC275">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,13 +25038,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G276" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25053,40 +25053,40 @@
         <v>54</v>
       </c>
       <c r="K276">
+        <v>2.3</v>
+      </c>
+      <c r="L276">
+        <v>4.2</v>
+      </c>
+      <c r="M276">
+        <v>2.25</v>
+      </c>
+      <c r="N276">
+        <v>2.625</v>
+      </c>
+      <c r="O276">
+        <v>4.2</v>
+      </c>
+      <c r="P276">
+        <v>2</v>
+      </c>
+      <c r="Q276">
+        <v>0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.95</v>
+      </c>
+      <c r="S276">
         <v>1.85</v>
       </c>
-      <c r="L276">
-        <v>4</v>
-      </c>
-      <c r="M276">
-        <v>3.1</v>
-      </c>
-      <c r="N276">
-        <v>1.95</v>
-      </c>
-      <c r="O276">
-        <v>3.8</v>
-      </c>
-      <c r="P276">
-        <v>2.9</v>
-      </c>
-      <c r="Q276">
-        <v>-0.25</v>
-      </c>
-      <c r="R276">
-        <v>1.8</v>
-      </c>
-      <c r="S276">
-        <v>2</v>
-      </c>
       <c r="T276">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V276">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
@@ -25095,19 +25095,19 @@
         <v>-1</v>
       </c>
       <c r="Y276">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB276">
         <v>-1</v>
       </c>
       <c r="AC276">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6893740</v>
+        <v>6893738</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,73 +25750,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G284" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K284">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M284">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N284">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O284">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P284">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q284">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R284">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S284">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
         <v>3.75</v>
       </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V284">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y284">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA284">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC284">
         <v>-0.5</v>
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,73 +25839,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G285" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K285">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M285">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N285">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O285">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P285">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q285">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R285">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
         <v>3.75</v>
       </c>
       <c r="U285">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V285">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB285">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC285">
         <v>-0.5</v>
@@ -26109,7 +26109,7 @@
         <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -26284,7 +26284,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G290" t="s">
         <v>43</v>
@@ -26465,7 +26465,7 @@
         <v>45</v>
       </c>
       <c r="G292" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -27263,10 +27263,10 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H301">
         <v>1</v>
@@ -27355,7 +27355,7 @@
         <v>51</v>
       </c>
       <c r="G302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
@@ -27963,7 +27963,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27975,56 +27975,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J309" t="s">
         <v>54</v>
       </c>
       <c r="K309">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L309">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M309">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N309">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O309">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P309">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q309">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R309">
+        <v>1.775</v>
+      </c>
+      <c r="S309">
+        <v>1.925</v>
+      </c>
+      <c r="T309">
+        <v>3.75</v>
+      </c>
+      <c r="U309">
+        <v>1.75</v>
+      </c>
+      <c r="V309">
         <v>1.95</v>
       </c>
-      <c r="S309">
-        <v>1.85</v>
-      </c>
-      <c r="T309">
-        <v>4.5</v>
-      </c>
-      <c r="U309">
-        <v>1.975</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
       <c r="W309">
         <v>-1</v>
       </c>
@@ -28032,16 +28032,16 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB309">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC309">
         <v>-1</v>
@@ -28052,7 +28052,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28064,55 +28064,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G310" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J310" t="s">
         <v>54</v>
       </c>
       <c r="K310">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L310">
+        <v>11</v>
+      </c>
+      <c r="M310">
+        <v>1.062</v>
+      </c>
+      <c r="N310">
+        <v>23</v>
+      </c>
+      <c r="O310">
+        <v>13</v>
+      </c>
+      <c r="P310">
+        <v>1.062</v>
+      </c>
+      <c r="Q310">
+        <v>3.25</v>
+      </c>
+      <c r="R310">
+        <v>1.95</v>
+      </c>
+      <c r="S310">
+        <v>1.85</v>
+      </c>
+      <c r="T310">
         <v>4.5</v>
       </c>
-      <c r="M310">
-        <v>1.727</v>
-      </c>
-      <c r="N310">
-        <v>3.8</v>
-      </c>
-      <c r="O310">
-        <v>4.5</v>
-      </c>
-      <c r="P310">
-        <v>1.615</v>
-      </c>
-      <c r="Q310">
-        <v>1</v>
-      </c>
-      <c r="R310">
-        <v>1.775</v>
-      </c>
-      <c r="S310">
-        <v>1.925</v>
-      </c>
-      <c r="T310">
-        <v>3.75</v>
-      </c>
       <c r="U310">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V310">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -28121,16 +28121,16 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z310">
         <v>-1</v>
       </c>
       <c r="AA310">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB310">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC310">
         <v>-1</v>
@@ -28230,7 +28230,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28242,40 +28242,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F312" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312">
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K312">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L312">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M312">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N312">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O312">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P312">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q312">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R312">
         <v>1.9</v>
@@ -28284,34 +28284,34 @@
         <v>1.9</v>
       </c>
       <c r="T312">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U312">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V312">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W312">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X312">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
         <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB312">
         <v>-1</v>
       </c>
       <c r="AC312">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28319,7 +28319,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28331,40 +28331,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F313" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G313" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313">
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K313">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L313">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M313">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N313">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O313">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P313">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q313">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R313">
         <v>1.9</v>
@@ -28373,34 +28373,34 @@
         <v>1.9</v>
       </c>
       <c r="T313">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U313">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V313">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W313">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X313">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y313">
         <v>-1</v>
       </c>
       <c r="Z313">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA313">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB313">
         <v>-1</v>
       </c>
       <c r="AC313">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28423,7 +28423,7 @@
         <v>52</v>
       </c>
       <c r="G314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -28687,7 +28687,7 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G317" t="s">
         <v>39</v>
@@ -28954,10 +28954,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G320" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29310,7 +29310,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC325"/>
+  <dimension ref="A1:AC327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1975,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5278169</v>
+        <v>5285796</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1987,55 +1987,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
         <v>4</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O17">
         <v>3.8</v>
       </c>
       <c r="P17">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -2044,19 +2044,19 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5278171</v>
+        <v>5278169</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,49 +2076,49 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L18">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N18">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P18">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -2133,19 +2133,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.7270000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5285796</v>
+        <v>5278171</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,55 +2165,55 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
       </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
       <c r="T19">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2222,19 +2222,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2865,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5278060</v>
+        <v>5278175</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,46 +2877,46 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27">
+        <v>2.6</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>1.166</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
       <c r="M27">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>1.363</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P27">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q27">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>3.5</v>
@@ -2928,16 +2928,16 @@
         <v>1.925</v>
       </c>
       <c r="W27">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -2954,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5278061</v>
+        <v>5278060</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2966,49 +2966,49 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>1.333</v>
+        <v>1.166</v>
       </c>
       <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+      <c r="N28">
+        <v>1.363</v>
+      </c>
+      <c r="O28">
         <v>5</v>
       </c>
-      <c r="M28">
-        <v>6</v>
-      </c>
-      <c r="N28">
-        <v>1.6</v>
-      </c>
-      <c r="O28">
-        <v>4</v>
-      </c>
       <c r="P28">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
         <v>1.875</v>
@@ -3017,25 +3017,25 @@
         <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5278175</v>
+        <v>5278061</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3055,49 +3055,49 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>1.6</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>2.1</v>
-      </c>
-      <c r="N29">
-        <v>3.5</v>
-      </c>
-      <c r="O29">
-        <v>4.2</v>
-      </c>
       <c r="P29">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
         <v>1.875</v>
@@ -3109,22 +3109,22 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5278180</v>
+        <v>5278067</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3856,56 +3856,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>54</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
@@ -3913,19 +3913,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5278067</v>
+        <v>5278180</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3945,56 +3945,56 @@
         <v>44981.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
@@ -4002,19 +4002,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5278008</v>
+        <v>5278189</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5725,58 +5725,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>53</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="O59">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q59">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T59">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5785,13 +5785,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,49 +5814,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L60">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M60">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O60">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U60">
         <v>1.925</v>
@@ -5865,7 +5865,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278189</v>
+        <v>5278078</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,58 +5903,58 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M61">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N61">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P61">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.3</v>
+        <v>3.333</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6069,7 +6069,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5285882</v>
+        <v>5285789</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6081,76 +6081,76 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="N63">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="Q63">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X63">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5285789</v>
+        <v>5285882</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6170,76 +6170,76 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K64">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M64">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="N64">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P64">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="Q64">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R64">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -7671,7 +7671,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5284632</v>
+        <v>5285787</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7683,76 +7683,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L81">
         <v>4</v>
       </c>
       <c r="M81">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N81">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O81">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P81">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
+        <v>2.05</v>
+      </c>
+      <c r="S81">
+        <v>1.75</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81">
+        <v>1.825</v>
+      </c>
+      <c r="V81">
         <v>1.975</v>
       </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3.75</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y81">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5285787</v>
+        <v>5284635</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7772,76 +7772,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
         <v>4</v>
       </c>
       <c r="M82">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
+        <v>1.533</v>
+      </c>
+      <c r="Q82">
+        <v>0.75</v>
+      </c>
+      <c r="R82">
         <v>2.1</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>2.05</v>
-      </c>
       <c r="S82">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.35</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284635</v>
+        <v>5284636</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,73 +7861,73 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K83">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L83">
         <v>4</v>
       </c>
       <c r="M83">
+        <v>3.75</v>
+      </c>
+      <c r="N83">
+        <v>1.25</v>
+      </c>
+      <c r="O83">
+        <v>5.75</v>
+      </c>
+      <c r="P83">
+        <v>8.5</v>
+      </c>
+      <c r="Q83">
+        <v>-1.75</v>
+      </c>
+      <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
         <v>2</v>
       </c>
-      <c r="N83">
-        <v>4.2</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
-      <c r="P83">
-        <v>1.533</v>
-      </c>
-      <c r="Q83">
-        <v>0.75</v>
-      </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
-        <v>1.7</v>
-      </c>
       <c r="T83">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U83">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V83">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.7</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7938,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5284636</v>
+        <v>5284632</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7950,73 +7950,73 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>4</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K84">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L84">
         <v>4</v>
       </c>
       <c r="M84">
+        <v>2.75</v>
+      </c>
+      <c r="N84">
+        <v>2.45</v>
+      </c>
+      <c r="O84">
+        <v>3.8</v>
+      </c>
+      <c r="P84">
+        <v>2.3</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
         <v>3.75</v>
       </c>
-      <c r="N84">
-        <v>1.25</v>
-      </c>
-      <c r="O84">
-        <v>5.75</v>
-      </c>
-      <c r="P84">
-        <v>8.5</v>
-      </c>
-      <c r="Q84">
-        <v>-1.75</v>
-      </c>
-      <c r="R84">
-        <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>3.5</v>
-      </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5286284</v>
+        <v>5286038</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,73 +9552,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K102">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
+        <v>2.3</v>
+      </c>
+      <c r="N102">
         <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>2.2</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U102">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5286038</v>
+        <v>5286284</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,73 +9641,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X103">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -11409,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5288444</v>
+        <v>5289670</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11421,40 +11421,40 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="L123">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="N123">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P123">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R123">
         <v>1.925</v>
@@ -11463,34 +11463,34 @@
         <v>1.875</v>
       </c>
       <c r="T123">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5289670</v>
+        <v>5289598</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N124">
         <v>4.333</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q124">
         <v>1.25</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5289598</v>
+        <v>5288444</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K125">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M125">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="N125">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P125">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q125">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6401325</v>
+        <v>6434170</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12400,76 +12400,76 @@
         <v>45048.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L134">
         <v>4</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="N134">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
         <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
       </c>
       <c r="T134">
         <v>4</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12477,7 +12477,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6434170</v>
+        <v>6401325</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12489,76 +12489,76 @@
         <v>45048.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K135">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
         <v>4</v>
       </c>
       <c r="M135">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
         <v>1.875</v>
-      </c>
-      <c r="S135">
-        <v>1.925</v>
       </c>
       <c r="T135">
         <v>4</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>0.875</v>
       </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5290704</v>
+        <v>5289674</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,58 +12578,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>1.071</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>1.1</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>15</v>
+        <v>3.25</v>
       </c>
       <c r="Q136">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
-        <v>0.1000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12638,13 +12638,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5290680</v>
+        <v>5289673</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137" t="s">
+        <v>54</v>
+      </c>
+      <c r="K137">
+        <v>5.5</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>1.363</v>
+      </c>
+      <c r="N137">
+        <v>5.75</v>
+      </c>
+      <c r="O137">
+        <v>5.25</v>
+      </c>
+      <c r="P137">
+        <v>1.333</v>
+      </c>
+      <c r="Q137">
+        <v>1.75</v>
+      </c>
+      <c r="R137">
+        <v>1.825</v>
+      </c>
+      <c r="S137">
+        <v>1.975</v>
+      </c>
+      <c r="T137">
+        <v>4</v>
+      </c>
+      <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
+        <v>1.925</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>0.333</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB137">
         <v>0</v>
       </c>
-      <c r="J137" t="s">
-        <v>53</v>
-      </c>
-      <c r="K137">
-        <v>1.333</v>
-      </c>
-      <c r="L137">
-        <v>4.75</v>
-      </c>
-      <c r="M137">
-        <v>6.5</v>
-      </c>
-      <c r="N137">
-        <v>1.166</v>
-      </c>
-      <c r="O137">
-        <v>7.5</v>
-      </c>
-      <c r="P137">
-        <v>12</v>
-      </c>
-      <c r="Q137">
-        <v>-2.25</v>
-      </c>
-      <c r="R137">
-        <v>1.775</v>
-      </c>
-      <c r="S137">
-        <v>2.025</v>
-      </c>
-      <c r="T137">
-        <v>4.25</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
-      <c r="V137">
-        <v>1.8</v>
-      </c>
-      <c r="W137">
-        <v>0.1659999999999999</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5290651</v>
+        <v>5289675</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,73 +12756,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
       <c r="J138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="L138">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M138">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N138">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O138">
         <v>4.5</v>
       </c>
       <c r="P138">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290681</v>
+        <v>5290650</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,76 +12845,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L139">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M139">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="N139">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O139">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="Q139">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U139">
+        <v>1.875</v>
+      </c>
+      <c r="V139">
         <v>1.925</v>
       </c>
-      <c r="V139">
-        <v>1.875</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC139">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5289675</v>
+        <v>5290651</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,73 +12934,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="L140">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
         <v>4.5</v>
       </c>
       <c r="P140">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5290652</v>
+        <v>5290680</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,76 +13023,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>53</v>
+      </c>
+      <c r="K141">
+        <v>1.333</v>
+      </c>
+      <c r="L141">
+        <v>4.75</v>
+      </c>
+      <c r="M141">
+        <v>6.5</v>
+      </c>
+      <c r="N141">
+        <v>1.166</v>
+      </c>
+      <c r="O141">
+        <v>7.5</v>
+      </c>
+      <c r="P141">
+        <v>12</v>
+      </c>
+      <c r="Q141">
+        <v>-2.25</v>
+      </c>
+      <c r="R141">
+        <v>1.775</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
+        <v>4.25</v>
+      </c>
+      <c r="U141">
         <v>2</v>
       </c>
-      <c r="J141" t="s">
-        <v>54</v>
-      </c>
-      <c r="K141">
-        <v>2.625</v>
-      </c>
-      <c r="L141">
-        <v>4.333</v>
-      </c>
-      <c r="M141">
-        <v>2</v>
-      </c>
-      <c r="N141">
-        <v>2.7</v>
-      </c>
-      <c r="O141">
-        <v>4.333</v>
-      </c>
-      <c r="P141">
-        <v>1.95</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
-      </c>
-      <c r="T141">
-        <v>4</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5290650</v>
+        <v>5290681</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L142">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M142">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P142">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="Q142">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="R142">
+        <v>1.85</v>
+      </c>
+      <c r="S142">
+        <v>1.95</v>
+      </c>
+      <c r="T142">
+        <v>4.25</v>
+      </c>
+      <c r="U142">
         <v>1.925</v>
       </c>
-      <c r="S142">
-        <v>1.775</v>
-      </c>
-      <c r="T142">
-        <v>3.5</v>
-      </c>
-      <c r="U142">
+      <c r="V142">
         <v>1.875</v>
       </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5289673</v>
+        <v>5290704</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H143">
+        <v>6</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>4</v>
-      </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>1.071</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M143">
-        <v>1.363</v>
+        <v>15</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>1.1</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P143">
-        <v>1.333</v>
+        <v>15</v>
       </c>
       <c r="Q143">
-        <v>1.75</v>
+        <v>-3</v>
       </c>
       <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>1.925</v>
+      </c>
+      <c r="T143">
+        <v>4.75</v>
+      </c>
+      <c r="U143">
         <v>1.825</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="T143">
-        <v>4</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5289674</v>
+        <v>5290652</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,76 +13290,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K144">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>2.7</v>
+      </c>
+      <c r="O144">
+        <v>4.333</v>
+      </c>
+      <c r="P144">
+        <v>1.95</v>
+      </c>
+      <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.975</v>
+      </c>
+      <c r="S144">
+        <v>1.825</v>
+      </c>
+      <c r="T144">
         <v>4</v>
       </c>
-      <c r="N144">
-        <v>1.75</v>
-      </c>
-      <c r="O144">
-        <v>4.5</v>
-      </c>
-      <c r="P144">
-        <v>3.25</v>
-      </c>
-      <c r="Q144">
-        <v>-0.75</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
-      <c r="T144">
-        <v>4.25</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14969,7 +14969,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14981,76 +14981,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
         <v>4</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N163">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P163">
+        <v>2.8</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
         <v>3.5</v>
       </c>
-      <c r="Q163">
-        <v>-0.75</v>
-      </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.85</v>
       </c>
-      <c r="T163">
-        <v>4</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y163">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
+        <v>0.5</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB163">
-        <v>-1</v>
-      </c>
-      <c r="AC163">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
+        <v>1.727</v>
+      </c>
+      <c r="O164">
+        <v>4.2</v>
+      </c>
+      <c r="P164">
+        <v>3.5</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
         <v>1.95</v>
       </c>
-      <c r="O164">
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
         <v>4</v>
       </c>
-      <c r="P164">
-        <v>2.8</v>
-      </c>
-      <c r="Q164">
-        <v>-0.25</v>
-      </c>
-      <c r="R164">
-        <v>1.8</v>
-      </c>
-      <c r="S164">
-        <v>2</v>
-      </c>
-      <c r="T164">
-        <v>3.5</v>
-      </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L180">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M180">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N180">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P180">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R180">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6918249</v>
+        <v>6893670</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,76 +16583,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K181">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M181">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N181">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="O181">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q181">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.925</v>
+      </c>
+      <c r="S181">
+        <v>1.875</v>
+      </c>
+      <c r="T181">
+        <v>3.75</v>
+      </c>
+      <c r="U181">
+        <v>1.85</v>
+      </c>
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="S181">
-        <v>1.85</v>
-      </c>
-      <c r="T181">
-        <v>4.75</v>
-      </c>
-      <c r="U181">
-        <v>1.9</v>
-      </c>
-      <c r="V181">
-        <v>1.9</v>
-      </c>
       <c r="W181">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB181">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45165.375</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G185" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K185">
+        <v>2.1</v>
+      </c>
+      <c r="L185">
+        <v>4.2</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.1</v>
+      </c>
+      <c r="O185">
+        <v>4.2</v>
+      </c>
+      <c r="P185">
+        <v>2.5</v>
+      </c>
+      <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>3.5</v>
+      </c>
+      <c r="U185">
+        <v>1.9</v>
+      </c>
+      <c r="V185">
+        <v>1.9</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>1.5</v>
       </c>
-      <c r="L185">
-        <v>5</v>
-      </c>
-      <c r="M185">
-        <v>4</v>
-      </c>
-      <c r="N185">
-        <v>1.5</v>
-      </c>
-      <c r="O185">
-        <v>5</v>
-      </c>
-      <c r="P185">
-        <v>4</v>
-      </c>
-      <c r="Q185">
-        <v>-1</v>
-      </c>
-      <c r="R185">
-        <v>1.75</v>
-      </c>
-      <c r="S185">
-        <v>1.95</v>
-      </c>
-      <c r="T185">
-        <v>4</v>
-      </c>
-      <c r="U185">
-        <v>1.925</v>
-      </c>
-      <c r="V185">
-        <v>1.775</v>
-      </c>
-      <c r="W185">
-        <v>0.5</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6892994</v>
+        <v>6893673</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,76 +17028,76 @@
         <v>45165.375</v>
       </c>
       <c r="F186" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P186">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R186">
+        <v>1.75</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
+        <v>4</v>
+      </c>
+      <c r="U186">
         <v>1.925</v>
       </c>
-      <c r="S186">
-        <v>1.875</v>
-      </c>
-      <c r="T186">
-        <v>3.5</v>
-      </c>
-      <c r="U186">
-        <v>1.9</v>
-      </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA186">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,58 +18096,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H198">
         <v>3</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198">
+        <v>4.5</v>
+      </c>
+      <c r="L198">
+        <v>4.2</v>
+      </c>
+      <c r="M198">
+        <v>1.533</v>
+      </c>
+      <c r="N198">
+        <v>3.6</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>1.75</v>
+      </c>
+      <c r="Q198">
+        <v>0.75</v>
+      </c>
+      <c r="R198">
+        <v>1.85</v>
+      </c>
+      <c r="S198">
         <v>1.95</v>
       </c>
-      <c r="L198">
-        <v>4</v>
-      </c>
-      <c r="M198">
-        <v>2.875</v>
-      </c>
-      <c r="N198">
-        <v>1.333</v>
-      </c>
-      <c r="O198">
-        <v>4.75</v>
-      </c>
-      <c r="P198">
-        <v>6</v>
-      </c>
-      <c r="Q198">
-        <v>-1.75</v>
-      </c>
-      <c r="R198">
+      <c r="T198">
+        <v>3.75</v>
+      </c>
+      <c r="U198">
+        <v>1.825</v>
+      </c>
+      <c r="V198">
         <v>1.975</v>
       </c>
-      <c r="S198">
-        <v>1.825</v>
-      </c>
-      <c r="T198">
-        <v>4</v>
-      </c>
-      <c r="U198">
-        <v>1.85</v>
-      </c>
-      <c r="V198">
-        <v>1.95</v>
-      </c>
       <c r="W198">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18156,16 +18156,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,73 +18185,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K199">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L199">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N199">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P199">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,76 +18274,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K200">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L200">
         <v>4</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N200">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O200">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q200">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T200">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X200">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6893684</v>
+        <v>6893687</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H207">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K207">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L207">
         <v>4</v>
       </c>
       <c r="M207">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N207">
+        <v>3.6</v>
+      </c>
+      <c r="O207">
+        <v>4</v>
+      </c>
+      <c r="P207">
+        <v>1.7</v>
+      </c>
+      <c r="Q207">
+        <v>0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
+        <v>1.925</v>
+      </c>
+      <c r="T207">
+        <v>3.5</v>
+      </c>
+      <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
+        <v>1.925</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
         <v>3</v>
       </c>
-      <c r="O207">
-        <v>4.2</v>
-      </c>
-      <c r="P207">
-        <v>1.95</v>
-      </c>
-      <c r="Q207">
-        <v>0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.825</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>4</v>
-      </c>
-      <c r="U207">
-        <v>1.75</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>2</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,13 +18986,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -19001,43 +19001,43 @@
         <v>53</v>
       </c>
       <c r="K208">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L208">
+        <v>4.75</v>
+      </c>
+      <c r="M208">
         <v>4.5</v>
       </c>
-      <c r="M208">
-        <v>1.666</v>
-      </c>
       <c r="N208">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P208">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R208">
+        <v>1.925</v>
+      </c>
+      <c r="S208">
+        <v>1.875</v>
+      </c>
+      <c r="T208">
+        <v>3.75</v>
+      </c>
+      <c r="U208">
         <v>1.95</v>
       </c>
-      <c r="S208">
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="T208">
-        <v>3.5</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
       <c r="W208">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6892996</v>
+        <v>6893684</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H209">
+        <v>7</v>
+      </c>
+      <c r="I209">
         <v>2</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L209">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N209">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O209">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P209">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q209">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U209">
+        <v>1.75</v>
+      </c>
+      <c r="V209">
         <v>1.95</v>
       </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
       <c r="W209">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,16 +19135,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6893687</v>
+        <v>6893685</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M210">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P210">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q210">
         <v>0.75</v>
       </c>
       <c r="R210">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
         <v>3.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X210">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19330,7 +19330,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6893691</v>
+        <v>6893689</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19342,13 +19342,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -19357,25 +19357,25 @@
         <v>53</v>
       </c>
       <c r="K212">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M212">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N212">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O212">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q212">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R212">
         <v>1.85</v>
@@ -19384,16 +19384,16 @@
         <v>1.95</v>
       </c>
       <c r="T212">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W212">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19408,10 +19408,10 @@
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC212">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19419,7 +19419,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6893689</v>
+        <v>6893690</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19431,40 +19431,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K213">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="L213">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M213">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N213">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O213">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P213">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q213">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R213">
         <v>1.85</v>
@@ -19473,34 +19473,34 @@
         <v>1.95</v>
       </c>
       <c r="T213">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19508,7 +19508,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19520,40 +19520,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H214">
+        <v>4</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
+      <c r="J214" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214">
+        <v>1.909</v>
+      </c>
+      <c r="L214">
+        <v>4</v>
+      </c>
+      <c r="M214">
         <v>3</v>
       </c>
-      <c r="J214" t="s">
-        <v>54</v>
-      </c>
-      <c r="K214">
-        <v>4.2</v>
-      </c>
-      <c r="L214">
-        <v>4.5</v>
-      </c>
-      <c r="M214">
-        <v>1.533</v>
-      </c>
       <c r="N214">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O214">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q214">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
         <v>1.85</v>
@@ -19562,34 +19562,34 @@
         <v>1.95</v>
       </c>
       <c r="T214">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19775,7 +19775,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19787,49 +19787,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
         <v>3</v>
       </c>
-      <c r="I217">
-        <v>1</v>
-      </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L217">
         <v>4.5</v>
       </c>
       <c r="M217">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N217">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O217">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P217">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q217">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U217">
         <v>1.8</v>
@@ -19838,25 +19838,25 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z217">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC217">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19864,7 +19864,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19876,49 +19876,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
         <v>1</v>
       </c>
-      <c r="I218">
-        <v>3</v>
-      </c>
       <c r="J218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K218">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L218">
         <v>4.5</v>
       </c>
       <c r="M218">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O218">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P218">
+        <v>4.333</v>
+      </c>
+      <c r="Q218">
+        <v>-1.25</v>
+      </c>
+      <c r="R218">
+        <v>1.925</v>
+      </c>
+      <c r="S218">
+        <v>1.775</v>
+      </c>
+      <c r="T218">
         <v>4</v>
-      </c>
-      <c r="Q218">
-        <v>-1</v>
-      </c>
-      <c r="R218">
-        <v>1.85</v>
-      </c>
-      <c r="S218">
-        <v>1.95</v>
-      </c>
-      <c r="T218">
-        <v>3.75</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -19927,25 +19927,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA218">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -24937,7 +24937,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24949,13 +24949,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G275" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>2</v>
@@ -24964,40 +24964,40 @@
         <v>54</v>
       </c>
       <c r="K275">
+        <v>2.3</v>
+      </c>
+      <c r="L275">
+        <v>4.2</v>
+      </c>
+      <c r="M275">
+        <v>2.25</v>
+      </c>
+      <c r="N275">
+        <v>2.625</v>
+      </c>
+      <c r="O275">
+        <v>4.2</v>
+      </c>
+      <c r="P275">
+        <v>2</v>
+      </c>
+      <c r="Q275">
+        <v>0.25</v>
+      </c>
+      <c r="R275">
+        <v>1.95</v>
+      </c>
+      <c r="S275">
         <v>1.85</v>
       </c>
-      <c r="L275">
-        <v>4</v>
-      </c>
-      <c r="M275">
-        <v>3.1</v>
-      </c>
-      <c r="N275">
-        <v>1.95</v>
-      </c>
-      <c r="O275">
-        <v>3.8</v>
-      </c>
-      <c r="P275">
-        <v>2.9</v>
-      </c>
-      <c r="Q275">
-        <v>-0.25</v>
-      </c>
-      <c r="R275">
-        <v>1.8</v>
-      </c>
-      <c r="S275">
-        <v>2</v>
-      </c>
       <c r="T275">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U275">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W275">
         <v>-1</v>
@@ -25006,19 +25006,19 @@
         <v>-1</v>
       </c>
       <c r="Y275">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z275">
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB275">
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25026,7 +25026,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25038,13 +25038,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -25053,61 +25053,61 @@
         <v>54</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L276">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M276">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O276">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
+        <v>2.9</v>
+      </c>
+      <c r="Q276">
+        <v>-0.25</v>
+      </c>
+      <c r="R276">
+        <v>1.8</v>
+      </c>
+      <c r="S276">
         <v>2</v>
       </c>
-      <c r="Q276">
-        <v>0.25</v>
-      </c>
-      <c r="R276">
+      <c r="T276">
+        <v>4</v>
+      </c>
+      <c r="U276">
         <v>1.95</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.85</v>
       </c>
-      <c r="T276">
-        <v>3.75</v>
-      </c>
-      <c r="U276">
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
         <v>1.9</v>
       </c>
-      <c r="V276">
-        <v>1.9</v>
-      </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>-1</v>
-      </c>
-      <c r="Y276">
+      <c r="Z276">
+        <v>-1</v>
+      </c>
+      <c r="AA276">
         <v>1</v>
       </c>
-      <c r="Z276">
-        <v>-1</v>
-      </c>
-      <c r="AA276">
+      <c r="AB276">
+        <v>-1</v>
+      </c>
+      <c r="AC276">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB276">
-        <v>-1</v>
-      </c>
-      <c r="AC276">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6893737</v>
+        <v>6893738</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,76 +25661,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G283" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H283">
         <v>2</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K283">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L283">
         <v>5</v>
       </c>
       <c r="M283">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N283">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O283">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P283">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R283">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S283">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
         <v>3.75</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>0.4875</v>
+      </c>
+      <c r="AC283">
         <v>-0.5</v>
-      </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
-      <c r="AC283">
-        <v>0.925</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,73 +25750,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G284" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L284">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M284">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N284">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O284">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P284">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q284">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T284">
         <v>3.75</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z284">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC284">
         <v>-0.5</v>
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
         <v>1</v>
       </c>
-      <c r="I285">
-        <v>3</v>
-      </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K285">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M285">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O285">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P285">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R285">
+        <v>1.825</v>
+      </c>
+      <c r="S285">
         <v>1.975</v>
-      </c>
-      <c r="S285">
-        <v>1.825</v>
       </c>
       <c r="T285">
         <v>3.75</v>
       </c>
       <c r="U285">
+        <v>1.875</v>
+      </c>
+      <c r="V285">
         <v>1.925</v>
       </c>
-      <c r="V285">
-        <v>1.875</v>
-      </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA285">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB285">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K288">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L288">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M288">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N288">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O288">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P288">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q288">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R288">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S288">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T288">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V288">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X288">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA288">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC288">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26183,7 +26183,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6918235</v>
+        <v>6893741</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26195,76 +26195,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H289">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I289">
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K289">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L289">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M289">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N289">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O289">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P289">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q289">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R289">
+        <v>1.925</v>
+      </c>
+      <c r="S289">
+        <v>1.875</v>
+      </c>
+      <c r="T289">
+        <v>3</v>
+      </c>
+      <c r="U289">
         <v>1.825</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.975</v>
       </c>
-      <c r="T289">
-        <v>4.75</v>
-      </c>
-      <c r="U289">
-        <v>1.875</v>
-      </c>
-      <c r="V289">
-        <v>1.825</v>
-      </c>
       <c r="W289">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB289">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6893741</v>
+        <v>6893369</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,10 +26284,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26299,61 +26299,61 @@
         <v>55</v>
       </c>
       <c r="K290">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L290">
         <v>4.2</v>
       </c>
       <c r="M290">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N290">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O290">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P290">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S290">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T290">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U290">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V290">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA290">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB290">
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27251,7 +27251,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7572547</v>
+        <v>7572546</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27263,76 +27263,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K301">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="L301">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M301">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N301">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O301">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q301">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R301">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T301">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U301">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V301">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y301">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7572546</v>
+        <v>7572547</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G302" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J302" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K302">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="L302">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M302">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N302">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="O302">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P302">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q302">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R302">
+        <v>1.925</v>
+      </c>
+      <c r="S302">
+        <v>1.875</v>
+      </c>
+      <c r="T302">
+        <v>4.25</v>
+      </c>
+      <c r="U302">
         <v>1.95</v>
       </c>
-      <c r="S302">
+      <c r="V302">
         <v>1.85</v>
       </c>
-      <c r="T302">
-        <v>3.75</v>
-      </c>
-      <c r="U302">
-        <v>2</v>
-      </c>
-      <c r="V302">
-        <v>1.8</v>
-      </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z302">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA302">
+        <v>-1</v>
+      </c>
+      <c r="AB302">
         <v>-0.5</v>
       </c>
-      <c r="AB302">
-        <v>-1</v>
-      </c>
       <c r="AC302">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,13 +28598,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G316" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -28613,43 +28613,43 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L316">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N316">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O316">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P316">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R316">
+        <v>1.95</v>
+      </c>
+      <c r="S316">
+        <v>1.85</v>
+      </c>
+      <c r="T316">
+        <v>4.25</v>
+      </c>
+      <c r="U316">
+        <v>1.975</v>
+      </c>
+      <c r="V316">
         <v>1.825</v>
       </c>
-      <c r="S316">
-        <v>1.975</v>
-      </c>
-      <c r="T316">
-        <v>3.75</v>
-      </c>
-      <c r="U316">
-        <v>1.925</v>
-      </c>
-      <c r="V316">
-        <v>1.875</v>
-      </c>
       <c r="W316">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,16 +28658,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
         <v>0.825</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
-      <c r="AC316">
-        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,13 +28687,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G317" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -28702,43 +28702,43 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L317">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M317">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N317">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O317">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q317">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28747,16 +28747,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29469,6 +29469,154 @@
       </c>
       <c r="AC325">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>6893772</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45345.64583333334</v>
+      </c>
+      <c r="F326" t="s">
+        <v>44</v>
+      </c>
+      <c r="G326" t="s">
+        <v>51</v>
+      </c>
+      <c r="K326">
+        <v>1.909</v>
+      </c>
+      <c r="L326">
+        <v>4</v>
+      </c>
+      <c r="M326">
+        <v>3</v>
+      </c>
+      <c r="N326">
+        <v>1.45</v>
+      </c>
+      <c r="O326">
+        <v>4.2</v>
+      </c>
+      <c r="P326">
+        <v>5.25</v>
+      </c>
+      <c r="Q326">
+        <v>-1.25</v>
+      </c>
+      <c r="R326">
+        <v>1.825</v>
+      </c>
+      <c r="S326">
+        <v>1.975</v>
+      </c>
+      <c r="T326">
+        <v>4</v>
+      </c>
+      <c r="U326">
+        <v>1.825</v>
+      </c>
+      <c r="V326">
+        <v>1.975</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6893376</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45345.64583333334</v>
+      </c>
+      <c r="F327" t="s">
+        <v>29</v>
+      </c>
+      <c r="G327" t="s">
+        <v>45</v>
+      </c>
+      <c r="K327">
+        <v>1.6</v>
+      </c>
+      <c r="L327">
+        <v>4.2</v>
+      </c>
+      <c r="M327">
+        <v>4</v>
+      </c>
+      <c r="N327">
+        <v>1.571</v>
+      </c>
+      <c r="O327">
+        <v>4.2</v>
+      </c>
+      <c r="P327">
+        <v>4.2</v>
+      </c>
+      <c r="Q327">
+        <v>-1</v>
+      </c>
+      <c r="R327">
+        <v>1.875</v>
+      </c>
+      <c r="S327">
+        <v>1.925</v>
+      </c>
+      <c r="T327">
+        <v>4.25</v>
+      </c>
+      <c r="U327">
+        <v>1.9</v>
+      </c>
+      <c r="V327">
+        <v>1.9</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>FC Sderelbe</t>
   </si>
   <si>
-    <t>TuRa Harksheide</t>
+    <t>TuS Osdorf</t>
   </si>
   <si>
-    <t>TuS Osdorf</t>
+    <t>TuRa Harksheide</t>
   </si>
   <si>
     <t>SV CurslackNeuengamme</t>
@@ -136,10 +136,10 @@
     <t>FC Trkiye Wilhelmsburg</t>
   </si>
   <si>
-    <t>Niendorfer TSV</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
+    <t>Niendorfer TSV</t>
   </si>
   <si>
     <t>TSV Buchholz 08</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC327"/>
+  <dimension ref="A1:AC329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5285798</v>
+        <v>5278162</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -744,73 +744,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="N3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P3">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
+        <v>1.825</v>
+      </c>
+      <c r="V3">
         <v>1.975</v>
       </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5278162</v>
+        <v>5285798</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -833,73 +833,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="L4">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P4">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
       <c r="W4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1189,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5278055</v>
+        <v>5278166</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,37 +1634,37 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>1.833</v>
       </c>
       <c r="N13">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>0.75</v>
       </c>
       <c r="R13">
         <v>1.9</v>
@@ -1673,22 +1673,22 @@
         <v>1.9</v>
       </c>
       <c r="T13">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1697,10 +1697,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1708,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5278166</v>
+        <v>5278055</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1723,37 +1723,37 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>1.833</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>1.125</v>
       </c>
       <c r="O14">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P14">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R14">
         <v>1.9</v>
@@ -1762,22 +1762,22 @@
         <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y14">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1786,10 +1786,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1901,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5278169</v>
+        <v>5278171</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2076,49 +2076,49 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N18">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P18">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U18">
         <v>1.9</v>
@@ -2133,19 +2133,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5278171</v>
+        <v>5278169</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2165,49 +2165,49 @@
         <v>44960.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N19">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P19">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U19">
         <v>1.9</v>
@@ -2222,19 +2222,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.7270000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2613,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2865,7 +2865,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5278175</v>
+        <v>5278061</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2877,49 +2877,49 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>1.6</v>
+      </c>
+      <c r="O27">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>2.1</v>
-      </c>
-      <c r="N27">
-        <v>3.5</v>
-      </c>
-      <c r="O27">
-        <v>4.2</v>
-      </c>
       <c r="P27">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
         <v>1.875</v>
@@ -2931,22 +2931,22 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2966,10 +2966,10 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5278061</v>
+        <v>5278175</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3055,49 +3055,49 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
         <v>1.875</v>
@@ -3109,22 +3109,22 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC29">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3236,7 +3236,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3411,7 +3411,7 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3770,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -4126,7 +4126,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -4289,7 +4289,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5278069</v>
+        <v>5278070</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4304,55 +4304,55 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>53</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4361,16 +4361,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5278070</v>
+        <v>5278069</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4393,55 +4393,55 @@
         <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>2</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>53</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4450,16 +4450,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4482,7 +4482,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4746,7 +4746,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5278186</v>
+        <v>5278187</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,58 +4924,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
+        <v>4.75</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5</v>
+      </c>
+      <c r="R50">
+        <v>1.925</v>
+      </c>
+      <c r="S50">
+        <v>1.775</v>
+      </c>
+      <c r="T50">
         <v>3.75</v>
       </c>
-      <c r="P50">
-        <v>3.2</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4984,13 +4984,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5278187</v>
+        <v>5278186</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,58 +5013,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q51">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5073,13 +5073,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5105,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5194,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5547,7 +5547,7 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>38</v>
@@ -5802,7 +5802,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5278008</v>
+        <v>5278078</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5814,49 +5814,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
       </c>
       <c r="K60">
+        <v>3.75</v>
+      </c>
+      <c r="L60">
+        <v>4.75</v>
+      </c>
+      <c r="M60">
+        <v>1.571</v>
+      </c>
+      <c r="N60">
+        <v>4.333</v>
+      </c>
+      <c r="O60">
+        <v>4.75</v>
+      </c>
+      <c r="P60">
+        <v>1.5</v>
+      </c>
+      <c r="Q60">
         <v>1.25</v>
       </c>
-      <c r="L60">
-        <v>6</v>
-      </c>
-      <c r="M60">
-        <v>7</v>
-      </c>
-      <c r="N60">
-        <v>1.2</v>
-      </c>
-      <c r="O60">
-        <v>6.5</v>
-      </c>
-      <c r="P60">
-        <v>8.5</v>
-      </c>
-      <c r="Q60">
-        <v>-2.25</v>
-      </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U60">
         <v>1.925</v>
@@ -5865,7 +5865,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.2</v>
+        <v>3.333</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5874,16 +5874,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5278078</v>
+        <v>5278008</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5903,49 +5903,49 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
         <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>53</v>
       </c>
       <c r="K61">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="O61">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P61">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q61">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T61">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U61">
         <v>1.925</v>
@@ -5954,7 +5954,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>3.333</v>
+        <v>0.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5963,16 +5963,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6081,7 +6081,7 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6170,7 +6170,7 @@
         <v>45009.64583333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
@@ -6526,10 +6526,10 @@
         <v>45011.375</v>
       </c>
       <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
         <v>40</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6796,7 +6796,7 @@
         <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6885,7 +6885,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>4</v>
@@ -7152,7 +7152,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7671,7 +7671,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5285787</v>
+        <v>5284636</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7683,76 +7683,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L81">
         <v>4</v>
       </c>
       <c r="M81">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="O81">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X81">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5284636</v>
+        <v>5285787</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,76 +7861,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K83">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
         <v>4</v>
       </c>
       <c r="M83">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U83">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7950,7 +7950,7 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>44</v>
@@ -8042,7 +8042,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8306,7 +8306,7 @@
         <v>45023.375</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
@@ -8487,7 +8487,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>45026.375</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8650,7 +8650,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6108973</v>
+        <v>6108970</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8662,76 +8662,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
+        <v>1.85</v>
+      </c>
+      <c r="O92">
+        <v>3.8</v>
+      </c>
+      <c r="P92">
+        <v>3.1</v>
+      </c>
+      <c r="Q92">
+        <v>-0.5</v>
+      </c>
+      <c r="R92">
         <v>1.95</v>
       </c>
-      <c r="O92">
-        <v>4.2</v>
-      </c>
-      <c r="P92">
-        <v>2.75</v>
-      </c>
-      <c r="Q92">
-        <v>-0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.8</v>
-      </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8739,7 +8739,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6108970</v>
+        <v>6108973</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8751,76 +8751,76 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>1</v>
       </c>
-      <c r="I93">
+      <c r="J93" t="s">
+        <v>53</v>
+      </c>
+      <c r="K93">
+        <v>2.2</v>
+      </c>
+      <c r="L93">
+        <v>4.2</v>
+      </c>
+      <c r="M93">
+        <v>2.375</v>
+      </c>
+      <c r="N93">
+        <v>1.95</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
+        <v>2.75</v>
+      </c>
+      <c r="Q93">
+        <v>-0.25</v>
+      </c>
+      <c r="R93">
+        <v>1.8</v>
+      </c>
+      <c r="S93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
-        <v>54</v>
-      </c>
-      <c r="K93">
-        <v>2</v>
-      </c>
-      <c r="L93">
-        <v>4</v>
-      </c>
-      <c r="M93">
-        <v>2.75</v>
-      </c>
-      <c r="N93">
-        <v>1.85</v>
-      </c>
-      <c r="O93">
-        <v>3.8</v>
-      </c>
-      <c r="P93">
-        <v>3.1</v>
-      </c>
-      <c r="Q93">
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>0.95</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
+        <v>0.8</v>
+      </c>
+      <c r="AA93">
+        <v>-1</v>
+      </c>
+      <c r="AB93">
         <v>-0.5</v>
       </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.85</v>
-      </c>
-      <c r="T93">
-        <v>3.5</v>
-      </c>
-      <c r="U93">
-        <v>1.825</v>
-      </c>
-      <c r="V93">
-        <v>1.975</v>
-      </c>
-      <c r="W93">
-        <v>-1</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>2.1</v>
-      </c>
-      <c r="Z93">
-        <v>-1</v>
-      </c>
-      <c r="AA93">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB93">
-        <v>-1</v>
-      </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8932,7 +8932,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9466,7 +9466,7 @@
         <v>46</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5286038</v>
+        <v>5286284</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9552,73 +9552,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L102">
         <v>4</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O102">
         <v>4</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9629,7 +9629,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5286284</v>
+        <v>5286038</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9641,73 +9641,73 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
         <v>4</v>
       </c>
       <c r="M103">
+        <v>2.3</v>
+      </c>
+      <c r="N103">
         <v>2.5</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
       </c>
       <c r="O103">
         <v>4</v>
       </c>
       <c r="P103">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U103">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9911,7 +9911,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>45038.375</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10356,7 +10356,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10697,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5288442</v>
+        <v>5288443</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10709,76 +10709,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K115">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="Q115">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
+        <v>1.825</v>
+      </c>
+      <c r="T115">
+        <v>3.75</v>
+      </c>
+      <c r="U115">
         <v>1.925</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="T115">
-        <v>4.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10786,7 +10786,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5288443</v>
+        <v>5288442</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10798,76 +10798,76 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K116">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M116">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N116">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O116">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P116">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R116">
+        <v>1.925</v>
+      </c>
+      <c r="S116">
+        <v>1.875</v>
+      </c>
+      <c r="T116">
+        <v>4.25</v>
+      </c>
+      <c r="U116">
         <v>1.975</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.825</v>
       </c>
-      <c r="T116">
-        <v>3.75</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X116">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10979,7 +10979,7 @@
         <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11409,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5289670</v>
+        <v>5288444</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11421,40 +11421,40 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K123">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M123">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O123">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q123">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
         <v>1.925</v>
@@ -11463,34 +11463,34 @@
         <v>1.875</v>
       </c>
       <c r="T123">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5289598</v>
+        <v>5289670</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N124">
         <v>4.333</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q124">
         <v>1.25</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
+        <v>4.25</v>
+      </c>
+      <c r="U124">
         <v>1.95</v>
       </c>
-      <c r="T124">
-        <v>3.25</v>
-      </c>
-      <c r="U124">
-        <v>2</v>
-      </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5288444</v>
+        <v>5289598</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>55</v>
+      </c>
+      <c r="K125">
+        <v>4.75</v>
+      </c>
+      <c r="L125">
+        <v>4.75</v>
+      </c>
+      <c r="M125">
+        <v>1.444</v>
+      </c>
+      <c r="N125">
+        <v>4.333</v>
+      </c>
+      <c r="O125">
+        <v>4.75</v>
+      </c>
+      <c r="P125">
+        <v>1.5</v>
+      </c>
+      <c r="Q125">
+        <v>1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.75</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>3.25</v>
+      </c>
+      <c r="U125">
         <v>2</v>
       </c>
-      <c r="J125" t="s">
-        <v>53</v>
-      </c>
-      <c r="K125">
-        <v>2.375</v>
-      </c>
-      <c r="L125">
-        <v>4.2</v>
-      </c>
-      <c r="M125">
-        <v>2.2</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>4.2</v>
-      </c>
-      <c r="P125">
-        <v>2.55</v>
-      </c>
-      <c r="Q125">
-        <v>-0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.925</v>
-      </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>1.825</v>
-      </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11691,7 +11691,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11780,7 +11780,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -11869,7 +11869,7 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12047,7 +12047,7 @@
         <v>47</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12492,7 +12492,7 @@
         <v>47</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5289674</v>
+        <v>5290704</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12578,58 +12578,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>1.071</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="P136">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="U136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.75</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12638,13 +12638,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12655,7 +12655,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5289673</v>
+        <v>5290680</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12667,76 +12667,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>4</v>
-      </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M137">
-        <v>1.363</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="O137">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="P137">
-        <v>1.333</v>
+        <v>12</v>
       </c>
       <c r="Q137">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5289675</v>
+        <v>5290652</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,76 +12756,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K138">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L138">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M138">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N138">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O138">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>4</v>
       </c>
       <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
       <c r="W138">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.825</v>
-      </c>
-      <c r="AC138">
-        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290650</v>
+        <v>5290651</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,73 +12845,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K139">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L139">
         <v>4.5</v>
       </c>
       <c r="M139">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P139">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q139">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>3.5</v>
       </c>
       <c r="U139">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5290651</v>
+        <v>5290650</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,73 +12934,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
         <v>4.5</v>
       </c>
       <c r="M140">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="N140">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5290680</v>
+        <v>5289675</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,58 +13023,58 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="L141">
         <v>4.75</v>
       </c>
       <c r="M141">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P141">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
         <v>1.775</v>
       </c>
-      <c r="S141">
-        <v>2.025</v>
-      </c>
       <c r="T141">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13083,16 +13083,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5290681</v>
+        <v>5289674</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,76 +13112,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
       <c r="J142" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K142">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="N142">
-        <v>11</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
+        <v>1.95</v>
+      </c>
+      <c r="S142">
         <v>1.85</v>
-      </c>
-      <c r="S142">
-        <v>1.95</v>
       </c>
       <c r="T142">
         <v>4.25</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC142">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5290704</v>
+        <v>5289673</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I143">
+        <v>4</v>
+      </c>
+      <c r="J143" t="s">
+        <v>54</v>
+      </c>
+      <c r="K143">
+        <v>5.5</v>
+      </c>
+      <c r="L143">
+        <v>5</v>
+      </c>
+      <c r="M143">
+        <v>1.363</v>
+      </c>
+      <c r="N143">
+        <v>5.75</v>
+      </c>
+      <c r="O143">
+        <v>5.25</v>
+      </c>
+      <c r="P143">
+        <v>1.333</v>
+      </c>
+      <c r="Q143">
+        <v>1.75</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
+        <v>4</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
+        <v>1.925</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>0.333</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB143">
         <v>0</v>
       </c>
-      <c r="J143" t="s">
-        <v>53</v>
-      </c>
-      <c r="K143">
-        <v>1.071</v>
-      </c>
-      <c r="L143">
-        <v>11</v>
-      </c>
-      <c r="M143">
-        <v>15</v>
-      </c>
-      <c r="N143">
-        <v>1.1</v>
-      </c>
-      <c r="O143">
-        <v>10</v>
-      </c>
-      <c r="P143">
-        <v>15</v>
-      </c>
-      <c r="Q143">
-        <v>-3</v>
-      </c>
-      <c r="R143">
-        <v>1.775</v>
-      </c>
-      <c r="S143">
-        <v>1.925</v>
-      </c>
-      <c r="T143">
-        <v>4.75</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
-      <c r="W143">
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
-      <c r="AB143">
-        <v>0.825</v>
-      </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5290652</v>
+        <v>5290681</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,55 +13290,55 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
         <v>54</v>
       </c>
       <c r="K144">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="L144">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P144">
+        <v>1.166</v>
+      </c>
+      <c r="Q144">
+        <v>2.5</v>
+      </c>
+      <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.825</v>
-      </c>
       <c r="T144">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13347,19 +13347,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.95</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13824,7 +13824,7 @@
         <v>45137.375</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
         <v>42</v>
@@ -13913,10 +13913,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14435,7 +14435,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6893332</v>
+        <v>6893654</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14447,13 +14447,13 @@
         <v>45144.375</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14462,25 +14462,25 @@
         <v>53</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M157">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P157">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R157">
         <v>1.925</v>
@@ -14489,7 +14489,7 @@
         <v>1.875</v>
       </c>
       <c r="T157">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U157">
         <v>1.875</v>
@@ -14498,7 +14498,7 @@
         <v>1.925</v>
       </c>
       <c r="W157">
-        <v>2.4</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6893655</v>
+        <v>6893332</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14536,58 +14536,58 @@
         <v>45144.375</v>
       </c>
       <c r="F158" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
         <v>2</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N158">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O158">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q158">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
         <v>1.875</v>
       </c>
-      <c r="S158">
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>1.875</v>
+      </c>
+      <c r="V158">
         <v>1.925</v>
       </c>
-      <c r="T158">
-        <v>3.75</v>
-      </c>
-      <c r="U158">
-        <v>1.95</v>
-      </c>
-      <c r="V158">
-        <v>1.85</v>
-      </c>
       <c r="W158">
-        <v>0.8500000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14596,16 +14596,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.925</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>0.875</v>
       </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14613,7 +14613,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6893654</v>
+        <v>6893655</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14625,58 +14625,58 @@
         <v>45144.375</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>53</v>
       </c>
       <c r="K159">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N159">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O159">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P159">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q159">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.925</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14685,16 +14685,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14702,7 +14702,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14714,76 +14714,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
         <v>1</v>
       </c>
-      <c r="I160">
+      <c r="J160" t="s">
+        <v>53</v>
+      </c>
+      <c r="K160">
+        <v>1.444</v>
+      </c>
+      <c r="L160">
+        <v>4.5</v>
+      </c>
+      <c r="M160">
         <v>5</v>
       </c>
-      <c r="J160" t="s">
-        <v>54</v>
-      </c>
-      <c r="K160">
-        <v>11</v>
-      </c>
-      <c r="L160">
-        <v>9</v>
-      </c>
-      <c r="M160">
-        <v>1.1</v>
-      </c>
       <c r="N160">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O160">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P160">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q160">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14803,76 +14803,76 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>5</v>
+      </c>
+      <c r="J161" t="s">
+        <v>54</v>
+      </c>
+      <c r="K161">
+        <v>11</v>
+      </c>
+      <c r="L161">
+        <v>9</v>
+      </c>
+      <c r="M161">
+        <v>1.1</v>
+      </c>
+      <c r="N161">
+        <v>19</v>
+      </c>
+      <c r="O161">
+        <v>10</v>
+      </c>
+      <c r="P161">
+        <v>1.083</v>
+      </c>
+      <c r="Q161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-      <c r="J161" t="s">
-        <v>53</v>
-      </c>
-      <c r="K161">
-        <v>1.444</v>
-      </c>
-      <c r="L161">
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1.8</v>
+      </c>
+      <c r="T161">
         <v>4.5</v>
       </c>
-      <c r="M161">
-        <v>5</v>
-      </c>
-      <c r="N161">
-        <v>1.25</v>
-      </c>
-      <c r="O161">
-        <v>5.5</v>
-      </c>
-      <c r="P161">
-        <v>7.5</v>
-      </c>
-      <c r="Q161">
-        <v>-2</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.875</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.925</v>
       </c>
-      <c r="T161">
-        <v>4.25</v>
-      </c>
-      <c r="U161">
-        <v>1.975</v>
-      </c>
-      <c r="V161">
-        <v>1.825</v>
-      </c>
       <c r="W161">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB161">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC161">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14981,7 +14981,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
         <v>51</v>
@@ -15058,7 +15058,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6892992</v>
+        <v>6893659</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15070,76 +15070,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L164">
         <v>4</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T164">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y164">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15147,7 +15147,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15159,76 +15159,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165" t="s">
+        <v>54</v>
+      </c>
+      <c r="K165">
         <v>2</v>
-      </c>
-      <c r="I165">
-        <v>2</v>
-      </c>
-      <c r="J165" t="s">
-        <v>55</v>
-      </c>
-      <c r="K165">
-        <v>2.1</v>
       </c>
       <c r="L165">
         <v>4</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N165">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O165">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15515,10 +15515,10 @@
         <v>45151.375</v>
       </c>
       <c r="F169" t="s">
+        <v>41</v>
+      </c>
+      <c r="G169" t="s">
         <v>40</v>
-      </c>
-      <c r="G169" t="s">
-        <v>41</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -15785,7 +15785,7 @@
         <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16037,7 +16037,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6893288</v>
+        <v>6893667</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16049,76 +16049,76 @@
         <v>45158.375</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175" t="s">
+        <v>54</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>4.2</v>
+      </c>
+      <c r="M175">
+        <v>1.6</v>
+      </c>
+      <c r="N175">
+        <v>7.5</v>
+      </c>
+      <c r="O175">
+        <v>5.75</v>
+      </c>
+      <c r="P175">
+        <v>1.285</v>
+      </c>
+      <c r="Q175">
         <v>2</v>
       </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175" t="s">
-        <v>53</v>
-      </c>
-      <c r="K175">
-        <v>2.1</v>
-      </c>
-      <c r="L175">
+      <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
         <v>4</v>
       </c>
-      <c r="M175">
-        <v>2.6</v>
-      </c>
-      <c r="N175">
-        <v>2.5</v>
-      </c>
-      <c r="O175">
-        <v>4</v>
-      </c>
-      <c r="P175">
-        <v>2.15</v>
-      </c>
-      <c r="Q175">
-        <v>0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.8</v>
-      </c>
-      <c r="S175">
-        <v>2</v>
-      </c>
-      <c r="T175">
-        <v>3.75</v>
-      </c>
       <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
         <v>1.85</v>
       </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
       <c r="W175">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z175">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16126,7 +16126,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6893667</v>
+        <v>6893288</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16138,76 +16138,76 @@
         <v>45158.375</v>
       </c>
       <c r="F176" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>3</v>
-      </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
+        <v>2.1</v>
+      </c>
+      <c r="L176">
         <v>4</v>
       </c>
-      <c r="L176">
-        <v>4.2</v>
-      </c>
       <c r="M176">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N176">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="Q176">
+        <v>0.25</v>
+      </c>
+      <c r="R176">
+        <v>1.8</v>
+      </c>
+      <c r="S176">
         <v>2</v>
       </c>
-      <c r="R176">
-        <v>1.825</v>
-      </c>
-      <c r="S176">
-        <v>1.975</v>
-      </c>
       <c r="T176">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U176">
+        <v>1.85</v>
+      </c>
+      <c r="V176">
         <v>1.95</v>
       </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16227,7 +16227,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
         <v>48</v>
@@ -16319,7 +16319,7 @@
         <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H178">
         <v>3</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L179">
+        <v>4.5</v>
+      </c>
+      <c r="M179">
+        <v>1.615</v>
+      </c>
+      <c r="N179">
+        <v>2.625</v>
+      </c>
+      <c r="O179">
         <v>4.2</v>
       </c>
-      <c r="M179">
-        <v>2.3</v>
-      </c>
-      <c r="N179">
-        <v>1.833</v>
-      </c>
-      <c r="O179">
-        <v>4.5</v>
-      </c>
       <c r="P179">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q179">
+        <v>0.25</v>
+      </c>
+      <c r="R179">
+        <v>1.925</v>
+      </c>
+      <c r="S179">
+        <v>1.875</v>
+      </c>
+      <c r="T179">
+        <v>3.75</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>-1</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>1</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.875</v>
+      </c>
+      <c r="AB179">
+        <v>0.425</v>
+      </c>
+      <c r="AC179">
         <v>-0.5</v>
-      </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.9</v>
-      </c>
-      <c r="T179">
-        <v>4.25</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
-      <c r="W179">
-        <v>0.833</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,76 +16583,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I181">
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L181">
+        <v>4.2</v>
+      </c>
+      <c r="M181">
+        <v>2.3</v>
+      </c>
+      <c r="N181">
+        <v>1.833</v>
+      </c>
+      <c r="O181">
         <v>4.5</v>
       </c>
-      <c r="M181">
-        <v>1.615</v>
-      </c>
-      <c r="N181">
-        <v>2.625</v>
-      </c>
-      <c r="O181">
-        <v>4.2</v>
-      </c>
       <c r="P181">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U181">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16764,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6892994</v>
+        <v>6893673</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16939,76 +16939,76 @@
         <v>45165.375</v>
       </c>
       <c r="F185" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K185">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L185">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O185">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P185">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R185">
+        <v>1.75</v>
+      </c>
+      <c r="S185">
+        <v>1.95</v>
+      </c>
+      <c r="T185">
+        <v>4</v>
+      </c>
+      <c r="U185">
         <v>1.925</v>
       </c>
-      <c r="S185">
-        <v>1.875</v>
-      </c>
-      <c r="T185">
-        <v>3.5</v>
-      </c>
-      <c r="U185">
-        <v>1.9</v>
-      </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA185">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17016,7 +17016,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17028,76 +17028,76 @@
         <v>45165.375</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G186" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
+        <v>2.1</v>
+      </c>
+      <c r="L186">
+        <v>4.2</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.1</v>
+      </c>
+      <c r="O186">
+        <v>4.2</v>
+      </c>
+      <c r="P186">
+        <v>2.5</v>
+      </c>
+      <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.925</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>3.5</v>
+      </c>
+      <c r="U186">
+        <v>1.9</v>
+      </c>
+      <c r="V186">
+        <v>1.9</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
         <v>1.5</v>
       </c>
-      <c r="L186">
-        <v>5</v>
-      </c>
-      <c r="M186">
-        <v>4</v>
-      </c>
-      <c r="N186">
-        <v>1.5</v>
-      </c>
-      <c r="O186">
-        <v>5</v>
-      </c>
-      <c r="P186">
-        <v>4</v>
-      </c>
-      <c r="Q186">
-        <v>-1</v>
-      </c>
-      <c r="R186">
-        <v>1.75</v>
-      </c>
-      <c r="S186">
-        <v>1.95</v>
-      </c>
-      <c r="T186">
-        <v>4</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.775</v>
-      </c>
-      <c r="W186">
-        <v>0.5</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17120,7 +17120,7 @@
         <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -17206,7 +17206,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G188" t="s">
         <v>37</v>
@@ -17283,7 +17283,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17295,73 +17295,73 @@
         <v>45171.375</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K189">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L189">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N189">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q189">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R189">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X189">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17384,73 +17384,73 @@
         <v>45171.375</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K190">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N190">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P190">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17740,7 +17740,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -17921,7 +17921,7 @@
         <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,73 +18096,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H198">
         <v>3</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K198">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L198">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N198">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P198">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,76 +18185,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K199">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L199">
         <v>4</v>
       </c>
       <c r="M199">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N199">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O199">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q199">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X199">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,58 +18274,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
+        <v>4.5</v>
+      </c>
+      <c r="L200">
+        <v>4.2</v>
+      </c>
+      <c r="M200">
+        <v>1.533</v>
+      </c>
+      <c r="N200">
+        <v>3.6</v>
+      </c>
+      <c r="O200">
+        <v>4</v>
+      </c>
+      <c r="P200">
+        <v>1.75</v>
+      </c>
+      <c r="Q200">
+        <v>0.75</v>
+      </c>
+      <c r="R200">
+        <v>1.85</v>
+      </c>
+      <c r="S200">
         <v>1.95</v>
       </c>
-      <c r="L200">
-        <v>4</v>
-      </c>
-      <c r="M200">
-        <v>2.875</v>
-      </c>
-      <c r="N200">
-        <v>1.333</v>
-      </c>
-      <c r="O200">
-        <v>4.75</v>
-      </c>
-      <c r="P200">
-        <v>6</v>
-      </c>
-      <c r="Q200">
-        <v>-1.75</v>
-      </c>
-      <c r="R200">
+      <c r="T200">
+        <v>3.75</v>
+      </c>
+      <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
         <v>1.975</v>
       </c>
-      <c r="S200">
-        <v>1.825</v>
-      </c>
-      <c r="T200">
-        <v>4</v>
-      </c>
-      <c r="U200">
-        <v>1.85</v>
-      </c>
-      <c r="V200">
-        <v>1.95</v>
-      </c>
       <c r="W200">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18334,16 +18334,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18544,7 +18544,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18719,10 +18719,10 @@
         <v>45179.375</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18897,7 +18897,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
         <v>50</v>
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6892996</v>
+        <v>6893685</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,13 +18986,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -19001,43 +19001,43 @@
         <v>53</v>
       </c>
       <c r="K208">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L208">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N208">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.444</v>
+        <v>2.4</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19046,16 +19046,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA208">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,13 +19164,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -19179,43 +19179,43 @@
         <v>53</v>
       </c>
       <c r="K210">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L210">
+        <v>4.75</v>
+      </c>
+      <c r="M210">
         <v>4.5</v>
       </c>
-      <c r="M210">
-        <v>1.666</v>
-      </c>
       <c r="N210">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O210">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P210">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q210">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.875</v>
+      </c>
+      <c r="T210">
+        <v>3.75</v>
+      </c>
+      <c r="U210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>3.5</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
-      </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X210">
         <v>-1</v>
@@ -19224,16 +19224,16 @@
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19345,7 +19345,7 @@
         <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H212">
         <v>8</v>
@@ -19701,7 +19701,7 @@
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -19968,7 +19968,7 @@
         <v>46</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20232,7 +20232,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>44</v>
@@ -20766,7 +20766,7 @@
         <v>45193.375</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
         <v>48</v>
@@ -20932,7 +20932,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20944,49 +20944,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K230">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L230">
         <v>5.25</v>
       </c>
       <c r="M230">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N230">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O230">
         <v>5.25</v>
       </c>
       <c r="P230">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q230">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T230">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U230">
         <v>1.825</v>
@@ -20995,25 +20995,25 @@
         <v>1.975</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X230">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA230">
         <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21021,7 +21021,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21033,49 +21033,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F231" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K231">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L231">
         <v>5.25</v>
       </c>
       <c r="M231">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N231">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O231">
         <v>5.25</v>
       </c>
       <c r="P231">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q231">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U231">
         <v>1.825</v>
@@ -21084,25 +21084,25 @@
         <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y231">
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21214,7 +21214,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21377,7 +21377,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21389,76 +21389,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K235">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L235">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M235">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N235">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O235">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P235">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q235">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R235">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T235">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U235">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X235">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA235">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21466,7 +21466,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21478,76 +21478,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H236">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K236">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N236">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O236">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P236">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q236">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W236">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB236">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21745,7 +21745,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
         <v>50</v>
@@ -22101,7 +22101,7 @@
         <v>45207.375</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
         <v>44</v>
@@ -22190,7 +22190,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
         <v>42</v>
@@ -22638,7 +22638,7 @@
         <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H249">
         <v>5</v>
@@ -22712,7 +22712,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22724,76 +22724,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H250">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L250">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M250">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N250">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O250">
         <v>4.2</v>
       </c>
       <c r="P250">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T250">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22801,7 +22801,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22813,76 +22813,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K251">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M251">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N251">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O251">
         <v>4.2</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U251">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y251">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA251">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC251">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22991,7 +22991,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G253" t="s">
         <v>49</v>
@@ -23169,7 +23169,7 @@
         <v>45221.375</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G255" t="s">
         <v>50</v>
@@ -23246,7 +23246,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23258,10 +23258,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23273,40 +23273,40 @@
         <v>54</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L256">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N256">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O256">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P256">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q256">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R256">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U256">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -23315,16 +23315,16 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z256">
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB256">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC256">
         <v>-1</v>
@@ -23335,7 +23335,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23347,10 +23347,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23362,40 +23362,40 @@
         <v>54</v>
       </c>
       <c r="K257">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L257">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M257">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N257">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O257">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P257">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q257">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R257">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S257">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T257">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23404,16 +23404,16 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB257">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC257">
         <v>-1</v>
@@ -23780,7 +23780,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23792,76 +23792,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M262">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N262">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O262">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P262">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T262">
         <v>3.75</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC262">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23869,7 +23869,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23881,76 +23881,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K263">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M263">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N263">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O263">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>3.75</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X263">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23970,7 +23970,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G264" t="s">
         <v>42</v>
@@ -24225,7 +24225,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24237,40 +24237,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K267">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L267">
         <v>5.5</v>
       </c>
       <c r="M267">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N267">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O267">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P267">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q267">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R267">
         <v>1.825</v>
@@ -24279,34 +24279,34 @@
         <v>1.975</v>
       </c>
       <c r="T267">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y267">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB267">
         <v>-0.5</v>
       </c>
-      <c r="AB267">
-        <v>-1</v>
-      </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24314,7 +24314,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24326,40 +24326,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G268" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K268">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L268">
         <v>5.5</v>
       </c>
       <c r="M268">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N268">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O268">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P268">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q268">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R268">
         <v>1.825</v>
@@ -24368,34 +24368,34 @@
         <v>1.975</v>
       </c>
       <c r="T268">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA268">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24685,7 +24685,7 @@
         <v>45</v>
       </c>
       <c r="G272" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24863,7 +24863,7 @@
         <v>38</v>
       </c>
       <c r="G274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -25038,7 +25038,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,76 +25750,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
         <v>1</v>
       </c>
-      <c r="I284">
-        <v>3</v>
-      </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K284">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M284">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N284">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O284">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P284">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q284">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
         <v>1.975</v>
-      </c>
-      <c r="S284">
-        <v>1.825</v>
       </c>
       <c r="T284">
         <v>3.75</v>
       </c>
       <c r="U284">
+        <v>1.875</v>
+      </c>
+      <c r="V284">
         <v>1.925</v>
       </c>
-      <c r="V284">
-        <v>1.875</v>
-      </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA284">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB284">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25827,7 +25827,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25839,76 +25839,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G285" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K285">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L285">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N285">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O285">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P285">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R285">
+        <v>1.975</v>
+      </c>
+      <c r="S285">
         <v>1.825</v>
-      </c>
-      <c r="S285">
-        <v>1.975</v>
       </c>
       <c r="T285">
         <v>3.75</v>
       </c>
       <c r="U285">
+        <v>1.925</v>
+      </c>
+      <c r="V285">
         <v>1.875</v>
       </c>
-      <c r="V285">
-        <v>1.925</v>
-      </c>
       <c r="W285">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z285">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
+        <v>0.825</v>
+      </c>
+      <c r="AB285">
+        <v>0.4625</v>
+      </c>
+      <c r="AC285">
         <v>-0.5</v>
-      </c>
-      <c r="AB285">
-        <v>-1</v>
-      </c>
-      <c r="AC285">
-        <v>0.925</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26094,7 +26094,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26106,76 +26106,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H288">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K288">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M288">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O288">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q288">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R288">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T288">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V288">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26195,7 +26195,7 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G289" t="s">
         <v>43</v>
@@ -26272,7 +26272,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26284,76 +26284,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F290" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G290" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I290">
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K290">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L290">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M290">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N290">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O290">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P290">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q290">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R290">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T290">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U290">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V290">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X290">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA290">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC290">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26465,7 +26465,7 @@
         <v>45</v>
       </c>
       <c r="G292" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -27251,7 +27251,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7572546</v>
+        <v>7572547</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27263,76 +27263,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J301" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K301">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="L301">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M301">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N301">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P301">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q301">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R301">
+        <v>1.925</v>
+      </c>
+      <c r="S301">
+        <v>1.875</v>
+      </c>
+      <c r="T301">
+        <v>4.25</v>
+      </c>
+      <c r="U301">
         <v>1.95</v>
       </c>
-      <c r="S301">
+      <c r="V301">
         <v>1.85</v>
       </c>
-      <c r="T301">
-        <v>3.75</v>
-      </c>
-      <c r="U301">
-        <v>2</v>
-      </c>
-      <c r="V301">
-        <v>1.8</v>
-      </c>
       <c r="W301">
         <v>-1</v>
       </c>
       <c r="X301">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z301">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA301">
+        <v>-1</v>
+      </c>
+      <c r="AB301">
         <v>-0.5</v>
       </c>
-      <c r="AB301">
-        <v>-1</v>
-      </c>
       <c r="AC301">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7572547</v>
+        <v>7572546</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27352,76 +27352,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G302" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K302">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="L302">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M302">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N302">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O302">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P302">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q302">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R302">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S302">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T302">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V302">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W302">
         <v>-1</v>
       </c>
       <c r="X302">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y302">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27619,7 +27619,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
         <v>46</v>
@@ -27978,7 +27978,7 @@
         <v>51</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28064,7 +28064,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G310" t="s">
         <v>33</v>
@@ -28245,7 +28245,7 @@
         <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -28423,7 +28423,7 @@
         <v>52</v>
       </c>
       <c r="G314" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,13 +28598,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G316" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -28613,43 +28613,43 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L316">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M316">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N316">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O316">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P316">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q316">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,16 +28658,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA316">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,13 +28687,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -28702,43 +28702,43 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L317">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M317">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N317">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O317">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P317">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R317">
+        <v>1.95</v>
+      </c>
+      <c r="S317">
+        <v>1.85</v>
+      </c>
+      <c r="T317">
+        <v>4.25</v>
+      </c>
+      <c r="U317">
+        <v>1.975</v>
+      </c>
+      <c r="V317">
         <v>1.825</v>
       </c>
-      <c r="S317">
-        <v>1.975</v>
-      </c>
-      <c r="T317">
-        <v>3.75</v>
-      </c>
-      <c r="U317">
-        <v>1.925</v>
-      </c>
-      <c r="V317">
-        <v>1.875</v>
-      </c>
       <c r="W317">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28747,16 +28747,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>-1</v>
+      </c>
+      <c r="AA317">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB317">
+        <v>-1</v>
+      </c>
+      <c r="AC317">
         <v>0.825</v>
-      </c>
-      <c r="AA317">
-        <v>-1</v>
-      </c>
-      <c r="AB317">
-        <v>-1</v>
-      </c>
-      <c r="AC317">
-        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28954,10 +28954,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29310,7 +29310,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>
@@ -29493,6 +29493,15 @@
       <c r="G326" t="s">
         <v>51</v>
       </c>
+      <c r="H326">
+        <v>4</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" t="s">
+        <v>53</v>
+      </c>
       <c r="K326">
         <v>1.909</v>
       </c>
@@ -29503,13 +29512,13 @@
         <v>3</v>
       </c>
       <c r="N326">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O326">
         <v>4.2</v>
       </c>
       <c r="P326">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q326">
         <v>-1.25</v>
@@ -29521,28 +29530,34 @@
         <v>1.975</v>
       </c>
       <c r="T326">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U326">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V326">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA326">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB326">
+        <v>0.95</v>
+      </c>
+      <c r="AC326">
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29567,6 +29582,15 @@
       <c r="G327" t="s">
         <v>45</v>
       </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>3</v>
+      </c>
+      <c r="J327" t="s">
+        <v>54</v>
+      </c>
       <c r="K327">
         <v>1.6</v>
       </c>
@@ -29577,45 +29601,199 @@
         <v>4</v>
       </c>
       <c r="N327">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="O327">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P327">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q327">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R327">
+        <v>1.925</v>
+      </c>
+      <c r="S327">
         <v>1.875</v>
-      </c>
-      <c r="S327">
-        <v>1.925</v>
       </c>
       <c r="T327">
         <v>4.25</v>
       </c>
       <c r="U327">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V327">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W327">
+        <v>-1</v>
+      </c>
+      <c r="X327">
+        <v>-1</v>
+      </c>
+      <c r="Y327">
+        <v>3.333</v>
+      </c>
+      <c r="Z327">
+        <v>-1</v>
+      </c>
+      <c r="AA327">
+        <v>0.875</v>
+      </c>
+      <c r="AB327">
+        <v>0.825</v>
+      </c>
+      <c r="AC327">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>6918229</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F328" t="s">
+        <v>49</v>
+      </c>
+      <c r="G328" t="s">
+        <v>42</v>
+      </c>
+      <c r="K328">
+        <v>6.5</v>
+      </c>
+      <c r="L328">
+        <v>5.5</v>
+      </c>
+      <c r="M328">
+        <v>1.285</v>
+      </c>
+      <c r="N328">
+        <v>4.2</v>
+      </c>
+      <c r="O328">
+        <v>4.75</v>
+      </c>
+      <c r="P328">
+        <v>1.5</v>
+      </c>
+      <c r="Q328">
+        <v>1.25</v>
+      </c>
+      <c r="R328">
+        <v>1.825</v>
+      </c>
+      <c r="S328">
+        <v>1.975</v>
+      </c>
+      <c r="T328">
+        <v>3.75</v>
+      </c>
+      <c r="U328">
+        <v>1.925</v>
+      </c>
+      <c r="V328">
+        <v>1.875</v>
+      </c>
+      <c r="W328">
         <v>0</v>
       </c>
-      <c r="X327">
+      <c r="X328">
         <v>0</v>
       </c>
-      <c r="Y327">
+      <c r="Y328">
         <v>0</v>
       </c>
-      <c r="Z327">
+      <c r="Z328">
         <v>0</v>
       </c>
-      <c r="AA327">
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6893773</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45346.47916666666</v>
+      </c>
+      <c r="F329" t="s">
+        <v>33</v>
+      </c>
+      <c r="G329" t="s">
+        <v>39</v>
+      </c>
+      <c r="K329">
+        <v>1.03</v>
+      </c>
+      <c r="L329">
+        <v>13</v>
+      </c>
+      <c r="M329">
+        <v>23</v>
+      </c>
+      <c r="N329">
+        <v>1.125</v>
+      </c>
+      <c r="O329">
+        <v>8</v>
+      </c>
+      <c r="P329">
+        <v>17</v>
+      </c>
+      <c r="Q329">
+        <v>-2.75</v>
+      </c>
+      <c r="R329">
+        <v>1.925</v>
+      </c>
+      <c r="S329">
+        <v>1.875</v>
+      </c>
+      <c r="T329">
+        <v>4.25</v>
+      </c>
+      <c r="U329">
+        <v>2</v>
+      </c>
+      <c r="V329">
+        <v>1.8</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
         <v>0</v>
       </c>
     </row>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -136,13 +136,13 @@
     <t>FC Trkiye Wilhelmsburg</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
+    <t>TSV Buchholz 08</t>
   </si>
   <si>
     <t>Niendorfer TSV</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>TSV Sasel</t>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC329"/>
+  <dimension ref="A1:AC331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5278166</v>
+        <v>5278167</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1634,73 +1634,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
+        <v>1.875</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>3.25</v>
+      </c>
+      <c r="U13">
         <v>1.9</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>1.9</v>
       </c>
-      <c r="T13">
-        <v>3.5</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA13">
+        <v>-0.5</v>
+      </c>
+      <c r="AB13">
+        <v>-1</v>
+      </c>
+      <c r="AC13">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC13">
-        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1797,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5278167</v>
+        <v>5278166</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1812,73 +1812,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="L15">
         <v>4</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1990,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3055,7 +3055,7 @@
         <v>44969.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -3770,7 +3770,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -4301,7 +4301,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4479,7 +4479,7 @@
         <v>44983.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4912,7 +4912,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5278187</v>
+        <v>5278186</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4924,58 +4924,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
       <c r="K50">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4984,13 +4984,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5001,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5278186</v>
+        <v>5278187</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5013,58 +5013,58 @@
         <v>44990.28125</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>53</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O51">
+        <v>4.75</v>
+      </c>
+      <c r="P51">
+        <v>6</v>
+      </c>
+      <c r="Q51">
+        <v>-1.5</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>1.775</v>
+      </c>
+      <c r="T51">
         <v>3.75</v>
       </c>
-      <c r="P51">
-        <v>3.2</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
-      <c r="T51">
-        <v>2.75</v>
-      </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5073,13 +5073,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5535,7 +5535,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5278076</v>
+        <v>5278077</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5547,76 +5547,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K57">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>4</v>
       </c>
       <c r="M57">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N57">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X57">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5624,7 +5624,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5278077</v>
+        <v>5278076</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5636,76 +5636,76 @@
         <v>45004.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L58">
         <v>4</v>
       </c>
       <c r="M58">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O58">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P58">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5725,7 +5725,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
         <v>39</v>
@@ -5814,7 +5814,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -5995,7 +5995,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -6529,7 +6529,7 @@
         <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6618,7 +6618,7 @@
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -6707,7 +6707,7 @@
         <v>47</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -7327,7 +7327,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>38</v>
@@ -7416,7 +7416,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7760,7 +7760,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5284635</v>
+        <v>5285787</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7772,76 +7772,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
         <v>4</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
+        <v>2.5</v>
+      </c>
+      <c r="O82">
         <v>4.2</v>
       </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
       <c r="P82">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T82">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y82">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.35</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7849,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5285787</v>
+        <v>5284635</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7861,76 +7861,76 @@
         <v>45022.60416666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K83">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L83">
         <v>4</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O83">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
+        <v>1.533</v>
+      </c>
+      <c r="Q83">
+        <v>0.75</v>
+      </c>
+      <c r="R83">
         <v>2.1</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>2.05</v>
-      </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.35</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8042,7 +8042,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8309,7 +8309,7 @@
         <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8751,7 +8751,7 @@
         <v>45026.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -9552,7 +9552,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9641,7 +9641,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -10709,10 +10709,10 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F115" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115" t="s">
         <v>42</v>
-      </c>
-      <c r="G115" t="s">
-        <v>40</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11498,7 +11498,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5289670</v>
+        <v>5289598</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11510,76 +11510,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="N124">
         <v>4.333</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P124">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q124">
         <v>1.25</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y124">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5289598</v>
+        <v>5289670</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11599,76 +11599,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="N125">
         <v>4.333</v>
       </c>
       <c r="O125">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
         <v>1.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>4.25</v>
+      </c>
+      <c r="U125">
         <v>1.95</v>
       </c>
-      <c r="T125">
-        <v>3.25</v>
-      </c>
-      <c r="U125">
-        <v>2</v>
-      </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11780,7 +11780,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -12136,7 +12136,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -12492,7 +12492,7 @@
         <v>47</v>
       </c>
       <c r="G135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12744,7 +12744,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5290652</v>
+        <v>5290681</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12756,55 +12756,55 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>54</v>
       </c>
       <c r="K138">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="L138">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N138">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P138">
+        <v>1.166</v>
+      </c>
+      <c r="Q138">
+        <v>2.5</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
         <v>1.95</v>
       </c>
-      <c r="Q138">
-        <v>0.25</v>
-      </c>
-      <c r="R138">
-        <v>1.975</v>
-      </c>
-      <c r="S138">
-        <v>1.825</v>
-      </c>
       <c r="T138">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12813,19 +12813,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.95</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12833,7 +12833,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5290651</v>
+        <v>5290652</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12845,34 +12845,34 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>54</v>
       </c>
       <c r="K139">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N139">
         <v>2.7</v>
       </c>
       <c r="O139">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
         <v>1.95</v>
@@ -12881,19 +12881,19 @@
         <v>0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U139">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12908,13 +12908,13 @@
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12922,7 +12922,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5290650</v>
+        <v>5290651</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12934,73 +12934,73 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K140">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="L140">
         <v>4.5</v>
       </c>
       <c r="M140">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q140">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>3.5</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13011,7 +13011,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5289675</v>
+        <v>5290650</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13023,40 +13023,40 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>4</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q141">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R141">
         <v>1.925</v>
@@ -13065,16 +13065,16 @@
         <v>1.775</v>
       </c>
       <c r="T141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>0.615</v>
+        <v>2.2</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13089,7 +13089,7 @@
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13100,7 +13100,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5289674</v>
+        <v>5289675</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13112,13 +13112,13 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -13130,40 +13130,40 @@
         <v>1.5</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O142">
         <v>4.5</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>0.75</v>
+        <v>0.615</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13172,13 +13172,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13189,7 +13189,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5289673</v>
+        <v>5289674</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13201,76 +13201,76 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="L143">
         <v>5</v>
       </c>
       <c r="M143">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5290681</v>
+        <v>5289673</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13290,16 +13290,16 @@
         <v>45051.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J144" t="s">
         <v>54</v>
@@ -13308,38 +13308,38 @@
         <v>5.5</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M144">
+        <v>1.363</v>
+      </c>
+      <c r="N144">
+        <v>5.75</v>
+      </c>
+      <c r="O144">
+        <v>5.25</v>
+      </c>
+      <c r="P144">
         <v>1.333</v>
       </c>
-      <c r="N144">
-        <v>11</v>
-      </c>
-      <c r="O144">
-        <v>7</v>
-      </c>
-      <c r="P144">
-        <v>1.166</v>
-      </c>
       <c r="Q144">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.925</v>
       </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
       <c r="W144">
         <v>-1</v>
       </c>
@@ -13347,19 +13347,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.1659999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="Z144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.4375</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13827,7 +13827,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -13916,7 +13916,7 @@
         <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -14536,7 +14536,7 @@
         <v>45144.375</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
         <v>48</v>
@@ -14803,7 +14803,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -15251,7 +15251,7 @@
         <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15414,7 +15414,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15426,76 +15426,76 @@
         <v>45151.375</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G168" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N168">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O168">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P168">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15503,7 +15503,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15515,76 +15515,76 @@
         <v>45151.375</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K169">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L169">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M169">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N169">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O169">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P169">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q169">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T169">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16138,7 +16138,7 @@
         <v>45158.375</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16227,7 +16227,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
         <v>48</v>
@@ -16393,7 +16393,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16405,76 +16405,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K179">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
+        <v>4.2</v>
+      </c>
+      <c r="M179">
+        <v>2.3</v>
+      </c>
+      <c r="N179">
+        <v>1.833</v>
+      </c>
+      <c r="O179">
         <v>4.5</v>
       </c>
-      <c r="M179">
-        <v>1.615</v>
-      </c>
-      <c r="N179">
-        <v>2.625</v>
-      </c>
-      <c r="O179">
-        <v>4.2</v>
-      </c>
       <c r="P179">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q179">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16482,7 +16482,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6918249</v>
+        <v>6893670</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16494,76 +16494,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G180" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M180">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N180">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="O180">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q180">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>1.875</v>
+      </c>
+      <c r="T180">
+        <v>3.75</v>
+      </c>
+      <c r="U180">
+        <v>1.85</v>
+      </c>
+      <c r="V180">
         <v>1.95</v>
       </c>
-      <c r="S180">
-        <v>1.85</v>
-      </c>
-      <c r="T180">
-        <v>4.75</v>
-      </c>
-      <c r="U180">
-        <v>1.9</v>
-      </c>
-      <c r="V180">
-        <v>1.9</v>
-      </c>
       <c r="W180">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB180">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6893334</v>
+        <v>6918249</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16583,58 +16583,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>53</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="L181">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M181">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="O181">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P181">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.85</v>
+      </c>
+      <c r="T181">
+        <v>4.75</v>
+      </c>
+      <c r="U181">
         <v>1.9</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.9</v>
       </c>
-      <c r="T181">
-        <v>4.25</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
       <c r="W181">
-        <v>0.833</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16643,13 +16643,13 @@
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>0.95</v>
+      </c>
+      <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16764,7 +16764,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16853,7 +16853,7 @@
         <v>34</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -17740,7 +17740,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
         <v>44</v>
@@ -18084,7 +18084,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18096,76 +18096,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H198">
         <v>3</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K198">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L198">
         <v>4</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O198">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q198">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X198">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18173,7 +18173,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18185,58 +18185,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H199">
         <v>3</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>53</v>
       </c>
       <c r="K199">
+        <v>4.5</v>
+      </c>
+      <c r="L199">
+        <v>4.2</v>
+      </c>
+      <c r="M199">
+        <v>1.533</v>
+      </c>
+      <c r="N199">
+        <v>3.6</v>
+      </c>
+      <c r="O199">
+        <v>4</v>
+      </c>
+      <c r="P199">
+        <v>1.75</v>
+      </c>
+      <c r="Q199">
+        <v>0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
         <v>1.95</v>
       </c>
-      <c r="L199">
-        <v>4</v>
-      </c>
-      <c r="M199">
-        <v>2.875</v>
-      </c>
-      <c r="N199">
-        <v>1.333</v>
-      </c>
-      <c r="O199">
-        <v>4.75</v>
-      </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
-      <c r="Q199">
-        <v>-1.75</v>
-      </c>
-      <c r="R199">
+      <c r="T199">
+        <v>3.75</v>
+      </c>
+      <c r="U199">
+        <v>1.825</v>
+      </c>
+      <c r="V199">
         <v>1.975</v>
       </c>
-      <c r="S199">
-        <v>1.825</v>
-      </c>
-      <c r="T199">
-        <v>4</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>1.95</v>
-      </c>
       <c r="W199">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18245,16 +18245,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18262,7 +18262,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18274,73 +18274,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J200" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K200">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L200">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O200">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P200">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q200">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB200">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC200">
         <v>-1</v>
@@ -18544,7 +18544,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H203">
         <v>3</v>
@@ -18885,7 +18885,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6893687</v>
+        <v>6892996</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18897,76 +18897,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K207">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M207">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="N207">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P207">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
+        <v>1.925</v>
+      </c>
+      <c r="S207">
         <v>1.875</v>
       </c>
-      <c r="S207">
-        <v>1.925</v>
-      </c>
       <c r="T207">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18974,7 +18974,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6893685</v>
+        <v>6893684</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18986,73 +18986,73 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
       </c>
       <c r="K208">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L208">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N208">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O208">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="Q208">
+        <v>0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
+        <v>4</v>
+      </c>
+      <c r="U208">
+        <v>1.75</v>
+      </c>
+      <c r="V208">
+        <v>1.95</v>
+      </c>
+      <c r="W208">
+        <v>2</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.825</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
         <v>0.75</v>
-      </c>
-      <c r="R208">
-        <v>1.95</v>
-      </c>
-      <c r="S208">
-        <v>1.85</v>
-      </c>
-      <c r="T208">
-        <v>3.5</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>1.975</v>
-      </c>
-      <c r="W208">
-        <v>2.4</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.95</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>0.825</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19063,7 +19063,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6893684</v>
+        <v>6893685</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19075,58 +19075,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H209">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>53</v>
       </c>
       <c r="K209">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M209">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O209">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P209">
+        <v>1.666</v>
+      </c>
+      <c r="Q209">
+        <v>0.75</v>
+      </c>
+      <c r="R209">
         <v>1.95</v>
       </c>
-      <c r="Q209">
-        <v>0.5</v>
-      </c>
-      <c r="R209">
+      <c r="S209">
+        <v>1.85</v>
+      </c>
+      <c r="T209">
+        <v>3.5</v>
+      </c>
+      <c r="U209">
         <v>1.825</v>
       </c>
-      <c r="S209">
+      <c r="V209">
         <v>1.975</v>
       </c>
-      <c r="T209">
-        <v>4</v>
-      </c>
-      <c r="U209">
-        <v>1.75</v>
-      </c>
-      <c r="V209">
-        <v>1.95</v>
-      </c>
       <c r="W209">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19135,13 +19135,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
+        <v>0.95</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
         <v>0.825</v>
-      </c>
-      <c r="AA209">
-        <v>-1</v>
-      </c>
-      <c r="AB209">
-        <v>0.75</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19152,7 +19152,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6892996</v>
+        <v>6893687</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19164,76 +19164,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210">
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K210">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L210">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M210">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="N210">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R210">
+        <v>1.875</v>
+      </c>
+      <c r="S210">
         <v>1.925</v>
       </c>
-      <c r="S210">
+      <c r="T210">
+        <v>3.5</v>
+      </c>
+      <c r="U210">
         <v>1.875</v>
       </c>
-      <c r="T210">
-        <v>3.75</v>
-      </c>
-      <c r="U210">
-        <v>1.95</v>
-      </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA210">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19345,7 +19345,7 @@
         <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H212">
         <v>8</v>
@@ -19790,7 +19790,7 @@
         <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -20143,7 +20143,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
         <v>49</v>
@@ -20677,7 +20677,7 @@
         <v>45193.375</v>
       </c>
       <c r="F227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
         <v>46</v>
@@ -21392,7 +21392,7 @@
         <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H235">
         <v>4</v>
@@ -21567,7 +21567,7 @@
         <v>45200.375</v>
       </c>
       <c r="F237" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
         <v>45</v>
@@ -22190,10 +22190,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F244" t="s">
+        <v>42</v>
+      </c>
+      <c r="G244" t="s">
         <v>40</v>
-      </c>
-      <c r="G244" t="s">
-        <v>42</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22638,7 +22638,7 @@
         <v>45</v>
       </c>
       <c r="G249" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H249">
         <v>5</v>
@@ -22902,7 +22902,7 @@
         <v>45214.375</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G252" t="s">
         <v>43</v>
@@ -23350,7 +23350,7 @@
         <v>51</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -23973,7 +23973,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -24240,7 +24240,7 @@
         <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H267">
         <v>2</v>
@@ -25038,7 +25038,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
         <v>39</v>
@@ -25649,7 +25649,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6893738</v>
+        <v>6893737</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25661,76 +25661,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G283" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H283">
         <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K283">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L283">
         <v>5</v>
       </c>
       <c r="M283">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N283">
+        <v>1.65</v>
+      </c>
+      <c r="O283">
+        <v>4.5</v>
+      </c>
+      <c r="P283">
         <v>3.5</v>
       </c>
-      <c r="O283">
-        <v>4.2</v>
-      </c>
-      <c r="P283">
-        <v>1.666</v>
-      </c>
       <c r="Q283">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S283">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T283">
         <v>3.75</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V283">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X283">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
+        <v>0.4125</v>
+      </c>
+      <c r="AA283">
+        <v>-0.5</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
         <v>0.925</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>0.4875</v>
-      </c>
-      <c r="AC283">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25738,7 +25738,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6893737</v>
+        <v>6893738</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25750,76 +25750,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G284" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K284">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L284">
         <v>5</v>
       </c>
       <c r="M284">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N284">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O284">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P284">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q284">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S284">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
         <v>3.75</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA284">
+        <v>-1</v>
+      </c>
+      <c r="AB284">
+        <v>0.4875</v>
+      </c>
+      <c r="AC284">
         <v>-0.5</v>
-      </c>
-      <c r="AB284">
-        <v>-1</v>
-      </c>
-      <c r="AC284">
-        <v>0.925</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25839,7 +25839,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G285" t="s">
         <v>31</v>
@@ -26109,7 +26109,7 @@
         <v>48</v>
       </c>
       <c r="G288" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>1</v>
@@ -27263,7 +27263,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G301" t="s">
         <v>41</v>
@@ -28064,7 +28064,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F310" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G310" t="s">
         <v>33</v>
@@ -28245,7 +28245,7 @@
         <v>44</v>
       </c>
       <c r="G312" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -29310,7 +29310,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F324" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G324" t="s">
         <v>34</v>
@@ -29654,7 +29654,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6918229</v>
+        <v>6893774</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29663,49 +29663,49 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45346.375</v>
+        <v>45347.28125</v>
       </c>
       <c r="F328" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K328">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L328">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M328">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="N328">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O328">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P328">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q328">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S328">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T328">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U328">
+        <v>1.875</v>
+      </c>
+      <c r="V328">
         <v>1.925</v>
-      </c>
-      <c r="V328">
-        <v>1.875</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29728,7 +29728,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6893773</v>
+        <v>6893775</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29737,49 +29737,49 @@
         <v>28</v>
       </c>
       <c r="E329" s="2">
-        <v>45346.47916666666</v>
+        <v>45347.41666666666</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G329" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K329">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="L329">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="M329">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N329">
-        <v>1.125</v>
+        <v>1.285</v>
       </c>
       <c r="O329">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="P329">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q329">
-        <v>-2.75</v>
+        <v>-2</v>
       </c>
       <c r="R329">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T329">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U329">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29794,6 +29794,154 @@
         <v>0</v>
       </c>
       <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6893771</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F330" t="s">
+        <v>48</v>
+      </c>
+      <c r="G330" t="s">
+        <v>31</v>
+      </c>
+      <c r="K330">
+        <v>1.95</v>
+      </c>
+      <c r="L330">
+        <v>4.333</v>
+      </c>
+      <c r="M330">
+        <v>2.7</v>
+      </c>
+      <c r="N330">
+        <v>1.533</v>
+      </c>
+      <c r="O330">
+        <v>5</v>
+      </c>
+      <c r="P330">
+        <v>3.8</v>
+      </c>
+      <c r="Q330">
+        <v>-1</v>
+      </c>
+      <c r="R330">
+        <v>1.925</v>
+      </c>
+      <c r="S330">
+        <v>1.875</v>
+      </c>
+      <c r="T330">
+        <v>3.25</v>
+      </c>
+      <c r="U330">
+        <v>2</v>
+      </c>
+      <c r="V330">
+        <v>1.8</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>6893012</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45347.41666666666</v>
+      </c>
+      <c r="F331" t="s">
+        <v>46</v>
+      </c>
+      <c r="G331" t="s">
+        <v>38</v>
+      </c>
+      <c r="K331">
+        <v>5</v>
+      </c>
+      <c r="L331">
+        <v>5</v>
+      </c>
+      <c r="M331">
+        <v>1.4</v>
+      </c>
+      <c r="N331">
+        <v>4.2</v>
+      </c>
+      <c r="O331">
+        <v>5</v>
+      </c>
+      <c r="P331">
+        <v>1.5</v>
+      </c>
+      <c r="Q331">
+        <v>1.25</v>
+      </c>
+      <c r="R331">
+        <v>1.825</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
+        <v>3.5</v>
+      </c>
+      <c r="U331">
+        <v>1.775</v>
+      </c>
+      <c r="V331">
+        <v>2.025</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
         <v>0</v>
       </c>
     </row>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -28586,7 +28586,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28598,13 +28598,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F316" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -28613,43 +28613,43 @@
         <v>53</v>
       </c>
       <c r="K316">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L316">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M316">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N316">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O316">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P316">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q316">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R316">
+        <v>1.95</v>
+      </c>
+      <c r="S316">
+        <v>1.85</v>
+      </c>
+      <c r="T316">
+        <v>4.25</v>
+      </c>
+      <c r="U316">
+        <v>1.975</v>
+      </c>
+      <c r="V316">
         <v>1.825</v>
       </c>
-      <c r="S316">
-        <v>1.975</v>
-      </c>
-      <c r="T316">
-        <v>3.75</v>
-      </c>
-      <c r="U316">
-        <v>1.925</v>
-      </c>
-      <c r="V316">
-        <v>1.875</v>
-      </c>
       <c r="W316">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X316">
         <v>-1</v>
@@ -28658,16 +28658,16 @@
         <v>-1</v>
       </c>
       <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB316">
+        <v>-1</v>
+      </c>
+      <c r="AC316">
         <v>0.825</v>
-      </c>
-      <c r="AA316">
-        <v>-1</v>
-      </c>
-      <c r="AB316">
-        <v>-1</v>
-      </c>
-      <c r="AC316">
-        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28675,7 +28675,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28687,13 +28687,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G317" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -28702,43 +28702,43 @@
         <v>53</v>
       </c>
       <c r="K317">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L317">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M317">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N317">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O317">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P317">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q317">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T317">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X317">
         <v>-1</v>
@@ -28747,16 +28747,16 @@
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA317">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
         <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="318" spans="1:29">

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -145,10 +145,10 @@
     <t>TSV Buchholz 08</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
+    <t>TSV Sasel</t>
   </si>
   <si>
-    <t>TSV Sasel</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893654</v>
+        <v>6893655</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,58 +1705,58 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
         <v>1.925</v>
       </c>
-      <c r="S14">
-        <v>1.875</v>
-      </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1765,16 +1765,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893655</v>
+        <v>6893654</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,58 +1794,58 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
         <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L15">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O15">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
         <v>1.875</v>
       </c>
-      <c r="S15">
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>1.875</v>
+      </c>
+      <c r="V15">
         <v>1.925</v>
       </c>
-      <c r="T15">
-        <v>3.75</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1854,16 +1854,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0.925</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
         <v>0.875</v>
       </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>1.444</v>
+      </c>
+      <c r="L17">
+        <v>4.5</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>1.1</v>
-      </c>
       <c r="N17">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.1</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>1.083</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>1.444</v>
-      </c>
-      <c r="L18">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
         <v>4.5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.25</v>
-      </c>
-      <c r="O18">
-        <v>5.5</v>
-      </c>
-      <c r="P18">
-        <v>7.5</v>
-      </c>
-      <c r="Q18">
-        <v>-2</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
         <v>1.875</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.925</v>
       </c>
-      <c r="T18">
-        <v>4.25</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
         <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>2.1</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6892992</v>
+        <v>6893659</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45151.375</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45151.375</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q26">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893667</v>
+        <v>6893288</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3307,76 +3307,76 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
+        <v>2.1</v>
+      </c>
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="L32">
-        <v>4.2</v>
-      </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N32">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O32">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
+        <v>0.25</v>
+      </c>
+      <c r="R32">
+        <v>1.8</v>
+      </c>
+      <c r="S32">
         <v>2</v>
       </c>
-      <c r="R32">
-        <v>1.825</v>
-      </c>
-      <c r="S32">
-        <v>1.975</v>
-      </c>
       <c r="T32">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U32">
+        <v>1.85</v>
+      </c>
+      <c r="V32">
         <v>1.95</v>
       </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893288</v>
+        <v>6893667</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3396,76 +3396,76 @@
         <v>45158.375</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4.2</v>
+      </c>
+      <c r="M33">
+        <v>1.6</v>
+      </c>
+      <c r="N33">
+        <v>7.5</v>
+      </c>
+      <c r="O33">
+        <v>5.75</v>
+      </c>
+      <c r="P33">
+        <v>1.285</v>
+      </c>
+      <c r="Q33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33">
-        <v>2.1</v>
-      </c>
-      <c r="L33">
+      <c r="R33">
+        <v>1.825</v>
+      </c>
+      <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
         <v>4</v>
       </c>
-      <c r="M33">
-        <v>2.6</v>
-      </c>
-      <c r="N33">
-        <v>2.5</v>
-      </c>
-      <c r="O33">
-        <v>4</v>
-      </c>
-      <c r="P33">
-        <v>2.15</v>
-      </c>
-      <c r="Q33">
-        <v>0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.8</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
-      </c>
-      <c r="T33">
-        <v>3.75</v>
-      </c>
       <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="V33">
-        <v>1.95</v>
-      </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3574,7 +3574,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L37">
+        <v>4.2</v>
+      </c>
+      <c r="M37">
+        <v>2.3</v>
+      </c>
+      <c r="N37">
+        <v>1.833</v>
+      </c>
+      <c r="O37">
         <v>4.5</v>
       </c>
-      <c r="M37">
-        <v>1.615</v>
-      </c>
-      <c r="N37">
-        <v>2.625</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
       <c r="P37">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
+        <v>4.5</v>
+      </c>
+      <c r="M38">
+        <v>1.615</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
         <v>4.2</v>
       </c>
-      <c r="M38">
-        <v>2.3</v>
-      </c>
-      <c r="N38">
-        <v>1.833</v>
-      </c>
-      <c r="O38">
-        <v>4.5</v>
-      </c>
       <c r="P38">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q38">
+        <v>0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
+        <v>1.875</v>
+      </c>
+      <c r="T38">
+        <v>3.75</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.875</v>
+      </c>
+      <c r="AB38">
+        <v>0.425</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>1.9</v>
-      </c>
-      <c r="T38">
-        <v>4.25</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>0.833</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,76 +4197,76 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>4.2</v>
+      </c>
+      <c r="M42">
+        <v>2.5</v>
+      </c>
+      <c r="N42">
+        <v>2.1</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>2.5</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>3.5</v>
+      </c>
+      <c r="U42">
+        <v>1.9</v>
+      </c>
+      <c r="V42">
+        <v>1.9</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>1.5</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>1.5</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-      <c r="Q42">
-        <v>-1</v>
-      </c>
-      <c r="R42">
-        <v>1.75</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.775</v>
-      </c>
-      <c r="W42">
-        <v>0.5</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6892994</v>
+        <v>6893674</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,55 +4286,55 @@
         <v>45165.375</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R43">
+        <v>1.875</v>
+      </c>
+      <c r="S43">
         <v>1.925</v>
-      </c>
-      <c r="S43">
-        <v>1.875</v>
       </c>
       <c r="T43">
         <v>3.5</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4343,19 +4343,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6893674</v>
+        <v>6893673</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45165.375</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44">
+        <v>1.5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>1.5</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
+        <v>1.75</v>
+      </c>
+      <c r="S44">
+        <v>1.95</v>
+      </c>
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
+        <v>1.775</v>
+      </c>
+      <c r="W44">
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K44">
-        <v>2.8</v>
-      </c>
-      <c r="L44">
-        <v>4.333</v>
-      </c>
-      <c r="M44">
-        <v>1.909</v>
-      </c>
-      <c r="N44">
-        <v>2.25</v>
-      </c>
-      <c r="O44">
-        <v>4.333</v>
-      </c>
-      <c r="P44">
-        <v>2.3</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1.875</v>
-      </c>
-      <c r="S44">
-        <v>1.925</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.975</v>
-      </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>-1</v>
-      </c>
-      <c r="Y44">
-        <v>1.3</v>
-      </c>
-      <c r="Z44">
-        <v>-1</v>
-      </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6893678</v>
+        <v>6893677</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,73 +5001,73 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>2.1</v>
+      </c>
+      <c r="O51">
         <v>4.2</v>
       </c>
-      <c r="M51">
-        <v>1.8</v>
-      </c>
-      <c r="N51">
-        <v>4.333</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6893677</v>
+        <v>6893678</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
+        <v>4.2</v>
+      </c>
+      <c r="M52">
+        <v>1.8</v>
+      </c>
+      <c r="N52">
         <v>4.333</v>
       </c>
-      <c r="M52">
-        <v>3</v>
-      </c>
-      <c r="N52">
-        <v>2.1</v>
-      </c>
       <c r="O52">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
+        <v>0.95</v>
+      </c>
+      <c r="AB52">
         <v>-0.5</v>
       </c>
-      <c r="AA52">
-        <v>0.4125</v>
-      </c>
-      <c r="AB52">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,73 +5354,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L55">
+        <v>4.2</v>
+      </c>
+      <c r="M55">
+        <v>1.533</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>3.1</v>
-      </c>
-      <c r="N55">
-        <v>1.363</v>
-      </c>
-      <c r="O55">
-        <v>5.25</v>
-      </c>
       <c r="P55">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X55">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6893679</v>
+        <v>6893291</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,76 +5443,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L56">
         <v>4</v>
       </c>
       <c r="M56">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893680</v>
+        <v>6893679</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,58 +5532,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
+        <v>4.75</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>-1.75</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>1.75</v>
-      </c>
-      <c r="Q57">
-        <v>0.75</v>
-      </c>
-      <c r="R57">
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>3.75</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>2.6</v>
+        <v>0.333</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5802,7 +5802,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6893685</v>
+        <v>6893687</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,76 +6155,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="N64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
         <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T64">
         <v>3.5</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6892996</v>
+        <v>6893685</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6259,43 +6259,43 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>2.4</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6893687</v>
+        <v>6892996</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
         <v>1.875</v>
       </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
       <c r="T67">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X67">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>45182.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893689</v>
+        <v>6893690</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q70">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893690</v>
+        <v>6893689</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,40 +6778,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P71">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,34 +6820,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M84">
         <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
         <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,16 +8084,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
         <v>42</v>
@@ -9537,7 +9537,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
         <v>40</v>
@@ -9896,7 +9896,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L124">
         <v>5.5</v>
       </c>
       <c r="M124">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11537,34 +11537,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
         <v>5.5</v>
       </c>
       <c r="M125">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,34 +11626,34 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12296,7 +12296,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12385,7 +12385,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>41</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,73 +13008,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P141">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC141">
         <v>-0.5</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893740</v>
+        <v>6893738</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
         <v>-0.5</v>
@@ -13186,7 +13186,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,76 +13364,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N145">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q145">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13456,7 +13456,7 @@
         <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X147">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
@@ -14699,7 +14699,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,40 +14966,40 @@
         <v>45325.375</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M163">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N163">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P163">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q163">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R163">
         <v>1.95</v>
@@ -15008,13 +15008,13 @@
         <v>1.85</v>
       </c>
       <c r="T163">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15032,10 +15032,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,40 +15055,40 @@
         <v>45325.375</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L164">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O164">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q164">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -15097,13 +15097,13 @@
         <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15112,7 +15112,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15121,10 +15121,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,56 +15233,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N166">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O166">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q166">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R166">
+        <v>1.775</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
+        <v>1.75</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
-      <c r="T166">
-        <v>4.5</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,55 +15322,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L167">
+        <v>11</v>
+      </c>
+      <c r="M167">
+        <v>1.062</v>
+      </c>
+      <c r="N167">
+        <v>23</v>
+      </c>
+      <c r="O167">
+        <v>13</v>
+      </c>
+      <c r="P167">
+        <v>1.062</v>
+      </c>
+      <c r="Q167">
+        <v>3.25</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>1.85</v>
+      </c>
+      <c r="T167">
         <v>4.5</v>
       </c>
-      <c r="M167">
-        <v>1.727</v>
-      </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>4.5</v>
-      </c>
-      <c r="P167">
-        <v>1.615</v>
-      </c>
-      <c r="Q167">
-        <v>1</v>
-      </c>
-      <c r="R167">
-        <v>1.775</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15411,7 +15411,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15592,7 +15592,7 @@
         <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16568,7 +16568,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -17105,7 +17105,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6893012</v>
+        <v>6893771</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N188">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,13 +17251,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893771</v>
+        <v>6893012</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,13 +17340,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
+        <v>2.8</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
         <v>3.5</v>
       </c>
-      <c r="Q20">
-        <v>-0.75</v>
-      </c>
-      <c r="R20">
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>1.727</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>3.5</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
         <v>1.95</v>
       </c>
-      <c r="O22">
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>2.8</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45151.375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q25">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45151.375</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L26">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,73 +3485,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
         <v>4.2</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,73 +3574,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L35">
         <v>4.2</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
+        <v>4.5</v>
+      </c>
+      <c r="M37">
+        <v>1.615</v>
+      </c>
+      <c r="N37">
+        <v>2.625</v>
+      </c>
+      <c r="O37">
         <v>4.2</v>
       </c>
-      <c r="M37">
-        <v>2.3</v>
-      </c>
-      <c r="N37">
-        <v>1.833</v>
-      </c>
-      <c r="O37">
-        <v>4.5</v>
-      </c>
       <c r="P37">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q37">
+        <v>0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.875</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
+        <v>1.95</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>0.875</v>
+      </c>
+      <c r="AB37">
+        <v>0.425</v>
+      </c>
+      <c r="AC37">
         <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>1.9</v>
-      </c>
-      <c r="S37">
-        <v>1.9</v>
-      </c>
-      <c r="T37">
-        <v>4.25</v>
-      </c>
-      <c r="U37">
-        <v>1.975</v>
-      </c>
-      <c r="V37">
-        <v>1.825</v>
-      </c>
-      <c r="W37">
-        <v>0.833</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L38">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O38">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893680</v>
+        <v>6893679</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,58 +5354,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
       </c>
       <c r="K55">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55">
+        <v>-1.75</v>
+      </c>
+      <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>4</v>
       </c>
-      <c r="P55">
-        <v>1.75</v>
-      </c>
-      <c r="Q55">
-        <v>0.75</v>
-      </c>
-      <c r="R55">
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.75</v>
-      </c>
-      <c r="U55">
-        <v>1.825</v>
-      </c>
-      <c r="V55">
-        <v>1.975</v>
-      </c>
       <c r="W55">
-        <v>2.6</v>
+        <v>0.333</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5414,16 +5414,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,58 +5532,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
+        <v>4.5</v>
+      </c>
+      <c r="L57">
+        <v>4.2</v>
+      </c>
+      <c r="M57">
+        <v>1.533</v>
+      </c>
+      <c r="N57">
+        <v>3.6</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>1.75</v>
+      </c>
+      <c r="Q57">
+        <v>0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
       </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>2.875</v>
-      </c>
-      <c r="N57">
-        <v>1.333</v>
-      </c>
-      <c r="O57">
-        <v>4.75</v>
-      </c>
-      <c r="P57">
-        <v>6</v>
-      </c>
-      <c r="Q57">
-        <v>-1.75</v>
-      </c>
-      <c r="R57">
+      <c r="T57">
+        <v>3.75</v>
+      </c>
+      <c r="U57">
+        <v>1.825</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>1.825</v>
-      </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893337</v>
+        <v>6893683</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45179.375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6893683</v>
+        <v>6893337</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45179.375</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O62">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6893687</v>
+        <v>6893685</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,76 +6155,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q64">
         <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>3.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6893685</v>
+        <v>6893684</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,73 +6244,73 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="Q65">
+        <v>0.5</v>
+      </c>
+      <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
+        <v>1.975</v>
+      </c>
+      <c r="T65">
+        <v>4</v>
+      </c>
+      <c r="U65">
+        <v>1.75</v>
+      </c>
+      <c r="V65">
+        <v>1.95</v>
+      </c>
+      <c r="W65">
+        <v>2</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
+        <v>-1</v>
+      </c>
+      <c r="Z65">
+        <v>0.825</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.75</v>
-      </c>
-      <c r="R65">
-        <v>1.95</v>
-      </c>
-      <c r="S65">
-        <v>1.85</v>
-      </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
-      <c r="W65">
-        <v>2.4</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>-1</v>
-      </c>
-      <c r="Z65">
-        <v>0.95</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6893684</v>
+        <v>6892996</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,58 +6333,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
       </c>
       <c r="K66">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
+        <v>4.75</v>
+      </c>
+      <c r="Q66">
+        <v>-1.25</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
+        <v>3.75</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.825</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>4</v>
-      </c>
-      <c r="U66">
-        <v>1.75</v>
-      </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,16 +6393,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6892996</v>
+        <v>6893687</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L67">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="N67">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
         <v>1.925</v>
       </c>
-      <c r="S67">
+      <c r="T67">
+        <v>3.5</v>
+      </c>
+      <c r="U67">
         <v>1.875</v>
       </c>
-      <c r="T67">
-        <v>3.75</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893691</v>
+        <v>6893689</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,13 +6600,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6615,25 +6615,25 @@
         <v>48</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,16 +6642,16 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6666,10 +6666,10 @@
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC69">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70">
-        <v>4.2</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>1.533</v>
-      </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893689</v>
+        <v>6893690</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,40 +6778,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P71">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q71">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,34 +6820,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45186.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1.333</v>
+      </c>
+      <c r="N76">
         <v>4.5</v>
       </c>
-      <c r="M76">
-        <v>1.533</v>
-      </c>
-      <c r="N76">
-        <v>4.333</v>
-      </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3.75</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45186.375</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N77">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P92">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC92">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45200.375</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
         <v>4.2</v>
       </c>
       <c r="M94">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
+        <v>4.333</v>
+      </c>
+      <c r="P94">
         <v>4.5</v>
       </c>
-      <c r="P94">
-        <v>1.4</v>
-      </c>
       <c r="Q94">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45200.375</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L95">
         <v>4.2</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,58 +9448,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>3.5</v>
+      </c>
+      <c r="U101">
+        <v>1.925</v>
+      </c>
+      <c r="V101">
         <v>1.875</v>
       </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>4.25</v>
-      </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.875</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,58 +9537,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,7 +9597,7 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9606,7 +9606,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893300</v>
+        <v>6893726</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,55 +11050,55 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
         <v>1.909</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q119">
         <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
         <v>0.909</v>
@@ -11110,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M120">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>3.75</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893727</v>
+        <v>6893300</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L124">
         <v>5.5</v>
       </c>
       <c r="M124">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O124">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11537,34 +11537,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
         <v>5.5</v>
       </c>
       <c r="M125">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,34 +11626,34 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,58 +12029,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>3.75</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="S130">
-        <v>1.85</v>
-      </c>
-      <c r="T130">
-        <v>3.5</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
       <c r="W130">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.95</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,58 +12118,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,7 +12178,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12187,7 +12187,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,13 +12207,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12222,61 +12222,61 @@
         <v>49</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
+        <v>2.9</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
         <v>2</v>
       </c>
-      <c r="Q132">
-        <v>0.25</v>
-      </c>
-      <c r="R132">
+      <c r="T132">
+        <v>4</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>3.75</v>
-      </c>
-      <c r="U132">
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>1.9</v>
       </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>1</v>
       </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,13 +12296,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -12311,40 +12311,40 @@
         <v>49</v>
       </c>
       <c r="K133">
+        <v>2.3</v>
+      </c>
+      <c r="L133">
+        <v>4.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>2.625</v>
+      </c>
+      <c r="O133">
+        <v>4.2</v>
+      </c>
+      <c r="P133">
+        <v>2</v>
+      </c>
+      <c r="Q133">
+        <v>0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
       </c>
-      <c r="L133">
-        <v>4</v>
-      </c>
-      <c r="M133">
-        <v>3.1</v>
-      </c>
-      <c r="N133">
-        <v>1.95</v>
-      </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
-      <c r="P133">
-        <v>2.9</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.8</v>
-      </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
       <c r="T133">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12353,19 +12353,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
         <v>1.825</v>
-      </c>
-      <c r="S140">
-        <v>1.975</v>
       </c>
       <c r="T140">
         <v>3.75</v>
       </c>
       <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
         <v>1.875</v>
       </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.825</v>
+      </c>
+      <c r="AB140">
+        <v>0.4625</v>
+      </c>
+      <c r="AC140">
         <v>-0.5</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
-      <c r="AC140">
-        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893740</v>
+        <v>6893738</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,73 +13008,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O141">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC141">
         <v>-0.5</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893738</v>
+        <v>6893737</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
         <v>5</v>
       </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N142">
+        <v>1.65</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
         <v>3.5</v>
       </c>
-      <c r="O142">
-        <v>4.2</v>
-      </c>
-      <c r="P142">
-        <v>1.666</v>
-      </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0.4125</v>
+      </c>
+      <c r="AA142">
+        <v>-0.5</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.925</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>0.4875</v>
-      </c>
-      <c r="AC142">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6893369</v>
+        <v>6893741</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,10 +13364,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13379,61 +13379,61 @@
         <v>50</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>4.75</v>
+      </c>
+      <c r="U146">
         <v>1.875</v>
       </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
+      <c r="V146">
         <v>1.825</v>
       </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -139,16 +139,16 @@
     <t>Uhlenhorster SC Paloma</t>
   </si>
   <si>
+    <t>TSV Buchholz 08</t>
+  </si>
+  <si>
     <t>FC Alsterbruder</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>TSV Sasel</t>
-  </si>
-  <si>
-    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC189"/>
+  <dimension ref="A1:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893655</v>
+        <v>6893654</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,58 +1705,58 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
+        <v>1.925</v>
+      </c>
+      <c r="S14">
         <v>1.875</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>1.875</v>
+      </c>
+      <c r="V14">
         <v>1.925</v>
       </c>
-      <c r="T14">
-        <v>3.75</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.85</v>
-      </c>
       <c r="W14">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1765,16 +1765,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.925</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.875</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1809,25 +1809,25 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
+        <v>2.3</v>
+      </c>
+      <c r="N15">
+        <v>3.4</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="N15">
-        <v>1.333</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
       <c r="P15">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
         <v>1.925</v>
@@ -1836,7 +1836,7 @@
         <v>1.875</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1845,7 +1845,7 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6893332</v>
+        <v>6893655</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,55 +1886,55 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
         <v>1.925</v>
       </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>2.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1943,16 +1943,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>1.1</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>1.083</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
-        <v>1.444</v>
-      </c>
-      <c r="L17">
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
         <v>4.5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.25</v>
-      </c>
-      <c r="O17">
-        <v>5.5</v>
-      </c>
-      <c r="P17">
-        <v>7.5</v>
-      </c>
-      <c r="Q17">
-        <v>-2</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.875</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="T17">
-        <v>4.25</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>1.444</v>
+      </c>
+      <c r="L18">
+        <v>4.5</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
       <c r="N18">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
+        <v>1.727</v>
+      </c>
+      <c r="O20">
+        <v>4.2</v>
+      </c>
+      <c r="P20">
+        <v>3.5</v>
+      </c>
+      <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
         <v>1.95</v>
       </c>
-      <c r="O20">
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
         <v>4</v>
       </c>
-      <c r="P20">
-        <v>2.8</v>
-      </c>
-      <c r="Q20">
-        <v>-0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>3.5</v>
-      </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P22">
+        <v>2.8</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>3.5</v>
       </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3307,7 +3307,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3396,7 +3396,7 @@
         <v>45158.375</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -3485,7 +3485,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6893334</v>
+        <v>6918249</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
+        <v>1.85</v>
+      </c>
+      <c r="T36">
+        <v>4.75</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="T36">
-        <v>4.25</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
       <c r="W36">
-        <v>0.833</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>0.95</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3755,7 +3755,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,58 +3841,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
       <c r="K38">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N38">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O38">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P38">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3901,13 +3901,13 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6892994</v>
+        <v>6893674</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,55 +4197,55 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>49</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>1.875</v>
+      </c>
+      <c r="S42">
         <v>1.925</v>
-      </c>
-      <c r="S42">
-        <v>1.875</v>
       </c>
       <c r="T42">
         <v>3.5</v>
       </c>
       <c r="U42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
         <v>-1</v>
@@ -4254,19 +4254,19 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6893674</v>
+        <v>6892994</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,55 +4286,55 @@
         <v>45165.375</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>49</v>
       </c>
       <c r="K43">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N43">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>1.925</v>
+      </c>
+      <c r="S43">
         <v>1.875</v>
-      </c>
-      <c r="S43">
-        <v>1.925</v>
       </c>
       <c r="T43">
         <v>3.5</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4343,19 +4343,19 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4378,7 +4378,7 @@
         <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>45172.375</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -4998,7 +4998,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,73 +5443,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L56">
+        <v>4.2</v>
+      </c>
+      <c r="M56">
+        <v>1.533</v>
+      </c>
+      <c r="N56">
+        <v>3.6</v>
+      </c>
+      <c r="O56">
         <v>4</v>
       </c>
-      <c r="M56">
-        <v>3.1</v>
-      </c>
-      <c r="N56">
-        <v>1.363</v>
-      </c>
-      <c r="O56">
-        <v>5.25</v>
-      </c>
       <c r="P56">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X56">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,73 +5532,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P57">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5713,7 +5713,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5802,7 +5802,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893683</v>
+        <v>6893337</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45179.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y61">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6893337</v>
+        <v>6893683</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45179.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.825</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,13 +6155,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6170,43 +6170,43 @@
         <v>48</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L64">
+        <v>4.75</v>
+      </c>
+      <c r="M64">
         <v>4.5</v>
       </c>
-      <c r="M64">
-        <v>1.666</v>
-      </c>
       <c r="N64">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
+        <v>1.875</v>
+      </c>
+      <c r="T64">
+        <v>3.75</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="T64">
-        <v>3.5</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
       <c r="W64">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6893684</v>
+        <v>6893685</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P65">
+        <v>1.666</v>
+      </c>
+      <c r="Q65">
+        <v>0.75</v>
+      </c>
+      <c r="R65">
         <v>1.95</v>
       </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
+      <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
+        <v>3.5</v>
+      </c>
+      <c r="U65">
         <v>1.825</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>1.75</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,13 +6304,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0.95</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.825</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.75</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6892996</v>
+        <v>6893687</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,76 +6333,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K66">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
         <v>1.925</v>
       </c>
-      <c r="S66">
+      <c r="T66">
+        <v>3.5</v>
+      </c>
+      <c r="U66">
         <v>1.875</v>
       </c>
-      <c r="T66">
-        <v>3.75</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6893687</v>
+        <v>6893684</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O67">
+        <v>4.2</v>
+      </c>
+      <c r="P67">
+        <v>1.95</v>
+      </c>
+      <c r="Q67">
+        <v>0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
         <v>4</v>
       </c>
-      <c r="P67">
-        <v>1.7</v>
-      </c>
-      <c r="Q67">
+      <c r="U67">
+        <v>1.75</v>
+      </c>
+      <c r="V67">
+        <v>1.95</v>
+      </c>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
+        <v>0.825</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>0.75</v>
       </c>
-      <c r="R67">
-        <v>1.875</v>
-      </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>3.5</v>
-      </c>
-      <c r="U67">
-        <v>1.875</v>
-      </c>
-      <c r="V67">
-        <v>1.925</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>3</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>0.875</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>45182.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6603,7 +6603,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>8</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893691</v>
+        <v>6893690</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,40 +6778,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
+      <c r="J71" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71">
+        <v>1.909</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
         <v>3</v>
       </c>
-      <c r="J71" t="s">
-        <v>49</v>
-      </c>
-      <c r="K71">
-        <v>4.2</v>
-      </c>
-      <c r="L71">
-        <v>4.5</v>
-      </c>
-      <c r="M71">
-        <v>1.533</v>
-      </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,34 +6820,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7048,7 +7048,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7137,7 +7137,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45186.375</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N76">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45186.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L77">
+        <v>5.5</v>
+      </c>
+      <c r="M77">
+        <v>1.333</v>
+      </c>
+      <c r="N77">
         <v>4.5</v>
       </c>
-      <c r="M77">
-        <v>1.533</v>
-      </c>
-      <c r="N77">
-        <v>4.333</v>
-      </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>3.75</v>
+      </c>
+      <c r="U77">
         <v>1.875</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.925</v>
       </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.975</v>
-      </c>
-      <c r="V77">
-        <v>1.825</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7846,7 +7846,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -7935,7 +7935,7 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>45</v>
@@ -8113,7 +8113,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8294,7 +8294,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>6</v>
@@ -8383,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45200.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L94">
         <v>4.2</v>
       </c>
       <c r="M94">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45200.375</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
         <v>4.2</v>
       </c>
       <c r="M95">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
         <v>4.5</v>
       </c>
-      <c r="P95">
-        <v>1.4</v>
-      </c>
       <c r="Q95">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9537,10 +9537,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,10 +10160,10 @@
         <v>45214.375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10786,7 +10786,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893726</v>
+        <v>6893300</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,55 +11050,55 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N119">
         <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
         <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
         <v>0.909</v>
@@ -11110,16 +11110,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893300</v>
+        <v>6893726</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,55 +11228,55 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
         <v>1.909</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
         <v>0.909</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>45</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11584,10 +11584,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12207,7 +12207,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12385,10 +12385,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>7</v>
@@ -12919,7 +12919,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
         <v>35</v>
@@ -13097,7 +13097,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
         <v>45</v>
@@ -13186,7 +13186,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13367,7 +13367,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13545,7 +13545,7 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7572547</v>
+        <v>7572546</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K158">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="L158">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N158">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q158">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7572546</v>
+        <v>7572547</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K159">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N159">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="O159">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P159">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R159">
+        <v>1.925</v>
+      </c>
+      <c r="S159">
+        <v>1.875</v>
+      </c>
+      <c r="T159">
+        <v>4.25</v>
+      </c>
+      <c r="U159">
         <v>1.95</v>
       </c>
-      <c r="S159">
+      <c r="V159">
         <v>1.85</v>
       </c>
-      <c r="T159">
-        <v>3.75</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
-      <c r="V159">
-        <v>1.8</v>
-      </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z159">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA159">
+        <v>-1</v>
+      </c>
+      <c r="AB159">
         <v>-0.5</v>
       </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14699,7 +14699,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,55 +15233,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L166">
+        <v>11</v>
+      </c>
+      <c r="M166">
+        <v>1.062</v>
+      </c>
+      <c r="N166">
+        <v>23</v>
+      </c>
+      <c r="O166">
+        <v>13</v>
+      </c>
+      <c r="P166">
+        <v>1.062</v>
+      </c>
+      <c r="Q166">
+        <v>3.25</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>1.85</v>
+      </c>
+      <c r="T166">
         <v>4.5</v>
       </c>
-      <c r="M166">
-        <v>1.727</v>
-      </c>
-      <c r="N166">
-        <v>3.8</v>
-      </c>
-      <c r="O166">
-        <v>4.5</v>
-      </c>
-      <c r="P166">
-        <v>1.615</v>
-      </c>
-      <c r="Q166">
-        <v>1</v>
-      </c>
-      <c r="R166">
-        <v>1.775</v>
-      </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>3.75</v>
-      </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,56 +15322,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L167">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N167">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q167">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
+        <v>1.775</v>
+      </c>
+      <c r="S167">
+        <v>1.925</v>
+      </c>
+      <c r="T167">
+        <v>3.75</v>
+      </c>
+      <c r="U167">
+        <v>1.75</v>
+      </c>
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
-      <c r="T167">
-        <v>4.5</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
         <v>-1</v>
       </c>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15411,7 +15411,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X169">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M170">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N170">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,13 +15856,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15871,43 +15871,43 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L173">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,13 +15945,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15960,43 +15960,43 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L174">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N174">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
+        <v>1.85</v>
+      </c>
+      <c r="T174">
+        <v>4.25</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="S174">
-        <v>1.975</v>
-      </c>
-      <c r="T174">
-        <v>3.75</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.875</v>
-      </c>
       <c r="W174">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.825</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
-      <c r="AC174">
-        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16568,7 +16568,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -16657,7 +16657,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6893772</v>
+        <v>6893376</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>49</v>
+      </c>
+      <c r="K183">
+        <v>1.6</v>
+      </c>
+      <c r="L183">
+        <v>4.2</v>
+      </c>
+      <c r="M183">
         <v>4</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-      <c r="J183" t="s">
-        <v>48</v>
-      </c>
-      <c r="K183">
-        <v>1.909</v>
-      </c>
-      <c r="L183">
-        <v>4</v>
-      </c>
-      <c r="M183">
-        <v>3</v>
-      </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>4.25</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.875</v>
+      </c>
+      <c r="AB183">
         <v>0.825</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
-      <c r="AB183">
-        <v>0.95</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6893376</v>
+        <v>6893772</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>48</v>
+      </c>
+      <c r="K184">
+        <v>1.909</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
         <v>3</v>
       </c>
-      <c r="J184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K184">
-        <v>1.6</v>
-      </c>
-      <c r="L184">
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
         <v>4.2</v>
       </c>
-      <c r="M184">
-        <v>4</v>
-      </c>
-      <c r="N184">
-        <v>1.533</v>
-      </c>
-      <c r="O184">
-        <v>4.333</v>
-      </c>
       <c r="P184">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
         <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16927,7 +16927,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17105,7 +17105,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6893771</v>
+        <v>6893012</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N188">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P188">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,13 +17251,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893012</v>
+        <v>6893771</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,76 +17280,461 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
+        <v>1.95</v>
+      </c>
+      <c r="L189">
+        <v>4.333</v>
+      </c>
+      <c r="M189">
+        <v>2.7</v>
+      </c>
+      <c r="N189">
+        <v>1.666</v>
+      </c>
+      <c r="O189">
+        <v>4.5</v>
+      </c>
+      <c r="P189">
+        <v>3.3</v>
+      </c>
+      <c r="Q189">
+        <v>-0.75</v>
+      </c>
+      <c r="R189">
+        <v>1.925</v>
+      </c>
+      <c r="S189">
+        <v>1.875</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.75</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>0.925</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0.75</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6893776</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45352.64583333334</v>
+      </c>
+      <c r="F190" t="s">
+        <v>35</v>
+      </c>
+      <c r="G190" t="s">
+        <v>32</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190" t="s">
+        <v>49</v>
+      </c>
+      <c r="K190">
+        <v>4.75</v>
+      </c>
+      <c r="L190">
+        <v>4.75</v>
+      </c>
+      <c r="M190">
+        <v>1.444</v>
+      </c>
+      <c r="N190">
+        <v>4.333</v>
+      </c>
+      <c r="O190">
+        <v>4.75</v>
+      </c>
+      <c r="P190">
+        <v>1.5</v>
+      </c>
+      <c r="Q190">
+        <v>1.25</v>
+      </c>
+      <c r="R190">
+        <v>1.75</v>
+      </c>
+      <c r="S190">
+        <v>1.95</v>
+      </c>
+      <c r="T190">
+        <v>3.25</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
+        <v>0.5</v>
+      </c>
+      <c r="Z190">
+        <v>-1</v>
+      </c>
+      <c r="AA190">
+        <v>0.95</v>
+      </c>
+      <c r="AB190">
+        <v>1</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6893778</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F191" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="K191">
         <v>5</v>
       </c>
-      <c r="L189">
+      <c r="L191">
         <v>5</v>
       </c>
-      <c r="M189">
+      <c r="M191">
         <v>1.4</v>
       </c>
-      <c r="N189">
+      <c r="N191">
+        <v>5</v>
+      </c>
+      <c r="O191">
+        <v>5.25</v>
+      </c>
+      <c r="P191">
+        <v>1.4</v>
+      </c>
+      <c r="Q191">
+        <v>1.5</v>
+      </c>
+      <c r="R191">
+        <v>1.875</v>
+      </c>
+      <c r="S191">
+        <v>1.925</v>
+      </c>
+      <c r="T191">
+        <v>4</v>
+      </c>
+      <c r="U191">
+        <v>1.925</v>
+      </c>
+      <c r="V191">
+        <v>1.875</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6918228</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45354.29166666666</v>
+      </c>
+      <c r="F192" t="s">
+        <v>46</v>
+      </c>
+      <c r="G192" t="s">
+        <v>38</v>
+      </c>
+      <c r="K192">
+        <v>1.285</v>
+      </c>
+      <c r="L192">
+        <v>6</v>
+      </c>
+      <c r="M192">
+        <v>6</v>
+      </c>
+      <c r="N192">
+        <v>1.363</v>
+      </c>
+      <c r="O192">
+        <v>5.75</v>
+      </c>
+      <c r="P192">
+        <v>5</v>
+      </c>
+      <c r="Q192">
+        <v>-1.75</v>
+      </c>
+      <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
+        <v>4.5</v>
+      </c>
+      <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
+        <v>1.925</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>6893779</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45354.41666666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="K193">
+        <v>3.1</v>
+      </c>
+      <c r="L193">
         <v>4.2</v>
       </c>
-      <c r="O189">
-        <v>5</v>
-      </c>
-      <c r="P189">
-        <v>1.5</v>
-      </c>
-      <c r="Q189">
-        <v>1.25</v>
-      </c>
-      <c r="R189">
+      <c r="M193">
+        <v>1.8</v>
+      </c>
+      <c r="N193">
+        <v>3.4</v>
+      </c>
+      <c r="O193">
+        <v>4.333</v>
+      </c>
+      <c r="P193">
+        <v>1.7</v>
+      </c>
+      <c r="Q193">
+        <v>0.75</v>
+      </c>
+      <c r="R193">
+        <v>1.9</v>
+      </c>
+      <c r="S193">
+        <v>1.9</v>
+      </c>
+      <c r="T193">
+        <v>3.5</v>
+      </c>
+      <c r="U193">
         <v>1.825</v>
       </c>
-      <c r="S189">
+      <c r="V193">
         <v>1.975</v>
       </c>
-      <c r="T189">
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>6893780</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F194" t="s">
+        <v>44</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194">
+        <v>1.8</v>
+      </c>
+      <c r="L194">
+        <v>4.2</v>
+      </c>
+      <c r="M194">
+        <v>3.1</v>
+      </c>
+      <c r="N194">
+        <v>1.533</v>
+      </c>
+      <c r="O194">
+        <v>4.5</v>
+      </c>
+      <c r="P194">
+        <v>4.2</v>
+      </c>
+      <c r="Q194">
+        <v>-1</v>
+      </c>
+      <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
+        <v>1.9</v>
+      </c>
+      <c r="T194">
         <v>3.5</v>
       </c>
-      <c r="U189">
-        <v>1.775</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
-      <c r="W189">
-        <v>3.2</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
-      <c r="Z189">
-        <v>0.825</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
+      <c r="U194">
+        <v>1.8</v>
+      </c>
+      <c r="V194">
+        <v>2</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,13 +1705,13 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1720,25 +1720,25 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>3.4</v>
+      </c>
+      <c r="O14">
         <v>4.5</v>
       </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>5.5</v>
-      </c>
       <c r="P14">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R14">
         <v>1.925</v>
@@ -1747,7 +1747,7 @@
         <v>1.875</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U14">
         <v>1.875</v>
@@ -1756,7 +1756,7 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893332</v>
+        <v>6893654</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1809,25 +1809,25 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
         <v>1.925</v>
@@ -1836,7 +1836,7 @@
         <v>1.875</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1845,7 +1845,7 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>2.4</v>
+        <v>0.333</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,73 +3485,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L34">
         <v>4.2</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P34">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,73 +3574,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
         <v>4.2</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P35">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,73 +4553,73 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N46">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P46">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4630,7 +4630,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4642,73 +4642,73 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6893677</v>
+        <v>6893678</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4998,76 +4998,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L51">
+        <v>4.2</v>
+      </c>
+      <c r="M51">
+        <v>1.8</v>
+      </c>
+      <c r="N51">
         <v>4.333</v>
       </c>
-      <c r="M51">
-        <v>3</v>
-      </c>
-      <c r="N51">
-        <v>2.1</v>
-      </c>
       <c r="O51">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.95</v>
+      </c>
+      <c r="AB51">
         <v>-0.5</v>
       </c>
-      <c r="AA51">
-        <v>0.4125</v>
-      </c>
-      <c r="AB51">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6893678</v>
+        <v>6893677</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5087,76 +5087,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
+        <v>4.333</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>2.1</v>
+      </c>
+      <c r="O52">
         <v>4.2</v>
       </c>
-      <c r="M52">
-        <v>1.8</v>
-      </c>
-      <c r="N52">
-        <v>4.333</v>
-      </c>
-      <c r="O52">
-        <v>4.75</v>
-      </c>
       <c r="P52">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB52">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893679</v>
+        <v>6893291</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
         <v>4</v>
       </c>
       <c r="M55">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6893680</v>
+        <v>6893679</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,58 +5443,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
       </c>
       <c r="K56">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M56">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="N56">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
+        <v>4.75</v>
+      </c>
+      <c r="P56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>-1.75</v>
+      </c>
+      <c r="R56">
+        <v>1.975</v>
+      </c>
+      <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
         <v>4</v>
       </c>
-      <c r="P56">
-        <v>1.75</v>
-      </c>
-      <c r="Q56">
-        <v>0.75</v>
-      </c>
-      <c r="R56">
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>3.75</v>
-      </c>
-      <c r="U56">
-        <v>1.825</v>
-      </c>
-      <c r="V56">
-        <v>1.975</v>
-      </c>
       <c r="W56">
-        <v>2.6</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5503,16 +5503,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,73 +5532,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L57">
+        <v>4.2</v>
+      </c>
+      <c r="M57">
+        <v>1.533</v>
+      </c>
+      <c r="N57">
+        <v>3.6</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>3.1</v>
-      </c>
-      <c r="N57">
-        <v>1.363</v>
-      </c>
-      <c r="O57">
-        <v>5.25</v>
-      </c>
       <c r="P57">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6892996</v>
+        <v>6893687</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,76 +6155,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="N64">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
         <v>1.925</v>
       </c>
-      <c r="S64">
+      <c r="T64">
+        <v>3.5</v>
+      </c>
+      <c r="U64">
         <v>1.875</v>
       </c>
-      <c r="T64">
-        <v>3.75</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6893687</v>
+        <v>6893684</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,76 +6333,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O66">
+        <v>4.2</v>
+      </c>
+      <c r="P66">
+        <v>1.95</v>
+      </c>
+      <c r="Q66">
+        <v>0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>1.975</v>
+      </c>
+      <c r="T66">
         <v>4</v>
       </c>
-      <c r="P66">
-        <v>1.7</v>
-      </c>
-      <c r="Q66">
+      <c r="U66">
+        <v>1.75</v>
+      </c>
+      <c r="V66">
+        <v>1.95</v>
+      </c>
+      <c r="W66">
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>-1</v>
+      </c>
+      <c r="Z66">
+        <v>0.825</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.75</v>
       </c>
-      <c r="R66">
-        <v>1.875</v>
-      </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.875</v>
-      </c>
-      <c r="V66">
-        <v>1.925</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>3</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>0.875</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6893684</v>
+        <v>6892996</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,58 +6422,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P67">
+        <v>4.75</v>
+      </c>
+      <c r="Q67">
+        <v>-1.25</v>
+      </c>
+      <c r="R67">
+        <v>1.925</v>
+      </c>
+      <c r="S67">
+        <v>1.875</v>
+      </c>
+      <c r="T67">
+        <v>3.75</v>
+      </c>
+      <c r="U67">
         <v>1.95</v>
       </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>4</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893689</v>
+        <v>6893690</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N69">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q69">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,34 +6642,34 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70">
-        <v>4.2</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>1.533</v>
-      </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893691</v>
+        <v>6893689</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,13 +6778,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6793,25 +6793,25 @@
         <v>48</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P71">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,16 +6820,16 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,10 +6844,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,49 +7045,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
         <v>4.5</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>1.8</v>
@@ -7096,25 +7096,25 @@
         <v>2</v>
       </c>
       <c r="W74">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,49 +7134,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
         <v>4.5</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N75">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
+        <v>4.333</v>
+      </c>
+      <c r="Q75">
+        <v>-1.25</v>
+      </c>
+      <c r="R75">
+        <v>1.925</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
         <v>4</v>
-      </c>
-      <c r="Q75">
-        <v>-1</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>3.75</v>
       </c>
       <c r="U75">
         <v>1.8</v>
@@ -7185,25 +7185,25 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
         <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
         <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,16 +8084,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,58 +9448,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L101">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9517,7 +9517,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,58 +9537,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M102">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>3.5</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>4.25</v>
-      </c>
-      <c r="U102">
-        <v>1.975</v>
-      </c>
-      <c r="V102">
-        <v>1.825</v>
-      </c>
       <c r="W102">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.875</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893300</v>
+        <v>6893727</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
+        <v>4.5</v>
+      </c>
+      <c r="M119">
+        <v>1.615</v>
+      </c>
+      <c r="N119">
+        <v>2.625</v>
+      </c>
+      <c r="O119">
         <v>4.333</v>
       </c>
-      <c r="M119">
-        <v>2.8</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>4.2</v>
-      </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q119">
+        <v>0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>3.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
+        <v>1.925</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>3.333</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.45</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
-      <c r="W119">
-        <v>0.909</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,76 +11139,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>3.75</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893726</v>
+        <v>6893300</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,55 +11228,55 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
         <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>0.909</v>
@@ -11288,16 +11288,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O140">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P140">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q140">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
         <v>1.975</v>
-      </c>
-      <c r="S140">
-        <v>1.825</v>
       </c>
       <c r="T140">
         <v>3.75</v>
       </c>
       <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
         <v>1.925</v>
       </c>
-      <c r="V140">
-        <v>1.875</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M142">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
         <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
         <v>1.875</v>
       </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z142">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
+        <v>0.825</v>
+      </c>
+      <c r="AB142">
+        <v>0.4625</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6893741</v>
+        <v>6893369</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,10 +13364,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13379,61 +13379,61 @@
         <v>50</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
         <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6893369</v>
+        <v>6893741</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,10 +13542,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13557,61 +13557,61 @@
         <v>50</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
         <v>4.2</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,40 +14966,40 @@
         <v>45325.375</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L163">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N163">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O163">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q163">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R163">
         <v>1.95</v>
@@ -15008,13 +15008,13 @@
         <v>1.85</v>
       </c>
       <c r="T163">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15032,10 +15032,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,40 +15055,40 @@
         <v>45325.375</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N164">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P164">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q164">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -15097,13 +15097,13 @@
         <v>1.85</v>
       </c>
       <c r="T164">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15112,7 +15112,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15121,10 +15121,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,56 +15233,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N166">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O166">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q166">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R166">
+        <v>1.775</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
+        <v>1.75</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
-      <c r="T166">
-        <v>4.5</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,55 +15322,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L167">
+        <v>11</v>
+      </c>
+      <c r="M167">
+        <v>1.062</v>
+      </c>
+      <c r="N167">
+        <v>23</v>
+      </c>
+      <c r="O167">
+        <v>13</v>
+      </c>
+      <c r="P167">
+        <v>1.062</v>
+      </c>
+      <c r="Q167">
+        <v>3.25</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>1.85</v>
+      </c>
+      <c r="T167">
         <v>4.5</v>
       </c>
-      <c r="M167">
-        <v>1.727</v>
-      </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>4.5</v>
-      </c>
-      <c r="P167">
-        <v>1.615</v>
-      </c>
-      <c r="Q167">
-        <v>1</v>
-      </c>
-      <c r="R167">
-        <v>1.775</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M169">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N170">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X170">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6893376</v>
+        <v>6893772</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183">
+        <v>1.909</v>
+      </c>
+      <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
         <v>3</v>
       </c>
-      <c r="J183" t="s">
-        <v>49</v>
-      </c>
-      <c r="K183">
-        <v>1.6</v>
-      </c>
-      <c r="L183">
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
         <v>4.2</v>
       </c>
-      <c r="M183">
-        <v>4</v>
-      </c>
-      <c r="N183">
-        <v>1.533</v>
-      </c>
-      <c r="O183">
-        <v>4.333</v>
-      </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q183">
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>4.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6893772</v>
+        <v>6893376</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K184">
+        <v>1.6</v>
+      </c>
+      <c r="L184">
+        <v>4.2</v>
+      </c>
+      <c r="M184">
         <v>4</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184" t="s">
-        <v>48</v>
-      </c>
-      <c r="K184">
-        <v>1.909</v>
-      </c>
-      <c r="L184">
-        <v>4</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
         <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
         <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.875</v>
+      </c>
+      <c r="AB184">
         <v>0.825</v>
-      </c>
-      <c r="AA184">
-        <v>-1</v>
-      </c>
-      <c r="AB184">
-        <v>0.95</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6893012</v>
+        <v>6893771</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N188">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,13 +17251,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893771</v>
+        <v>6893012</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,13 +17340,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17463,6 +17463,15 @@
       <c r="G191" t="s">
         <v>29</v>
       </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>48</v>
+      </c>
       <c r="K191">
         <v>5</v>
       </c>
@@ -17500,19 +17509,25 @@
         <v>1.875</v>
       </c>
       <c r="W191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB191">
+        <v>0.925</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17639,13 +17654,13 @@
         <v>1.9</v>
       </c>
       <c r="T193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
         <v>0</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6892992</v>
+        <v>6893659</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y20">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
         <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>2.1</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45151.375</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45151.375</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q26">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3485,73 +3485,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L34">
         <v>4.2</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3574,73 +3574,73 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L35">
         <v>4.2</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
+        <v>4.5</v>
+      </c>
+      <c r="M38">
+        <v>1.615</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
         <v>4.2</v>
       </c>
-      <c r="M38">
-        <v>2.3</v>
-      </c>
-      <c r="N38">
-        <v>1.833</v>
-      </c>
-      <c r="O38">
-        <v>4.5</v>
-      </c>
       <c r="P38">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q38">
+        <v>0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
+        <v>1.875</v>
+      </c>
+      <c r="T38">
+        <v>3.75</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.875</v>
+      </c>
+      <c r="AB38">
+        <v>0.425</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>1.9</v>
-      </c>
-      <c r="T38">
-        <v>4.25</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>0.833</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6893674</v>
+        <v>6893673</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,76 +4197,76 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42">
+        <v>1.5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>1.5</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>-1</v>
+      </c>
+      <c r="R42">
+        <v>1.75</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>1.925</v>
+      </c>
+      <c r="V42">
+        <v>1.775</v>
+      </c>
+      <c r="W42">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42">
-        <v>2.8</v>
-      </c>
-      <c r="L42">
-        <v>4.333</v>
-      </c>
-      <c r="M42">
-        <v>1.909</v>
-      </c>
-      <c r="N42">
-        <v>2.25</v>
-      </c>
-      <c r="O42">
-        <v>4.333</v>
-      </c>
-      <c r="P42">
-        <v>2.3</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>1.875</v>
-      </c>
-      <c r="S42">
-        <v>1.925</v>
-      </c>
-      <c r="T42">
-        <v>3.5</v>
-      </c>
-      <c r="U42">
-        <v>1.975</v>
-      </c>
-      <c r="V42">
-        <v>1.825</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>1.3</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6893673</v>
+        <v>6893674</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,76 +4375,76 @@
         <v>45165.375</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>2</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L44">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,73 +4553,73 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N46">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4630,7 +4630,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4642,73 +4642,73 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,73 +5354,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L55">
+        <v>4.2</v>
+      </c>
+      <c r="M55">
+        <v>1.533</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="M55">
-        <v>3.1</v>
-      </c>
-      <c r="N55">
-        <v>1.363</v>
-      </c>
-      <c r="O55">
-        <v>5.25</v>
-      </c>
       <c r="P55">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X55">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,73 +5532,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P57">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,13 +6244,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6259,43 +6259,43 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L65">
+        <v>4.75</v>
+      </c>
+      <c r="M65">
         <v>4.5</v>
       </c>
-      <c r="M65">
-        <v>1.666</v>
-      </c>
       <c r="N65">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.875</v>
+      </c>
+      <c r="T65">
+        <v>3.75</v>
+      </c>
+      <c r="U65">
         <v>1.95</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>1.975</v>
-      </c>
       <c r="W65">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6892996</v>
+        <v>6893685</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,13 +6422,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6437,43 +6437,43 @@
         <v>48</v>
       </c>
       <c r="K67">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M67">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N67">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O67">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.444</v>
+        <v>2.4</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6482,16 +6482,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>1.909</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>4.2</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>1.533</v>
-      </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O69">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,34 +6642,34 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893691</v>
+        <v>6893690</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P70">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M84">
         <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
         <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,16 +8084,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P92">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC92">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45200.375</v>
       </c>
       <c r="F94" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
         <v>4.2</v>
       </c>
       <c r="M94">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O94">
+        <v>4.333</v>
+      </c>
+      <c r="P94">
         <v>4.5</v>
       </c>
-      <c r="P94">
-        <v>1.4</v>
-      </c>
       <c r="Q94">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V94">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45200.375</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L95">
         <v>4.2</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N95">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W95">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9448,58 +9448,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>3.5</v>
+      </c>
+      <c r="U101">
+        <v>1.925</v>
+      </c>
+      <c r="V101">
         <v>1.875</v>
       </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>4.25</v>
-      </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.875</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9537,58 +9537,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,7 +9597,7 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9606,7 +9606,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893727</v>
+        <v>6893300</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="V119">
-        <v>1.925</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893300</v>
+        <v>6893727</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
+        <v>4.5</v>
+      </c>
+      <c r="M121">
+        <v>1.615</v>
+      </c>
+      <c r="N121">
+        <v>2.625</v>
+      </c>
+      <c r="O121">
         <v>4.333</v>
       </c>
-      <c r="M121">
-        <v>2.8</v>
-      </c>
-      <c r="N121">
-        <v>1.909</v>
-      </c>
-      <c r="O121">
-        <v>4.2</v>
-      </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
+        <v>0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
+        <v>1.925</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>3.333</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.45</v>
+      </c>
+      <c r="AA121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
-      <c r="V121">
-        <v>1.875</v>
-      </c>
-      <c r="W121">
-        <v>0.909</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L124">
         <v>5.5</v>
       </c>
       <c r="M124">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11537,34 +11537,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
         <v>5.5</v>
       </c>
       <c r="M125">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,34 +11626,34 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,73 +13008,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M141">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P141">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC141">
         <v>-0.5</v>
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893740</v>
+        <v>6893738</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,73 +13097,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
         <v>-0.5</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6918235</v>
+        <v>6893741</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q146">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
         <v>1.825</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.975</v>
       </c>
-      <c r="T146">
-        <v>4.75</v>
-      </c>
-      <c r="U146">
-        <v>1.875</v>
-      </c>
-      <c r="V146">
-        <v>1.825</v>
-      </c>
       <c r="W146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L147">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P147">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
+        <v>1.975</v>
+      </c>
+      <c r="T147">
+        <v>4.75</v>
+      </c>
+      <c r="U147">
         <v>1.875</v>
       </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
-      <c r="U147">
+      <c r="V147">
         <v>1.825</v>
       </c>
-      <c r="V147">
-        <v>1.975</v>
-      </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X147">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,13 +15856,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15871,43 +15871,43 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M173">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>4.25</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
-      <c r="T173">
-        <v>3.75</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.875</v>
-      </c>
       <c r="W173">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.825</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,13 +15945,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15960,43 +15960,43 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L174">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17552,6 +17552,15 @@
       <c r="G192" t="s">
         <v>38</v>
       </c>
+      <c r="H192">
+        <v>4</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>48</v>
+      </c>
       <c r="K192">
         <v>1.285</v>
       </c>
@@ -17589,27 +17598,33 @@
         <v>1.925</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6893779</v>
+        <v>6893309</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17621,40 +17636,49 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>50</v>
       </c>
       <c r="K193">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L193">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M193">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="N193">
-        <v>3.4</v>
+        <v>1.181</v>
       </c>
       <c r="O193">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="Q193">
-        <v>0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U193">
         <v>1.925</v>
@@ -17663,27 +17687,33 @@
         <v>1.875</v>
       </c>
       <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>5.5</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>0.95</v>
+      </c>
+      <c r="AB193">
         <v>0</v>
       </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
-        <v>0</v>
-      </c>
-      <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+      <c r="AC193">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6893780</v>
+        <v>6893779</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17692,64 +17722,168 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45354.45833333334</v>
+        <v>45354.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>50</v>
       </c>
       <c r="K194">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L194">
         <v>4.2</v>
       </c>
       <c r="M194">
+        <v>1.8</v>
+      </c>
+      <c r="N194">
+        <v>3.75</v>
+      </c>
+      <c r="O194">
+        <v>4.75</v>
+      </c>
+      <c r="P194">
+        <v>1.571</v>
+      </c>
+      <c r="Q194">
+        <v>1</v>
+      </c>
+      <c r="R194">
+        <v>1.875</v>
+      </c>
+      <c r="S194">
+        <v>1.925</v>
+      </c>
+      <c r="T194">
+        <v>4</v>
+      </c>
+      <c r="U194">
+        <v>1.95</v>
+      </c>
+      <c r="V194">
+        <v>1.85</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>3.75</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>0.875</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>6893780</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>44</v>
+      </c>
+      <c r="G195" t="s">
+        <v>39</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>50</v>
+      </c>
+      <c r="K195">
+        <v>1.8</v>
+      </c>
+      <c r="L195">
+        <v>4.2</v>
+      </c>
+      <c r="M195">
         <v>3.1</v>
       </c>
-      <c r="N194">
+      <c r="N195">
         <v>1.533</v>
       </c>
-      <c r="O194">
+      <c r="O195">
         <v>4.5</v>
       </c>
-      <c r="P194">
+      <c r="P195">
         <v>4.2</v>
       </c>
-      <c r="Q194">
-        <v>-1</v>
-      </c>
-      <c r="R194">
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
         <v>1.9</v>
       </c>
-      <c r="S194">
+      <c r="S195">
         <v>1.9</v>
       </c>
-      <c r="T194">
+      <c r="T195">
         <v>3.5</v>
       </c>
-      <c r="U194">
-        <v>1.8</v>
-      </c>
-      <c r="V194">
-        <v>2</v>
-      </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-      <c r="X194">
-        <v>0</v>
-      </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-      <c r="Z194">
-        <v>0</v>
-      </c>
-      <c r="AA194">
-        <v>0</v>
+      <c r="U195">
+        <v>1.775</v>
+      </c>
+      <c r="V195">
+        <v>1.925</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>3.5</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.925</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -145,10 +145,10 @@
     <t>FC Alsterbruder</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
+    <t>TSV Sasel</t>
   </si>
   <si>
-    <t>TSV Sasel</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>1.444</v>
+      </c>
+      <c r="L17">
+        <v>4.5</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>1.1</v>
-      </c>
       <c r="N17">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.1</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>1.083</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>1.444</v>
-      </c>
-      <c r="L18">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
         <v>4.5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.25</v>
-      </c>
-      <c r="O18">
-        <v>5.5</v>
-      </c>
-      <c r="P18">
-        <v>7.5</v>
-      </c>
-      <c r="Q18">
-        <v>-2</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
         <v>1.875</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.925</v>
       </c>
-      <c r="T18">
-        <v>4.25</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6893659</v>
+        <v>6893660</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,16 +2239,16 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
@@ -2263,52 +2263,52 @@
         <v>2.6</v>
       </c>
       <c r="N20">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q20">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6892992</v>
+        <v>6893659</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N22">
+        <v>1.727</v>
+      </c>
+      <c r="O22">
+        <v>4.2</v>
+      </c>
+      <c r="P22">
+        <v>3.5</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
         <v>1.95</v>
       </c>
-      <c r="O22">
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="P22">
-        <v>2.8</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45151.375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N25">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q25">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T25">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45151.375</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L26">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O26">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P26">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6893334</v>
+        <v>6918249</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>1.181</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>1.833</v>
+        <v>1.142</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
+        <v>1.85</v>
+      </c>
+      <c r="T36">
+        <v>4.75</v>
+      </c>
+      <c r="U36">
         <v>1.9</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="T36">
-        <v>4.25</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
       <c r="W36">
-        <v>0.833</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
+        <v>0.95</v>
+      </c>
+      <c r="AA36">
+        <v>-1</v>
+      </c>
+      <c r="AB36">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6918249</v>
+        <v>6893670</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N37">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.875</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>4.75</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
       <c r="W37">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>4.2</v>
+      </c>
+      <c r="M38">
+        <v>2.3</v>
+      </c>
+      <c r="N38">
+        <v>1.833</v>
+      </c>
+      <c r="O38">
         <v>4.5</v>
       </c>
-      <c r="M38">
-        <v>1.615</v>
-      </c>
-      <c r="N38">
-        <v>2.625</v>
-      </c>
-      <c r="O38">
-        <v>4.2</v>
-      </c>
       <c r="P38">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,76 +4197,76 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>4.2</v>
+      </c>
+      <c r="M42">
+        <v>2.5</v>
+      </c>
+      <c r="N42">
+        <v>2.1</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>2.5</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>3.5</v>
+      </c>
+      <c r="U42">
+        <v>1.9</v>
+      </c>
+      <c r="V42">
+        <v>1.9</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>1.5</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>1.5</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-      <c r="Q42">
-        <v>-1</v>
-      </c>
-      <c r="R42">
-        <v>1.75</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
-        <v>1.775</v>
-      </c>
-      <c r="W42">
-        <v>0.5</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>-1</v>
-      </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6892994</v>
+        <v>6893673</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45165.375</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R43">
+        <v>1.75</v>
+      </c>
+      <c r="S43">
+        <v>1.95</v>
+      </c>
+      <c r="T43">
+        <v>4</v>
+      </c>
+      <c r="U43">
         <v>1.925</v>
       </c>
-      <c r="S43">
-        <v>1.875</v>
-      </c>
-      <c r="T43">
-        <v>3.5</v>
-      </c>
-      <c r="U43">
-        <v>1.9</v>
-      </c>
       <c r="V43">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,73 +4553,73 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N46">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O46">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P46">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q46">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4630,7 +4630,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4642,73 +4642,73 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N47">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P47">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q47">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R47">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X47">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4986,7 +4986,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6893678</v>
+        <v>6893677</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,73 +5001,73 @@
         <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
+        <v>4.333</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>2.1</v>
+      </c>
+      <c r="O51">
         <v>4.2</v>
       </c>
-      <c r="M51">
-        <v>1.8</v>
-      </c>
-      <c r="N51">
-        <v>4.333</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q51">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U51">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y51">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AB51">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5075,7 +5075,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6893677</v>
+        <v>6893678</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,73 +5090,73 @@
         <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
+        <v>4.2</v>
+      </c>
+      <c r="M52">
+        <v>1.8</v>
+      </c>
+      <c r="N52">
         <v>4.333</v>
       </c>
-      <c r="M52">
-        <v>3</v>
-      </c>
-      <c r="N52">
-        <v>2.1</v>
-      </c>
       <c r="O52">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
+        <v>0.95</v>
+      </c>
+      <c r="AB52">
         <v>-0.5</v>
       </c>
-      <c r="AA52">
-        <v>0.4125</v>
-      </c>
-      <c r="AB52">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,73 +5354,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893291</v>
+        <v>6893680</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,73 +5532,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>1.833</v>
+        <v>4.5</v>
       </c>
       <c r="L57">
+        <v>4.2</v>
+      </c>
+      <c r="M57">
+        <v>1.533</v>
+      </c>
+      <c r="N57">
+        <v>3.6</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>3.1</v>
-      </c>
-      <c r="N57">
-        <v>1.363</v>
-      </c>
-      <c r="O57">
-        <v>5.25</v>
-      </c>
       <c r="P57">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5802,7 +5802,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -6155,7 +6155,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6893684</v>
+        <v>6893685</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,58 +6333,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
       </c>
       <c r="K66">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P66">
+        <v>1.666</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
         <v>1.95</v>
       </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
+      <c r="S66">
+        <v>1.85</v>
+      </c>
+      <c r="T66">
+        <v>3.5</v>
+      </c>
+      <c r="U66">
         <v>1.825</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.975</v>
       </c>
-      <c r="T66">
-        <v>4</v>
-      </c>
-      <c r="U66">
-        <v>1.75</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
       <c r="W66">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,13 +6393,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
+        <v>0.95</v>
+      </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.825</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.75</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6893685</v>
+        <v>6893684</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,73 +6422,73 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L67">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="Q67">
+        <v>0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.825</v>
+      </c>
+      <c r="S67">
+        <v>1.975</v>
+      </c>
+      <c r="T67">
+        <v>4</v>
+      </c>
+      <c r="U67">
+        <v>1.75</v>
+      </c>
+      <c r="V67">
+        <v>1.95</v>
+      </c>
+      <c r="W67">
+        <v>2</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
+        <v>0.825</v>
+      </c>
+      <c r="AA67">
+        <v>-1</v>
+      </c>
+      <c r="AB67">
         <v>0.75</v>
-      </c>
-      <c r="R67">
-        <v>1.95</v>
-      </c>
-      <c r="S67">
-        <v>1.85</v>
-      </c>
-      <c r="T67">
-        <v>3.5</v>
-      </c>
-      <c r="U67">
-        <v>1.825</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
-      <c r="W67">
-        <v>2.4</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>0.95</v>
-      </c>
-      <c r="AA67">
-        <v>-1</v>
-      </c>
-      <c r="AB67">
-        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6511,7 +6511,7 @@
         <v>45182.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893691</v>
+        <v>6893690</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,34 +6642,34 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,40 +6689,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
         <v>3</v>
       </c>
-      <c r="J70" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70">
-        <v>4.2</v>
-      </c>
-      <c r="L70">
-        <v>4.5</v>
-      </c>
-      <c r="M70">
-        <v>1.533</v>
-      </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O70">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,34 +6731,34 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6781,7 +6781,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71">
         <v>8</v>
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,49 +7045,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
         <v>4.5</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
+        <v>4.333</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.925</v>
+      </c>
+      <c r="S74">
+        <v>1.775</v>
+      </c>
+      <c r="T74">
         <v>4</v>
-      </c>
-      <c r="Q74">
-        <v>-1</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.75</v>
       </c>
       <c r="U74">
         <v>1.8</v>
@@ -7096,25 +7096,25 @@
         <v>2</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,49 +7134,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
         <v>4.5</v>
       </c>
       <c r="M75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>1.8</v>
@@ -7185,25 +7185,25 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7226,7 +7226,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
         <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
         <v>2</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L85">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
         <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,16 +8084,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K87">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X87">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N88">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,55 +9451,55 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L101">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9517,7 +9517,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,55 +9540,55 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M102">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>3.5</v>
+      </c>
+      <c r="U102">
+        <v>1.925</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>4.25</v>
-      </c>
-      <c r="U102">
-        <v>1.975</v>
-      </c>
-      <c r="V102">
-        <v>1.825</v>
-      </c>
       <c r="W102">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,16 +9597,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.875</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>-1</v>
-      </c>
-      <c r="AC102">
-        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
         <v>46</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893300</v>
+        <v>6893727</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
+        <v>4.5</v>
+      </c>
+      <c r="M119">
+        <v>1.615</v>
+      </c>
+      <c r="N119">
+        <v>2.625</v>
+      </c>
+      <c r="O119">
         <v>4.333</v>
       </c>
-      <c r="M119">
-        <v>2.8</v>
-      </c>
-      <c r="N119">
-        <v>1.909</v>
-      </c>
-      <c r="O119">
-        <v>4.2</v>
-      </c>
       <c r="P119">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q119">
+        <v>0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.9</v>
+      </c>
+      <c r="S119">
+        <v>1.9</v>
+      </c>
+      <c r="T119">
+        <v>3.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
+        <v>1.925</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>3.333</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>0.45</v>
+      </c>
+      <c r="AA119">
         <v>-0.5</v>
       </c>
-      <c r="R119">
-        <v>1.975</v>
-      </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>3.25</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
-      <c r="W119">
-        <v>0.909</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
       <c r="AB119">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893727</v>
+        <v>6893300</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11498,7 +11498,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11587,7 +11587,7 @@
         <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,58 +12029,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L130">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12089,7 +12089,7 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,58 +12118,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P131">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>3.75</v>
+      </c>
+      <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
       <c r="W131">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,16 +12178,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.95</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12207,7 +12207,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12385,7 +12385,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,76 +12919,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
+        <v>1.975</v>
+      </c>
+      <c r="S140">
         <v>1.825</v>
-      </c>
-      <c r="S140">
-        <v>1.975</v>
       </c>
       <c r="T140">
         <v>3.75</v>
       </c>
       <c r="U140">
+        <v>1.925</v>
+      </c>
+      <c r="V140">
         <v>1.875</v>
       </c>
-      <c r="V140">
-        <v>1.925</v>
-      </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
+        <v>0.825</v>
+      </c>
+      <c r="AB140">
+        <v>0.4625</v>
+      </c>
+      <c r="AC140">
         <v>-0.5</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
-      <c r="AC140">
-        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
       <c r="J141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P141">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
         <v>1.975</v>
-      </c>
-      <c r="S141">
-        <v>1.825</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
         <v>1.925</v>
       </c>
-      <c r="V141">
-        <v>1.875</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>4.75</v>
+      </c>
+      <c r="U146">
         <v>1.875</v>
       </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
+      <c r="V146">
         <v>1.825</v>
       </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6918235</v>
+        <v>6893741</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,76 +13542,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K147">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
         <v>1.825</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>1.975</v>
       </c>
-      <c r="T147">
-        <v>4.75</v>
-      </c>
-      <c r="U147">
-        <v>1.875</v>
-      </c>
-      <c r="V147">
-        <v>1.825</v>
-      </c>
       <c r="W147">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14509,7 +14509,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7572546</v>
+        <v>7572547</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14521,76 +14521,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M158">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="N158">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="O158">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P158">
-        <v>2.05</v>
+        <v>1.142</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
+        <v>4.25</v>
+      </c>
+      <c r="U158">
         <v>1.95</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.85</v>
       </c>
-      <c r="T158">
-        <v>3.75</v>
-      </c>
-      <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>1.8</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>-0.5</v>
       </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7572547</v>
+        <v>7572546</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14610,76 +14610,76 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K159">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="L159">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="N159">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="Q159">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14699,7 +14699,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,40 +14966,40 @@
         <v>45325.375</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M163">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N163">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P163">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q163">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R163">
         <v>1.95</v>
@@ -15008,13 +15008,13 @@
         <v>1.85</v>
       </c>
       <c r="T163">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15032,10 +15032,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,40 +15055,40 @@
         <v>45325.375</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L164">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O164">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q164">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -15097,13 +15097,13 @@
         <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15112,7 +15112,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15121,10 +15121,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,55 +15233,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L166">
+        <v>11</v>
+      </c>
+      <c r="M166">
+        <v>1.062</v>
+      </c>
+      <c r="N166">
+        <v>23</v>
+      </c>
+      <c r="O166">
+        <v>13</v>
+      </c>
+      <c r="P166">
+        <v>1.062</v>
+      </c>
+      <c r="Q166">
+        <v>3.25</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>1.85</v>
+      </c>
+      <c r="T166">
         <v>4.5</v>
       </c>
-      <c r="M166">
-        <v>1.727</v>
-      </c>
-      <c r="N166">
-        <v>3.8</v>
-      </c>
-      <c r="O166">
-        <v>4.5</v>
-      </c>
-      <c r="P166">
-        <v>1.615</v>
-      </c>
-      <c r="Q166">
-        <v>1</v>
-      </c>
-      <c r="R166">
-        <v>1.775</v>
-      </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>3.75</v>
-      </c>
       <c r="U166">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB166">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,56 +15322,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L167">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N167">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O167">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P167">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q167">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
+        <v>1.775</v>
+      </c>
+      <c r="S167">
+        <v>1.925</v>
+      </c>
+      <c r="T167">
+        <v>3.75</v>
+      </c>
+      <c r="U167">
+        <v>1.75</v>
+      </c>
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="S167">
-        <v>1.85</v>
-      </c>
-      <c r="T167">
-        <v>4.5</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
         <v>-1</v>
       </c>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB167">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15411,7 +15411,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X169">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M170">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N170">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,13 +15856,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15871,43 +15871,43 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L173">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M173">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P173">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q173">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T173">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U173">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W173">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,13 +15945,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15960,43 +15960,43 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L174">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N174">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O174">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
+        <v>1.85</v>
+      </c>
+      <c r="T174">
+        <v>4.25</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
         <v>1.825</v>
       </c>
-      <c r="S174">
-        <v>1.975</v>
-      </c>
-      <c r="T174">
-        <v>3.75</v>
-      </c>
-      <c r="U174">
-        <v>1.925</v>
-      </c>
-      <c r="V174">
-        <v>1.875</v>
-      </c>
       <c r="W174">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
         <v>0.825</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
-      <c r="AC174">
-        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6893772</v>
+        <v>6893376</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183" t="s">
+        <v>49</v>
+      </c>
+      <c r="K183">
+        <v>1.6</v>
+      </c>
+      <c r="L183">
+        <v>4.2</v>
+      </c>
+      <c r="M183">
         <v>4</v>
       </c>
-      <c r="I183">
-        <v>1</v>
-      </c>
-      <c r="J183" t="s">
-        <v>48</v>
-      </c>
-      <c r="K183">
-        <v>1.909</v>
-      </c>
-      <c r="L183">
-        <v>4</v>
-      </c>
-      <c r="M183">
-        <v>3</v>
-      </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O183">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q183">
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S183">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T183">
         <v>4.25</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.875</v>
+      </c>
+      <c r="AB183">
         <v>0.825</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
-      <c r="AB183">
-        <v>0.95</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6893376</v>
+        <v>6893772</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>48</v>
+      </c>
+      <c r="K184">
+        <v>1.909</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
         <v>3</v>
       </c>
-      <c r="J184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K184">
-        <v>1.6</v>
-      </c>
-      <c r="L184">
+      <c r="N184">
+        <v>1.5</v>
+      </c>
+      <c r="O184">
         <v>4.2</v>
       </c>
-      <c r="M184">
-        <v>4</v>
-      </c>
-      <c r="N184">
-        <v>1.533</v>
-      </c>
-      <c r="O184">
-        <v>4.333</v>
-      </c>
       <c r="P184">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
         <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -17105,7 +17105,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17814,7 +17814,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -145,10 +145,10 @@
     <t>FC Alsterbruder</t>
   </si>
   <si>
-    <t>TSV Sasel</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
-    <t>FC Union Tornesch</t>
+    <t>TSV Sasel</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893332</v>
+        <v>6893654</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,13 +1705,13 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1720,25 +1720,25 @@
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
         <v>1.925</v>
@@ -1747,7 +1747,7 @@
         <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <v>1.875</v>
@@ -1756,7 +1756,7 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>2.4</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1809,25 +1809,25 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
+        <v>2.3</v>
+      </c>
+      <c r="N15">
+        <v>3.4</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="N15">
-        <v>1.333</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
       <c r="P15">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
         <v>1.925</v>
@@ -1836,7 +1836,7 @@
         <v>1.875</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1845,7 +1845,7 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>1.1</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>1.083</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
-        <v>1.444</v>
-      </c>
-      <c r="L17">
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
         <v>4.5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.25</v>
-      </c>
-      <c r="O17">
-        <v>5.5</v>
-      </c>
-      <c r="P17">
-        <v>7.5</v>
-      </c>
-      <c r="Q17">
-        <v>-2</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.875</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="T17">
-        <v>4.25</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>1.444</v>
+      </c>
+      <c r="L18">
+        <v>4.5</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
       <c r="N18">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3485,7 +3485,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6918249</v>
+        <v>6893334</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,58 +3663,58 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>48</v>
       </c>
       <c r="K36">
-        <v>1.181</v>
+        <v>2.25</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>1.142</v>
+        <v>1.833</v>
       </c>
       <c r="O36">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>11</v>
+        <v>2.875</v>
       </c>
       <c r="Q36">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
-        <v>0.1419999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3723,13 +3723,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L37">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M37">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N37">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L38">
+        <v>4.5</v>
+      </c>
+      <c r="M38">
+        <v>1.615</v>
+      </c>
+      <c r="N38">
+        <v>2.625</v>
+      </c>
+      <c r="O38">
         <v>4.2</v>
       </c>
-      <c r="M38">
-        <v>2.3</v>
-      </c>
-      <c r="N38">
-        <v>1.833</v>
-      </c>
-      <c r="O38">
-        <v>4.5</v>
-      </c>
       <c r="P38">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q38">
+        <v>0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.925</v>
+      </c>
+      <c r="S38">
+        <v>1.875</v>
+      </c>
+      <c r="T38">
+        <v>3.75</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
+        <v>1.95</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.875</v>
+      </c>
+      <c r="AB38">
+        <v>0.425</v>
+      </c>
+      <c r="AC38">
         <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.9</v>
-      </c>
-      <c r="S38">
-        <v>1.9</v>
-      </c>
-      <c r="T38">
-        <v>4.25</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>0.833</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6892994</v>
+        <v>6893673</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,76 +4197,76 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R42">
+        <v>1.75</v>
+      </c>
+      <c r="S42">
+        <v>1.95</v>
+      </c>
+      <c r="T42">
+        <v>4</v>
+      </c>
+      <c r="U42">
         <v>1.925</v>
       </c>
-      <c r="S42">
-        <v>1.875</v>
-      </c>
-      <c r="T42">
-        <v>3.5</v>
-      </c>
-      <c r="U42">
-        <v>1.9</v>
-      </c>
       <c r="V42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4274,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6893673</v>
+        <v>6893674</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4286,76 +4286,76 @@
         <v>45165.375</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>2</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V43">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4363,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6893674</v>
+        <v>6892994</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4375,55 +4375,55 @@
         <v>45165.375</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
       </c>
       <c r="K44">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="L44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M44">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.925</v>
+      </c>
+      <c r="S44">
         <v>1.875</v>
-      </c>
-      <c r="S44">
-        <v>1.925</v>
       </c>
       <c r="T44">
         <v>3.5</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4432,19 +4432,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4998,7 +4998,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,76 +5354,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L55">
         <v>4</v>
       </c>
       <c r="M55">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N55">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T55">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X55">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6893679</v>
+        <v>6893291</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,76 +5443,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L56">
         <v>4</v>
       </c>
       <c r="M56">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N56">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O56">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5535,7 +5535,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5802,7 +5802,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893337</v>
+        <v>6893683</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45179.375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6893683</v>
+        <v>6893337</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45179.375</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O62">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6893687</v>
+        <v>6893685</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,76 +6155,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q64">
         <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
         <v>3.5</v>
       </c>
       <c r="U64">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6892996</v>
+        <v>6893684</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
         <v>2</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L65">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U65">
+        <v>1.75</v>
+      </c>
+      <c r="V65">
         <v>1.95</v>
       </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,16 +6304,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6348,43 +6348,43 @@
         <v>48</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L66">
+        <v>4.75</v>
+      </c>
+      <c r="M66">
         <v>4.5</v>
       </c>
-      <c r="M66">
-        <v>1.666</v>
-      </c>
       <c r="N66">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
+        <v>3.75</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,16 +6393,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6893684</v>
+        <v>6893687</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6422,76 +6422,76 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K67">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N67">
+        <v>3.6</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67">
+        <v>1.7</v>
+      </c>
+      <c r="Q67">
+        <v>0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.875</v>
+      </c>
+      <c r="S67">
+        <v>1.925</v>
+      </c>
+      <c r="T67">
+        <v>3.5</v>
+      </c>
+      <c r="U67">
+        <v>1.875</v>
+      </c>
+      <c r="V67">
+        <v>1.925</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
         <v>3</v>
       </c>
-      <c r="O67">
-        <v>4.2</v>
-      </c>
-      <c r="P67">
-        <v>1.95</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
-        <v>1.825</v>
-      </c>
-      <c r="S67">
-        <v>1.975</v>
-      </c>
-      <c r="T67">
-        <v>4</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
-      <c r="V67">
-        <v>1.95</v>
-      </c>
-      <c r="W67">
-        <v>2</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6511,7 +6511,7 @@
         <v>45182.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893690</v>
+        <v>6893691</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K69">
+        <v>1.909</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>4.2</v>
-      </c>
-      <c r="L69">
-        <v>4.5</v>
-      </c>
-      <c r="M69">
-        <v>1.533</v>
-      </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O69">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,34 +6642,34 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893691</v>
+        <v>6893689</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,13 +6689,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6704,25 +6704,25 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P70">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,16 +6731,16 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893689</v>
+        <v>6893690</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,40 +6778,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N71">
-        <v>1.125</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="P71">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="Q71">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,34 +6820,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W71">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45186.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1.333</v>
+      </c>
+      <c r="N76">
         <v>4.5</v>
       </c>
-      <c r="M76">
-        <v>1.533</v>
-      </c>
-      <c r="N76">
-        <v>4.333</v>
-      </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3.75</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45186.375</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N77">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8190,7 +8190,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6893700</v>
+        <v>6893701</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8202,49 +8202,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K87">
-        <v>1.363</v>
+        <v>4.8</v>
       </c>
       <c r="L87">
         <v>5.25</v>
       </c>
       <c r="M87">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="N87">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="O87">
         <v>5.25</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="Q87">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U87">
         <v>1.825</v>
@@ -8253,25 +8253,25 @@
         <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8279,7 +8279,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6893701</v>
+        <v>6893700</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8291,49 +8291,49 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>4.8</v>
+        <v>1.363</v>
       </c>
       <c r="L88">
         <v>5.25</v>
       </c>
       <c r="M88">
-        <v>1.4</v>
+        <v>5.25</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="O88">
         <v>5.25</v>
       </c>
       <c r="P88">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8342,25 +8342,25 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X88">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O92">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P92">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X92">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC92">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K93">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O93">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P93">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q93">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9436,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6893296</v>
+        <v>6893000</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,55 +9451,55 @@
         <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M101">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q101">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>3.5</v>
+      </c>
+      <c r="U101">
+        <v>1.925</v>
+      </c>
+      <c r="V101">
         <v>1.875</v>
       </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>4.25</v>
-      </c>
-      <c r="U101">
-        <v>1.975</v>
-      </c>
-      <c r="V101">
-        <v>1.825</v>
-      </c>
       <c r="W101">
-        <v>4.25</v>
+        <v>1.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9508,16 +9508,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.875</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
-      <c r="AB101">
-        <v>-1</v>
-      </c>
-      <c r="AC101">
-        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6893000</v>
+        <v>6893296</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,55 +9540,55 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>48</v>
       </c>
       <c r="K102">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L102">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>4.25</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9597,7 +9597,7 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9606,7 +9606,7 @@
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9896,7 +9896,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10163,7 +10163,7 @@
         <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P119">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
         <v>3.75</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11127,7 +11127,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6893726</v>
+        <v>6893300</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11139,55 +11139,55 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M120">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N120">
         <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>0.909</v>
@@ -11199,16 +11199,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893300</v>
+        <v>6893727</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
+        <v>4.5</v>
+      </c>
+      <c r="M121">
+        <v>1.615</v>
+      </c>
+      <c r="N121">
+        <v>2.625</v>
+      </c>
+      <c r="O121">
         <v>4.333</v>
       </c>
-      <c r="M121">
-        <v>2.8</v>
-      </c>
-      <c r="N121">
-        <v>1.909</v>
-      </c>
-      <c r="O121">
-        <v>4.2</v>
-      </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
+        <v>0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.9</v>
+      </c>
+      <c r="S121">
+        <v>1.9</v>
+      </c>
+      <c r="T121">
+        <v>3.75</v>
+      </c>
+      <c r="U121">
+        <v>1.875</v>
+      </c>
+      <c r="V121">
+        <v>1.925</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>3.333</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.45</v>
+      </c>
+      <c r="AA121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
-      <c r="V121">
-        <v>1.875</v>
-      </c>
-      <c r="W121">
-        <v>0.909</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L124">
         <v>5.5</v>
       </c>
       <c r="M124">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O124">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11537,34 +11537,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA124">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L125">
         <v>5.5</v>
       </c>
       <c r="M125">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N125">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P125">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q125">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,34 +11626,34 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y125">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,58 +12029,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>3.75</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="S130">
-        <v>1.85</v>
-      </c>
-      <c r="T130">
-        <v>3.5</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
       <c r="W130">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.95</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,58 +12118,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,7 +12178,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12187,7 +12187,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,13 +12207,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12222,40 +12222,40 @@
         <v>49</v>
       </c>
       <c r="K132">
+        <v>2.3</v>
+      </c>
+      <c r="L132">
+        <v>4.2</v>
+      </c>
+      <c r="M132">
+        <v>2.25</v>
+      </c>
+      <c r="N132">
+        <v>2.625</v>
+      </c>
+      <c r="O132">
+        <v>4.2</v>
+      </c>
+      <c r="P132">
+        <v>2</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.95</v>
+      </c>
+      <c r="S132">
         <v>1.85</v>
       </c>
-      <c r="L132">
-        <v>4</v>
-      </c>
-      <c r="M132">
-        <v>3.1</v>
-      </c>
-      <c r="N132">
-        <v>1.95</v>
-      </c>
-      <c r="O132">
-        <v>3.8</v>
-      </c>
-      <c r="P132">
-        <v>2.9</v>
-      </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
-      <c r="S132">
-        <v>2</v>
-      </c>
       <c r="T132">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12264,19 +12264,19 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,13 +12296,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -12311,61 +12311,61 @@
         <v>49</v>
       </c>
       <c r="K133">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
+        <v>2.9</v>
+      </c>
+      <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
         <v>2</v>
       </c>
-      <c r="Q133">
-        <v>0.25</v>
-      </c>
-      <c r="R133">
+      <c r="T133">
+        <v>4</v>
+      </c>
+      <c r="U133">
         <v>1.95</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="T133">
-        <v>3.75</v>
-      </c>
-      <c r="U133">
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
         <v>1.9</v>
       </c>
-      <c r="V133">
-        <v>1.9</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
-      <c r="AA133">
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12385,7 +12385,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12919,7 +12919,7 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
         <v>35</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893737</v>
+        <v>6893738</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
         <v>5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>0.4875</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
-      <c r="AC141">
-        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893738</v>
+        <v>6893737</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
         <v>5</v>
       </c>
       <c r="M142">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N142">
+        <v>1.65</v>
+      </c>
+      <c r="O142">
+        <v>4.5</v>
+      </c>
+      <c r="P142">
         <v>3.5</v>
       </c>
-      <c r="O142">
-        <v>4.2</v>
-      </c>
-      <c r="P142">
-        <v>1.666</v>
-      </c>
       <c r="Q142">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0.4125</v>
+      </c>
+      <c r="AA142">
+        <v>-0.5</v>
+      </c>
+      <c r="AB142">
+        <v>-1</v>
+      </c>
+      <c r="AC142">
         <v>0.925</v>
-      </c>
-      <c r="AA142">
-        <v>-1</v>
-      </c>
-      <c r="AB142">
-        <v>0.4875</v>
-      </c>
-      <c r="AC142">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,76 +13364,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M145">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6918235</v>
+        <v>6893741</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>1.142</v>
+        <v>2.4</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P146">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q146">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
         <v>1.825</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.975</v>
       </c>
-      <c r="T146">
-        <v>4.75</v>
-      </c>
-      <c r="U146">
-        <v>1.875</v>
-      </c>
-      <c r="V146">
-        <v>1.825</v>
-      </c>
       <c r="W146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6893741</v>
+        <v>6893369</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,10 +13542,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13557,61 +13557,61 @@
         <v>50</v>
       </c>
       <c r="K147">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
         <v>4.2</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="N147">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
@@ -14699,7 +14699,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -15233,7 +15233,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166" t="s">
         <v>32</v>
@@ -15411,7 +15411,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M169">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N170">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X170">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -17105,7 +17105,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17814,7 +17814,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>
@@ -17884,6 +17884,169 @@
       </c>
       <c r="AC195">
         <v>0.925</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7725755</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45360.41666666666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s">
+        <v>42</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>48</v>
+      </c>
+      <c r="K196">
+        <v>2.875</v>
+      </c>
+      <c r="L196">
+        <v>4.2</v>
+      </c>
+      <c r="M196">
+        <v>1.909</v>
+      </c>
+      <c r="N196">
+        <v>2.5</v>
+      </c>
+      <c r="O196">
+        <v>4.2</v>
+      </c>
+      <c r="P196">
+        <v>2.15</v>
+      </c>
+      <c r="Q196">
+        <v>0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>3.5</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
+        <v>1.925</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.8</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7613394</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45363.625</v>
+      </c>
+      <c r="F197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" t="s">
+        <v>38</v>
+      </c>
+      <c r="K197">
+        <v>1.1</v>
+      </c>
+      <c r="L197">
+        <v>9</v>
+      </c>
+      <c r="M197">
+        <v>11</v>
+      </c>
+      <c r="N197">
+        <v>1.111</v>
+      </c>
+      <c r="O197">
+        <v>8.5</v>
+      </c>
+      <c r="P197">
+        <v>15</v>
+      </c>
+      <c r="Q197">
+        <v>-2.75</v>
+      </c>
+      <c r="R197">
+        <v>1.85</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>4.25</v>
+      </c>
+      <c r="U197">
+        <v>1.75</v>
+      </c>
+      <c r="V197">
+        <v>2.05</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Uhlenhorster SC Paloma</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
+    <t>FC Alsterbruder</t>
   </si>
   <si>
-    <t>FC Alsterbruder</t>
+    <t>TSV Buchholz 08</t>
   </si>
   <si>
     <t>FC Union Tornesch</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893654</v>
+        <v>6893655</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,58 +1705,58 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
         <v>1.925</v>
       </c>
-      <c r="S14">
-        <v>1.875</v>
-      </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1765,16 +1765,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893332</v>
+        <v>6893654</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1809,25 +1809,25 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O15">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P15">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R15">
         <v>1.925</v>
@@ -1836,7 +1836,7 @@
         <v>1.875</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1845,7 +1845,7 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>2.4</v>
+        <v>0.333</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6893655</v>
+        <v>6893332</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,55 +1886,55 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
         <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
         <v>1.875</v>
       </c>
-      <c r="S16">
+      <c r="T16">
+        <v>3.25</v>
+      </c>
+      <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
         <v>1.925</v>
       </c>
-      <c r="T16">
-        <v>3.75</v>
-      </c>
-      <c r="U16">
-        <v>1.95</v>
-      </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>0.8500000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1943,16 +1943,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.925</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.875</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6893660</v>
+        <v>6893659</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,16 +2239,16 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
@@ -2263,52 +2263,52 @@
         <v>2.6</v>
       </c>
       <c r="N20">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P20">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AA20">
-        <v>0.5</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
         <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <v>2.1</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O21">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,76 +2417,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P22">
+        <v>2.8</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>3.5</v>
       </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
+      <c r="U22">
         <v>1.95</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="T22">
-        <v>4</v>
-      </c>
-      <c r="U22">
-        <v>1.9</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3307,7 +3307,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3396,7 +3396,7 @@
         <v>45158.375</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6893334</v>
+        <v>6893670</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
+        <v>4.5</v>
+      </c>
+      <c r="M36">
+        <v>1.615</v>
+      </c>
+      <c r="N36">
+        <v>2.625</v>
+      </c>
+      <c r="O36">
         <v>4.2</v>
       </c>
-      <c r="M36">
-        <v>2.3</v>
-      </c>
-      <c r="N36">
-        <v>1.833</v>
-      </c>
-      <c r="O36">
-        <v>4.5</v>
-      </c>
       <c r="P36">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q36">
+        <v>0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>3.75</v>
+      </c>
+      <c r="U36">
+        <v>1.85</v>
+      </c>
+      <c r="V36">
+        <v>1.95</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.875</v>
+      </c>
+      <c r="AB36">
+        <v>0.425</v>
+      </c>
+      <c r="AC36">
         <v>-0.5</v>
-      </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.9</v>
-      </c>
-      <c r="T36">
-        <v>4.25</v>
-      </c>
-      <c r="U36">
-        <v>1.975</v>
-      </c>
-      <c r="V36">
-        <v>1.825</v>
-      </c>
-      <c r="W36">
-        <v>0.833</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC36">
-        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3829,7 +3829,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6893670</v>
+        <v>6893334</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3841,76 +3841,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L38">
+        <v>4.2</v>
+      </c>
+      <c r="M38">
+        <v>2.3</v>
+      </c>
+      <c r="N38">
+        <v>1.833</v>
+      </c>
+      <c r="O38">
         <v>4.5</v>
       </c>
-      <c r="M38">
-        <v>1.615</v>
-      </c>
-      <c r="N38">
-        <v>2.625</v>
-      </c>
-      <c r="O38">
-        <v>4.2</v>
-      </c>
       <c r="P38">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4541,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6893675</v>
+        <v>6918248</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4553,73 +4553,73 @@
         <v>45171.375</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N46">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P46">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q46">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
         <v>3.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4630,7 +4630,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6918248</v>
+        <v>6893675</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4642,73 +4642,73 @@
         <v>45171.375</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K47">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N47">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O47">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>45172.375</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,58 +5354,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>48</v>
       </c>
       <c r="K55">
+        <v>4.5</v>
+      </c>
+      <c r="L55">
+        <v>4.2</v>
+      </c>
+      <c r="M55">
+        <v>1.533</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>1.75</v>
+      </c>
+      <c r="Q55">
+        <v>0.75</v>
+      </c>
+      <c r="R55">
+        <v>1.85</v>
+      </c>
+      <c r="S55">
         <v>1.95</v>
       </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <v>2.875</v>
-      </c>
-      <c r="N55">
-        <v>1.333</v>
-      </c>
-      <c r="O55">
-        <v>4.75</v>
-      </c>
-      <c r="P55">
-        <v>6</v>
-      </c>
-      <c r="Q55">
-        <v>-1.75</v>
-      </c>
-      <c r="R55">
+      <c r="T55">
+        <v>3.75</v>
+      </c>
+      <c r="U55">
+        <v>1.825</v>
+      </c>
+      <c r="V55">
         <v>1.975</v>
       </c>
-      <c r="S55">
-        <v>1.825</v>
-      </c>
-      <c r="T55">
-        <v>4</v>
-      </c>
-      <c r="U55">
-        <v>1.85</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5414,16 +5414,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5446,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893680</v>
+        <v>6893679</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,58 +5532,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="N57">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="O57">
+        <v>4.75</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>-1.75</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
+        <v>1.825</v>
+      </c>
+      <c r="T57">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>1.75</v>
-      </c>
-      <c r="Q57">
-        <v>0.75</v>
-      </c>
-      <c r="R57">
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.95</v>
       </c>
-      <c r="T57">
-        <v>3.75</v>
-      </c>
-      <c r="U57">
-        <v>1.825</v>
-      </c>
-      <c r="V57">
-        <v>1.975</v>
-      </c>
       <c r="W57">
-        <v>2.6</v>
+        <v>0.333</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893683</v>
+        <v>6893337</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45179.375</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K61">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N61">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P61">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
         <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V61">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y61">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6893337</v>
+        <v>6893683</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45179.375</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L62">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M62">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P62">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.825</v>
-      </c>
-      <c r="AB62">
-        <v>-1</v>
-      </c>
-      <c r="AC62">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,13 +6155,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6170,43 +6170,43 @@
         <v>48</v>
       </c>
       <c r="K64">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L64">
+        <v>4.75</v>
+      </c>
+      <c r="M64">
         <v>4.5</v>
       </c>
-      <c r="M64">
-        <v>1.666</v>
-      </c>
       <c r="N64">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P64">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
+        <v>1.925</v>
+      </c>
+      <c r="S64">
+        <v>1.875</v>
+      </c>
+      <c r="T64">
+        <v>3.75</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.85</v>
       </c>
-      <c r="T64">
-        <v>3.5</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
       <c r="W64">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6892996</v>
+        <v>6893685</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6348,43 +6348,43 @@
         <v>48</v>
       </c>
       <c r="K66">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L66">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>1.666</v>
       </c>
       <c r="N66">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U66">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>0.444</v>
+        <v>2.4</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,16 +6393,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6588,7 +6588,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6893691</v>
+        <v>6893690</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6600,40 +6600,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N69">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O69">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P69">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <v>1.85</v>
@@ -6642,34 +6642,34 @@
         <v>1.95</v>
       </c>
       <c r="T69">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893689</v>
+        <v>6893691</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,13 +6689,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6704,25 +6704,25 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O70">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>-3</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,16 +6731,16 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893690</v>
+        <v>6893689</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,40 +6778,40 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M71">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>1.125</v>
       </c>
       <c r="O71">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="P71">
-        <v>1.6</v>
+        <v>13</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,34 +6820,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,49 +7045,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>3</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L74">
         <v>4.5</v>
       </c>
       <c r="M74">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O74">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P74">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
         <v>1.8</v>
@@ -7096,25 +7096,25 @@
         <v>2</v>
       </c>
       <c r="W74">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,49 +7134,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
       </c>
       <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
         <v>4.5</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N75">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P75">
+        <v>4.333</v>
+      </c>
+      <c r="Q75">
+        <v>-1.25</v>
+      </c>
+      <c r="R75">
+        <v>1.925</v>
+      </c>
+      <c r="S75">
+        <v>1.775</v>
+      </c>
+      <c r="T75">
         <v>4</v>
-      </c>
-      <c r="Q75">
-        <v>-1</v>
-      </c>
-      <c r="R75">
-        <v>1.85</v>
-      </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>3.75</v>
       </c>
       <c r="U75">
         <v>1.8</v>
@@ -7185,25 +7185,25 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45186.375</v>
       </c>
       <c r="F76" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N76">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O76">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P76">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45186.375</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L77">
+        <v>5.5</v>
+      </c>
+      <c r="M77">
+        <v>1.333</v>
+      </c>
+      <c r="N77">
         <v>4.5</v>
       </c>
-      <c r="M77">
-        <v>1.533</v>
-      </c>
-      <c r="N77">
-        <v>4.333</v>
-      </c>
       <c r="O77">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P77">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>3.75</v>
+      </c>
+      <c r="U77">
         <v>1.875</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>1.925</v>
       </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.975</v>
-      </c>
-      <c r="V77">
-        <v>1.825</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7846,7 +7846,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -8024,7 +8024,7 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -8294,7 +8294,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>6</v>
@@ -8825,7 +8825,7 @@
         <v>45200.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -9540,7 +9540,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M107">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,7 +10160,7 @@
         <v>45214.375</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P113">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L114">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O114">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T114">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10786,7 +10786,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11142,7 +11142,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11584,7 +11584,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,58 +12029,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L130">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O130">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12089,7 +12089,7 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -12098,7 +12098,7 @@
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,58 +12118,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L131">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P131">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>3.75</v>
+      </c>
+      <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="S131">
-        <v>1.85</v>
-      </c>
-      <c r="T131">
-        <v>3.5</v>
-      </c>
-      <c r="U131">
-        <v>1.875</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
       <c r="W131">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,16 +12178,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.95</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12388,7 +12388,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>7</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893740</v>
+        <v>6893738</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L140">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>1.2</v>
+        <v>1.363</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="O140">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="Q140">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>3.75</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y140">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC140">
         <v>-0.5</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893738</v>
+        <v>6893737</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K141">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="L141">
         <v>5</v>
       </c>
       <c r="M141">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4.5</v>
+      </c>
+      <c r="P141">
         <v>3.5</v>
       </c>
-      <c r="O141">
-        <v>4.2</v>
-      </c>
-      <c r="P141">
-        <v>1.666</v>
-      </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>0.4125</v>
+      </c>
+      <c r="AA141">
+        <v>-0.5</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.925</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.4875</v>
-      </c>
-      <c r="AC141">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893737</v>
+        <v>6893740</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>9</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M142">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="N142">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O142">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
         <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>1.975</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
+        <v>1.925</v>
+      </c>
+      <c r="V142">
         <v>1.875</v>
       </c>
-      <c r="V142">
-        <v>1.925</v>
-      </c>
       <c r="W142">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z142">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
+        <v>0.825</v>
+      </c>
+      <c r="AB142">
+        <v>0.4625</v>
+      </c>
+      <c r="AC142">
         <v>-0.5</v>
-      </c>
-      <c r="AB142">
-        <v>-1</v>
-      </c>
-      <c r="AC142">
-        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,76 +13364,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H145">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K145">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N145">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q145">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6893741</v>
+        <v>6918235</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L146">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N146">
-        <v>2.4</v>
+        <v>1.142</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
+        <v>1.975</v>
+      </c>
+      <c r="T146">
+        <v>4.75</v>
+      </c>
+      <c r="U146">
         <v>1.875</v>
       </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
-      <c r="U146">
+      <c r="V146">
         <v>1.825</v>
       </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X146">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13530,7 +13530,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6893369</v>
+        <v>6893741</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13542,10 +13542,10 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13557,61 +13557,61 @@
         <v>50</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L147">
         <v>4.2</v>
       </c>
       <c r="M147">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14610,7 +14610,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
         <v>35</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,40 +14966,40 @@
         <v>45325.375</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L163">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M163">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N163">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O163">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q163">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R163">
         <v>1.95</v>
@@ -15008,13 +15008,13 @@
         <v>1.85</v>
       </c>
       <c r="T163">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15032,10 +15032,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,40 +15055,40 @@
         <v>45325.375</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L164">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M164">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N164">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O164">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P164">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q164">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -15097,13 +15097,13 @@
         <v>1.85</v>
       </c>
       <c r="T164">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15112,7 +15112,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15121,10 +15121,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15322,7 +15322,7 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
         <v>34</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L169">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M169">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N169">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O169">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U169">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X169">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K170">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L170">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M170">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N170">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U170">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W170">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16657,7 +16657,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16838,7 +16838,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>4</v>
@@ -16927,7 +16927,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6893771</v>
+        <v>6893012</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M188">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N188">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O188">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P188">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,13 +17251,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893012</v>
+        <v>6893771</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L189">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N189">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O189">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P189">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q189">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V189">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,13 +17340,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17624,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6893309</v>
+        <v>6893779</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17636,76 +17636,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G193" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
         <v>50</v>
       </c>
       <c r="K193">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L193">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M193">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="N193">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="O193">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q193">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
         <v>4</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17713,7 +17713,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6893779</v>
+        <v>6893309</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17725,76 +17725,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>50</v>
       </c>
       <c r="K194">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L194">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M194">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>1.181</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P194">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q194">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
         <v>4</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17906,7 +17906,7 @@
         <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17997,6 +17997,15 @@
       <c r="G197" t="s">
         <v>38</v>
       </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
+      </c>
       <c r="K197">
         <v>1.1</v>
       </c>
@@ -18007,45 +18016,481 @@
         <v>11</v>
       </c>
       <c r="N197">
-        <v>1.111</v>
+        <v>1.071</v>
       </c>
       <c r="O197">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="P197">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q197">
-        <v>-2.75</v>
+        <v>-3.5</v>
       </c>
       <c r="R197">
+        <v>1.975</v>
+      </c>
+      <c r="S197">
+        <v>1.825</v>
+      </c>
+      <c r="T197">
+        <v>4.75</v>
+      </c>
+      <c r="U197">
+        <v>1.825</v>
+      </c>
+      <c r="V197">
+        <v>1.975</v>
+      </c>
+      <c r="W197">
+        <v>0.07099999999999995</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.825</v>
+      </c>
+      <c r="AB197">
+        <v>0.4125</v>
+      </c>
+      <c r="AC197">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>6893782</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198">
+        <v>3</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>50</v>
+      </c>
+      <c r="K198">
+        <v>2.2</v>
+      </c>
+      <c r="L198">
+        <v>4.2</v>
+      </c>
+      <c r="M198">
+        <v>2.375</v>
+      </c>
+      <c r="N198">
+        <v>2.2</v>
+      </c>
+      <c r="O198">
+        <v>4.2</v>
+      </c>
+      <c r="P198">
+        <v>2.375</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>2.05</v>
+      </c>
+      <c r="S198">
+        <v>1.75</v>
+      </c>
+      <c r="T198">
+        <v>3.75</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>3.2</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>-0.5</v>
+      </c>
+      <c r="AA198">
+        <v>0.375</v>
+      </c>
+      <c r="AB198">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC198">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>6893783</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>29</v>
+      </c>
+      <c r="G199" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199">
+        <v>5</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
+      <c r="K199">
+        <v>2.15</v>
+      </c>
+      <c r="L199">
+        <v>4.2</v>
+      </c>
+      <c r="M199">
+        <v>2.4</v>
+      </c>
+      <c r="N199">
+        <v>1.55</v>
+      </c>
+      <c r="O199">
+        <v>4.333</v>
+      </c>
+      <c r="P199">
+        <v>4</v>
+      </c>
+      <c r="Q199">
+        <v>-1</v>
+      </c>
+      <c r="R199">
         <v>1.85</v>
       </c>
-      <c r="S197">
+      <c r="S199">
         <v>1.95</v>
       </c>
-      <c r="T197">
-        <v>4.25</v>
-      </c>
-      <c r="U197">
-        <v>1.75</v>
-      </c>
-      <c r="V197">
-        <v>2.05</v>
-      </c>
-      <c r="W197">
+      <c r="T199">
+        <v>3.75</v>
+      </c>
+      <c r="U199">
+        <v>1.975</v>
+      </c>
+      <c r="V199">
+        <v>1.825</v>
+      </c>
+      <c r="W199">
+        <v>0.55</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6918227</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45367.375</v>
+      </c>
+      <c r="F200" t="s">
+        <v>38</v>
+      </c>
+      <c r="G200" t="s">
+        <v>43</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>5</v>
+      </c>
+      <c r="J200" t="s">
+        <v>49</v>
+      </c>
+      <c r="K200">
+        <v>1.909</v>
+      </c>
+      <c r="L200">
+        <v>4.2</v>
+      </c>
+      <c r="M200">
+        <v>2.875</v>
+      </c>
+      <c r="N200">
+        <v>1.909</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>2.875</v>
+      </c>
+      <c r="Q200">
+        <v>-0.5</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.85</v>
+      </c>
+      <c r="T200">
+        <v>3.5</v>
+      </c>
+      <c r="U200">
+        <v>1.875</v>
+      </c>
+      <c r="V200">
+        <v>1.925</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>1.875</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB200">
+        <v>0.875</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6893784</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
+        <v>47</v>
+      </c>
+      <c r="H201">
+        <v>3</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>49</v>
+      </c>
+      <c r="K201">
+        <v>1.8</v>
+      </c>
+      <c r="L201">
+        <v>4.2</v>
+      </c>
+      <c r="M201">
+        <v>3.1</v>
+      </c>
+      <c r="N201">
+        <v>2.25</v>
+      </c>
+      <c r="O201">
+        <v>4</v>
+      </c>
+      <c r="P201">
+        <v>2.375</v>
+      </c>
+      <c r="Q201">
         <v>0</v>
       </c>
-      <c r="X197">
+      <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>3</v>
+      </c>
+      <c r="U201">
+        <v>1.9</v>
+      </c>
+      <c r="V201">
+        <v>1.9</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>1.375</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6893310</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45368.41666666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>3.4</v>
+      </c>
+      <c r="L202">
+        <v>4.2</v>
+      </c>
+      <c r="M202">
+        <v>1.727</v>
+      </c>
+      <c r="N202">
+        <v>3.4</v>
+      </c>
+      <c r="O202">
+        <v>4.2</v>
+      </c>
+      <c r="P202">
+        <v>1.727</v>
+      </c>
+      <c r="Q202">
+        <v>0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.85</v>
+      </c>
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>3.5</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
         <v>0</v>
       </c>
-      <c r="Y197">
+      <c r="X202">
         <v>0</v>
       </c>
-      <c r="Z197">
+      <c r="Y202">
         <v>0</v>
       </c>
-      <c r="AA197">
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
         <v>0</v>
       </c>
     </row>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -139,16 +139,16 @@
     <t>Uhlenhorster SC Paloma</t>
   </si>
   <si>
+    <t>TSV Buchholz 08</t>
+  </si>
+  <si>
     <t>FC Alsterbruder</t>
   </si>
   <si>
-    <t>TSV Buchholz 08</t>
+    <t>TSV Sasel</t>
   </si>
   <si>
     <t>FC Union Tornesch</t>
-  </si>
-  <si>
-    <t>TSV Sasel</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893655</v>
+        <v>6893654</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,58 +1705,58 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L14">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N14">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R14">
+        <v>1.925</v>
+      </c>
+      <c r="S14">
         <v>1.875</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>1.875</v>
+      </c>
+      <c r="V14">
         <v>1.925</v>
       </c>
-      <c r="T14">
-        <v>3.75</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.85</v>
-      </c>
       <c r="W14">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1765,16 +1765,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.925</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.875</v>
       </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1782,7 +1782,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6893654</v>
+        <v>6893332</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1794,13 +1794,13 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1809,25 +1809,25 @@
         <v>48</v>
       </c>
       <c r="K15">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15">
+        <v>2.3</v>
+      </c>
+      <c r="N15">
+        <v>3.4</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="N15">
-        <v>1.333</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
       <c r="P15">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="Q15">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
         <v>1.925</v>
@@ -1836,7 +1836,7 @@
         <v>1.875</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1845,7 +1845,7 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>2.4</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6893332</v>
+        <v>6893655</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1886,55 +1886,55 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="N16">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P16">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
         <v>1.925</v>
       </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
-        <v>2.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1943,16 +1943,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>1.444</v>
+      </c>
+      <c r="L17">
+        <v>4.5</v>
+      </c>
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="M17">
-        <v>1.1</v>
-      </c>
       <c r="N17">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.1</v>
+      </c>
+      <c r="N18">
+        <v>19</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>1.083</v>
+      </c>
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>1.444</v>
-      </c>
-      <c r="L18">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8</v>
+      </c>
+      <c r="T18">
         <v>4.5</v>
       </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>1.25</v>
-      </c>
-      <c r="O18">
-        <v>5.5</v>
-      </c>
-      <c r="P18">
-        <v>7.5</v>
-      </c>
-      <c r="Q18">
-        <v>-2</v>
-      </c>
-      <c r="R18">
+      <c r="U18">
         <v>1.875</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.925</v>
       </c>
-      <c r="T18">
-        <v>4.25</v>
-      </c>
-      <c r="U18">
-        <v>1.975</v>
-      </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6893659</v>
+        <v>6892992</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
         <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>2.1</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="O20">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N21">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P21">
+        <v>2.8</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
         <v>3.5</v>
       </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
+      <c r="U21">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="T21">
-        <v>4</v>
-      </c>
-      <c r="U21">
-        <v>1.9</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2405,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6893660</v>
+        <v>6893659</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2417,16 +2417,16 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>50</v>
@@ -2441,52 +2441,52 @@
         <v>2.6</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P22">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB22">
         <v>-0.5</v>
       </c>
-      <c r="AA22">
-        <v>0.5</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6893288</v>
+        <v>6893667</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,73 +3310,73 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>4.2</v>
+      </c>
+      <c r="M32">
+        <v>1.6</v>
+      </c>
+      <c r="N32">
+        <v>7.5</v>
+      </c>
+      <c r="O32">
+        <v>5.75</v>
+      </c>
+      <c r="P32">
+        <v>1.285</v>
+      </c>
+      <c r="Q32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32">
-        <v>2.1</v>
-      </c>
-      <c r="L32">
+      <c r="R32">
+        <v>1.825</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>2.6</v>
-      </c>
-      <c r="N32">
-        <v>2.5</v>
-      </c>
-      <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32">
-        <v>2.15</v>
-      </c>
-      <c r="Q32">
-        <v>0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.8</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>3.75</v>
-      </c>
       <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3384,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6893667</v>
+        <v>6893288</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,73 +3399,73 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
+        <v>2.1</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="L33">
-        <v>4.2</v>
-      </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="N33">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="O33">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
+        <v>0.25</v>
+      </c>
+      <c r="R33">
+        <v>1.8</v>
+      </c>
+      <c r="S33">
         <v>2</v>
       </c>
-      <c r="R33">
-        <v>1.825</v>
-      </c>
-      <c r="S33">
-        <v>1.975</v>
-      </c>
       <c r="T33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>1.95</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3574,7 +3574,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3651,7 +3651,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6893670</v>
+        <v>6918249</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3663,76 +3663,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>1.181</v>
       </c>
       <c r="L36">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="O36">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3740,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6918249</v>
+        <v>6893670</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3752,76 +3752,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>1.181</v>
+        <v>3.6</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N37">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="O37">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Q37">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
+        <v>1.925</v>
+      </c>
+      <c r="S37">
+        <v>1.875</v>
+      </c>
+      <c r="T37">
+        <v>3.75</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>1.95</v>
       </c>
-      <c r="S37">
-        <v>1.85</v>
-      </c>
-      <c r="T37">
-        <v>4.75</v>
-      </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.9</v>
-      </c>
       <c r="W37">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB37">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4909,7 +4909,7 @@
         <v>45172.375</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -4998,7 +4998,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -5087,7 +5087,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5342,7 +5342,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6893680</v>
+        <v>6893291</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5354,73 +5354,73 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K55">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q55">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5431,7 +5431,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6893291</v>
+        <v>6893679</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5443,76 +5443,76 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L56">
         <v>4</v>
       </c>
       <c r="M56">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N56">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O56">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X56">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5520,7 +5520,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6893679</v>
+        <v>6893680</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5532,58 +5532,58 @@
         <v>45177.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
+        <v>4.5</v>
+      </c>
+      <c r="L57">
+        <v>4.2</v>
+      </c>
+      <c r="M57">
+        <v>1.533</v>
+      </c>
+      <c r="N57">
+        <v>3.6</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+      <c r="P57">
+        <v>1.75</v>
+      </c>
+      <c r="Q57">
+        <v>0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
         <v>1.95</v>
       </c>
-      <c r="L57">
-        <v>4</v>
-      </c>
-      <c r="M57">
-        <v>2.875</v>
-      </c>
-      <c r="N57">
-        <v>1.333</v>
-      </c>
-      <c r="O57">
-        <v>4.75</v>
-      </c>
-      <c r="P57">
-        <v>6</v>
-      </c>
-      <c r="Q57">
-        <v>-1.75</v>
-      </c>
-      <c r="R57">
+      <c r="T57">
+        <v>3.75</v>
+      </c>
+      <c r="U57">
+        <v>1.825</v>
+      </c>
+      <c r="V57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>1.825</v>
-      </c>
-      <c r="T57">
-        <v>4</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>0.333</v>
+        <v>2.6</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5713,7 +5713,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -5802,7 +5802,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -5876,7 +5876,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6893337</v>
+        <v>6893683</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5888,76 +5888,76 @@
         <v>45179.375</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M61">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O61">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P61">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
         <v>3.75</v>
       </c>
       <c r="U61">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>0.825</v>
-      </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
-      <c r="AC61">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5965,7 +5965,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6893683</v>
+        <v>6893337</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5977,76 +5977,76 @@
         <v>45179.375</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="L62">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N62">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O62">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q62">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>3.75</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6143,7 +6143,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6892996</v>
+        <v>6893684</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,58 +6155,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
         <v>2</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
       </c>
       <c r="K64">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L64">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P64">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q64">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U64">
+        <v>1.75</v>
+      </c>
+      <c r="V64">
         <v>1.95</v>
       </c>
-      <c r="V64">
-        <v>1.85</v>
-      </c>
       <c r="W64">
-        <v>0.444</v>
+        <v>2</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6215,16 +6215,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6232,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6893684</v>
+        <v>6893685</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,58 +6244,58 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
       </c>
       <c r="K65">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P65">
+        <v>1.666</v>
+      </c>
+      <c r="Q65">
+        <v>0.75</v>
+      </c>
+      <c r="R65">
         <v>1.95</v>
       </c>
-      <c r="Q65">
-        <v>0.5</v>
-      </c>
-      <c r="R65">
+      <c r="S65">
+        <v>1.85</v>
+      </c>
+      <c r="T65">
+        <v>3.5</v>
+      </c>
+      <c r="U65">
         <v>1.825</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>1.975</v>
       </c>
-      <c r="T65">
-        <v>4</v>
-      </c>
-      <c r="U65">
-        <v>1.75</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6304,13 +6304,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
+        <v>0.95</v>
+      </c>
+      <c r="AA65">
+        <v>-1</v>
+      </c>
+      <c r="AB65">
         <v>0.825</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.75</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6893685</v>
+        <v>6892996</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6333,13 +6333,13 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -6348,43 +6348,43 @@
         <v>48</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L66">
+        <v>4.75</v>
+      </c>
+      <c r="M66">
         <v>4.5</v>
       </c>
-      <c r="M66">
-        <v>1.666</v>
-      </c>
       <c r="N66">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.875</v>
+      </c>
+      <c r="T66">
+        <v>3.75</v>
+      </c>
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="S66">
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
       <c r="W66">
-        <v>2.4</v>
+        <v>0.444</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6393,16 +6393,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6422,7 +6422,7 @@
         <v>45181.60416666666</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G67" t="s">
         <v>39</v>
@@ -6511,7 +6511,7 @@
         <v>45182.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
         <v>33</v>
@@ -6677,7 +6677,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6893691</v>
+        <v>6893689</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6689,13 +6689,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6704,25 +6704,25 @@
         <v>48</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>1.125</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="P70">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-3</v>
       </c>
       <c r="R70">
         <v>1.85</v>
@@ -6731,16 +6731,16 @@
         <v>1.95</v>
       </c>
       <c r="T70">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>0.125</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6755,10 +6755,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6893689</v>
+        <v>6893691</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6778,13 +6778,13 @@
         <v>45184.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6793,25 +6793,25 @@
         <v>48</v>
       </c>
       <c r="K71">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>1.125</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q71">
-        <v>-3</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.85</v>
@@ -6820,16 +6820,16 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>5.25</v>
+        <v>4.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
-        <v>0.125</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6844,10 +6844,10 @@
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7033,7 +7033,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6892997</v>
+        <v>6893693</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,49 +7045,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>42</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>3</v>
-      </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
         <v>4.5</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N74">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O74">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P74">
+        <v>4.333</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
+        <v>1.925</v>
+      </c>
+      <c r="S74">
+        <v>1.775</v>
+      </c>
+      <c r="T74">
         <v>4</v>
-      </c>
-      <c r="Q74">
-        <v>-1</v>
-      </c>
-      <c r="R74">
-        <v>1.85</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>3.75</v>
       </c>
       <c r="U74">
         <v>1.8</v>
@@ -7096,25 +7096,25 @@
         <v>2</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7122,7 +7122,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6893693</v>
+        <v>6892997</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7134,49 +7134,49 @@
         <v>45186.23958333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>41</v>
       </c>
       <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>3</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="L75">
         <v>4.5</v>
       </c>
       <c r="M75">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U75">
         <v>1.8</v>
@@ -7185,25 +7185,25 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7211,7 +7211,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6893694</v>
+        <v>6893293</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7223,76 +7223,76 @@
         <v>45186.375</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L76">
+        <v>5.5</v>
+      </c>
+      <c r="M76">
+        <v>1.333</v>
+      </c>
+      <c r="N76">
         <v>4.5</v>
       </c>
-      <c r="M76">
-        <v>1.533</v>
-      </c>
-      <c r="N76">
-        <v>4.333</v>
-      </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P76">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q76">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1.8</v>
+      </c>
+      <c r="T76">
+        <v>3.75</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7300,7 +7300,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6893293</v>
+        <v>6893694</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7312,76 +7312,76 @@
         <v>45186.375</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K77">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L77">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="N77">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O77">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7846,7 +7846,7 @@
         <v>45193.33333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
@@ -7923,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6893340</v>
+        <v>6893294</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7935,58 +7935,58 @@
         <v>45193.375</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>48</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="L84">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M84">
         <v>4.5</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.75</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0.8500000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7995,16 +7995,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8012,7 +8012,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6893294</v>
+        <v>6893340</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8024,58 +8024,58 @@
         <v>45193.375</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M85">
         <v>4.5</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.75</v>
       </c>
       <c r="U85">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8084,16 +8084,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8294,7 +8294,7 @@
         <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>6</v>
@@ -8383,7 +8383,7 @@
         <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6892999</v>
+        <v>6893703</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q92">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W92">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8724,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6893703</v>
+        <v>6892999</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8736,76 +8736,76 @@
         <v>45200.23958333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N93">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O93">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q93">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X93">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC93">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,7 +8813,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6893295</v>
+        <v>6893341</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8825,76 +8825,76 @@
         <v>45200.375</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="L94">
         <v>4.2</v>
       </c>
       <c r="M94">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N94">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P94">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q94">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W94">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6893341</v>
+        <v>6893295</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,76 +8914,76 @@
         <v>45200.375</v>
       </c>
       <c r="F95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L95">
         <v>4.2</v>
       </c>
       <c r="M95">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O95">
+        <v>4.333</v>
+      </c>
+      <c r="P95">
         <v>4.5</v>
       </c>
-      <c r="P95">
-        <v>1.4</v>
-      </c>
       <c r="Q95">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9537,10 +9537,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9970,7 +9970,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6893297</v>
+        <v>6893712</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9982,76 +9982,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
         <v>4.2</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6893712</v>
+        <v>6893297</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10071,76 +10071,76 @@
         <v>45214.23958333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L108">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O108">
         <v>4.2</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10160,10 +10160,10 @@
         <v>45214.375</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10504,7 +10504,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6893364</v>
+        <v>6893365</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10516,10 +10516,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10531,40 +10531,40 @@
         <v>49</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O113">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T113">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,16 +10573,16 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.375</v>
+        <v>4.25</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10593,7 +10593,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6893365</v>
+        <v>6893364</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10605,10 +10605,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10620,40 +10620,40 @@
         <v>49</v>
       </c>
       <c r="K114">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N114">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O114">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q114">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10662,16 +10662,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>1.375</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10786,7 +10786,7 @@
         <v>46</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11038,7 +11038,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6893726</v>
+        <v>6893727</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11050,76 +11050,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N119">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.75</v>
       </c>
       <c r="U119">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC119">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11142,7 +11142,7 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11216,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6893727</v>
+        <v>6893726</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11228,76 +11228,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M121">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N121">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>3.75</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11483,7 +11483,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6893730</v>
+        <v>6893729</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11495,40 +11495,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="L124">
         <v>5.5</v>
       </c>
       <c r="M124">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="N124">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P124">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q124">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11537,34 +11537,34 @@
         <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y124">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>-1</v>
-      </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11572,7 +11572,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6893729</v>
+        <v>6893730</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11584,40 +11584,40 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
         <v>5.5</v>
       </c>
       <c r="M125">
-        <v>7.5</v>
+        <v>1.333</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O125">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>1.25</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11626,34 +11626,34 @@
         <v>1.975</v>
       </c>
       <c r="T125">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA125">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12017,7 +12017,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6893006</v>
+        <v>6893732</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12029,58 +12029,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>48</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>3.75</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="S130">
-        <v>1.85</v>
-      </c>
-      <c r="T130">
-        <v>3.5</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
       <c r="W130">
-        <v>1.625</v>
+        <v>0.3</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12089,16 +12089,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.95</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6893732</v>
+        <v>6893006</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12118,58 +12118,58 @@
         <v>45242.28125</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>48</v>
       </c>
       <c r="K131">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="O131">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.3</v>
+        <v>1.625</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12178,7 +12178,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12187,7 +12187,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6893733</v>
+        <v>6893735</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12207,13 +12207,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
@@ -12222,61 +12222,61 @@
         <v>49</v>
       </c>
       <c r="K132">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L132">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O132">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
+        <v>2.9</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
         <v>2</v>
       </c>
-      <c r="Q132">
-        <v>0.25</v>
-      </c>
-      <c r="R132">
+      <c r="T132">
+        <v>4</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="S132">
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="T132">
-        <v>3.75</v>
-      </c>
-      <c r="U132">
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
         <v>1.9</v>
       </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>1</v>
       </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12284,7 +12284,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6893735</v>
+        <v>6893733</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12296,13 +12296,13 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -12311,40 +12311,40 @@
         <v>49</v>
       </c>
       <c r="K133">
+        <v>2.3</v>
+      </c>
+      <c r="L133">
+        <v>4.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>2.625</v>
+      </c>
+      <c r="O133">
+        <v>4.2</v>
+      </c>
+      <c r="P133">
+        <v>2</v>
+      </c>
+      <c r="Q133">
+        <v>0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.95</v>
+      </c>
+      <c r="S133">
         <v>1.85</v>
       </c>
-      <c r="L133">
-        <v>4</v>
-      </c>
-      <c r="M133">
-        <v>3.1</v>
-      </c>
-      <c r="N133">
-        <v>1.95</v>
-      </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
-      <c r="P133">
-        <v>2.9</v>
-      </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.8</v>
-      </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
       <c r="T133">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12353,19 +12353,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12385,10 +12385,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>7</v>
@@ -12907,7 +12907,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6893738</v>
+        <v>6893740</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12919,73 +12919,73 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K140">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>1.363</v>
+        <v>1.2</v>
       </c>
       <c r="N140">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P140">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="Q140">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
         <v>3.75</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB140">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC140">
         <v>-0.5</v>
@@ -12996,7 +12996,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6893737</v>
+        <v>6893738</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13008,76 +13008,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K141">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="L141">
         <v>5</v>
       </c>
       <c r="M141">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="O141">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T141">
         <v>3.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>0.4875</v>
+      </c>
+      <c r="AC141">
         <v>-0.5</v>
-      </c>
-      <c r="AB141">
-        <v>-1</v>
-      </c>
-      <c r="AC141">
-        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6893740</v>
+        <v>6893737</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13097,76 +13097,76 @@
         <v>45249.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="L142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="N142">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O142">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P142">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
         <v>1.975</v>
-      </c>
-      <c r="S142">
-        <v>1.825</v>
       </c>
       <c r="T142">
         <v>3.75</v>
       </c>
       <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
         <v>1.925</v>
       </c>
-      <c r="V142">
-        <v>1.875</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB142">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>45249.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13352,7 +13352,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6893369</v>
+        <v>6918235</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13364,76 +13364,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M145">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-2.75</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6918235</v>
+        <v>6893369</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13453,76 +13453,76 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H146">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K146">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L146">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M146">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="N146">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P146">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Q146">
-        <v>-2.75</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T146">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13545,7 +13545,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14521,7 +14521,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
@@ -14610,7 +14610,7 @@
         <v>45319.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G159" t="s">
         <v>35</v>
@@ -14699,7 +14699,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
         <v>47</v>
@@ -14954,7 +14954,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6918232</v>
+        <v>6893758</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14966,40 +14966,40 @@
         <v>45325.375</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J163" t="s">
         <v>49</v>
       </c>
       <c r="K163">
-        <v>4.75</v>
+        <v>19</v>
       </c>
       <c r="L163">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="M163">
-        <v>1.444</v>
+        <v>1.04</v>
       </c>
       <c r="N163">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="O163">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P163">
-        <v>1.363</v>
+        <v>1.142</v>
       </c>
       <c r="Q163">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R163">
         <v>1.95</v>
@@ -15008,13 +15008,13 @@
         <v>1.85</v>
       </c>
       <c r="T163">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15023,7 +15023,7 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.363</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="Z163">
         <v>-1</v>
@@ -15032,10 +15032,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15043,7 +15043,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6893758</v>
+        <v>6918232</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15055,40 +15055,40 @@
         <v>45325.375</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J164" t="s">
         <v>49</v>
       </c>
       <c r="K164">
-        <v>19</v>
+        <v>4.75</v>
       </c>
       <c r="L164">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="M164">
-        <v>1.04</v>
+        <v>1.444</v>
       </c>
       <c r="N164">
-        <v>15</v>
+        <v>5.75</v>
       </c>
       <c r="O164">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="P164">
-        <v>1.142</v>
+        <v>1.363</v>
       </c>
       <c r="Q164">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="R164">
         <v>1.95</v>
@@ -15097,13 +15097,13 @@
         <v>1.85</v>
       </c>
       <c r="T164">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15112,7 +15112,7 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.1419999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="Z164">
         <v>-1</v>
@@ -15121,10 +15121,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6893761</v>
+        <v>6893759</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15233,56 +15233,56 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J166" t="s">
         <v>49</v>
       </c>
       <c r="K166">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="L166">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M166">
-        <v>1.062</v>
+        <v>1.727</v>
       </c>
       <c r="N166">
-        <v>23</v>
+        <v>3.8</v>
       </c>
       <c r="O166">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="P166">
-        <v>1.062</v>
+        <v>1.615</v>
       </c>
       <c r="Q166">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="R166">
+        <v>1.775</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>3.75</v>
+      </c>
+      <c r="U166">
+        <v>1.75</v>
+      </c>
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="S166">
-        <v>1.85</v>
-      </c>
-      <c r="T166">
-        <v>4.5</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
         <v>-1</v>
       </c>
@@ -15290,16 +15290,16 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0.06200000000000006</v>
+        <v>0.615</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB166">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15310,7 +15310,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6893759</v>
+        <v>6893761</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15322,55 +15322,55 @@
         <v>45326.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J167" t="s">
         <v>49</v>
       </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="L167">
+        <v>11</v>
+      </c>
+      <c r="M167">
+        <v>1.062</v>
+      </c>
+      <c r="N167">
+        <v>23</v>
+      </c>
+      <c r="O167">
+        <v>13</v>
+      </c>
+      <c r="P167">
+        <v>1.062</v>
+      </c>
+      <c r="Q167">
+        <v>3.25</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
+        <v>1.85</v>
+      </c>
+      <c r="T167">
         <v>4.5</v>
       </c>
-      <c r="M167">
-        <v>1.727</v>
-      </c>
-      <c r="N167">
-        <v>3.8</v>
-      </c>
-      <c r="O167">
-        <v>4.5</v>
-      </c>
-      <c r="P167">
-        <v>1.615</v>
-      </c>
-      <c r="Q167">
-        <v>1</v>
-      </c>
-      <c r="R167">
-        <v>1.775</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>3.75</v>
-      </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -15379,16 +15379,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0.615</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC167">
         <v>-1</v>
@@ -15411,7 +15411,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15488,7 +15488,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6893763</v>
+        <v>6893011</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15500,40 +15500,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K169">
-        <v>1.222</v>
+        <v>2</v>
       </c>
       <c r="L169">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="M169">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N169">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="O169">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>1.9</v>
@@ -15542,34 +15542,34 @@
         <v>1.9</v>
       </c>
       <c r="T169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U169">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W169">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15577,7 +15577,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6893011</v>
+        <v>6893763</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15589,40 +15589,40 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>1.222</v>
       </c>
       <c r="L170">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="M170">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N170">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="Q170">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R170">
         <v>1.9</v>
@@ -15631,34 +15631,34 @@
         <v>1.9</v>
       </c>
       <c r="T170">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="U170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X170">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15844,7 +15844,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6918231</v>
+        <v>6893765</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15856,13 +15856,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15871,43 +15871,43 @@
         <v>48</v>
       </c>
       <c r="K173">
-        <v>1.833</v>
+        <v>1.125</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="M173">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N173">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O173">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="Q173">
-        <v>-0.5</v>
+        <v>-2.5</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>4.25</v>
+      </c>
+      <c r="U173">
+        <v>1.975</v>
+      </c>
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="S173">
-        <v>1.975</v>
-      </c>
-      <c r="T173">
-        <v>3.75</v>
-      </c>
-      <c r="U173">
-        <v>1.925</v>
-      </c>
-      <c r="V173">
-        <v>1.875</v>
-      </c>
       <c r="W173">
-        <v>0.8</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15916,16 +15916,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.825</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
-      <c r="AC173">
-        <v>0.875</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15933,7 +15933,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6893765</v>
+        <v>6918231</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15945,13 +15945,13 @@
         <v>45333.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -15960,43 +15960,43 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>1.125</v>
+        <v>1.833</v>
       </c>
       <c r="L174">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O174">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
-        <v>-2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W174">
-        <v>0.1419999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16005,16 +16005,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16037,7 +16037,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16568,7 +16568,7 @@
         <v>45340.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -16657,7 +16657,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -16734,7 +16734,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6893376</v>
+        <v>6893772</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183">
+        <v>1.909</v>
+      </c>
+      <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
         <v>3</v>
       </c>
-      <c r="J183" t="s">
-        <v>49</v>
-      </c>
-      <c r="K183">
-        <v>1.6</v>
-      </c>
-      <c r="L183">
+      <c r="N183">
+        <v>1.5</v>
+      </c>
+      <c r="O183">
         <v>4.2</v>
       </c>
-      <c r="M183">
-        <v>4</v>
-      </c>
-      <c r="N183">
-        <v>1.533</v>
-      </c>
-      <c r="O183">
-        <v>4.333</v>
-      </c>
       <c r="P183">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q183">
         <v>-1.25</v>
       </c>
       <c r="R183">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S183">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
         <v>4.25</v>
       </c>
       <c r="U183">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA183">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16823,7 +16823,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6893772</v>
+        <v>6893376</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K184">
+        <v>1.6</v>
+      </c>
+      <c r="L184">
+        <v>4.2</v>
+      </c>
+      <c r="M184">
         <v>4</v>
       </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-      <c r="J184" t="s">
-        <v>48</v>
-      </c>
-      <c r="K184">
-        <v>1.909</v>
-      </c>
-      <c r="L184">
-        <v>4</v>
-      </c>
-      <c r="M184">
-        <v>3</v>
-      </c>
       <c r="N184">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O184">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q184">
         <v>-1.25</v>
       </c>
       <c r="R184">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T184">
         <v>4.25</v>
       </c>
       <c r="U184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z184">
+        <v>-1</v>
+      </c>
+      <c r="AA184">
+        <v>0.875</v>
+      </c>
+      <c r="AB184">
         <v>0.825</v>
-      </c>
-      <c r="AA184">
-        <v>-1</v>
-      </c>
-      <c r="AB184">
-        <v>0.95</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16927,7 +16927,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17105,7 +17105,7 @@
         <v>33</v>
       </c>
       <c r="G187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -17179,7 +17179,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6893012</v>
+        <v>6893771</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17191,58 +17191,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>3</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="L188">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N188">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="O188">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P188">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>3.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17251,13 +17251,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17268,7 +17268,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6893771</v>
+        <v>6893012</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17280,58 +17280,58 @@
         <v>45347.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H189">
         <v>3</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="L189">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O189">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P189">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>0.6659999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17340,13 +17340,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17624,7 +17624,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6893779</v>
+        <v>6893309</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17636,76 +17636,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>50</v>
       </c>
       <c r="K193">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="L193">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M193">
-        <v>1.8</v>
+        <v>13</v>
       </c>
       <c r="N193">
-        <v>3.75</v>
+        <v>1.181</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="P193">
-        <v>1.571</v>
+        <v>10</v>
       </c>
       <c r="Q193">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
         <v>4</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17713,7 +17713,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6893309</v>
+        <v>6893779</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17725,76 +17725,76 @@
         <v>45354.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>50</v>
       </c>
       <c r="K194">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="L194">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M194">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="N194">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P194">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="Q194">
-        <v>-2.25</v>
+        <v>1</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
         <v>4</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17814,7 +17814,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
         <v>39</v>
@@ -17906,7 +17906,7 @@
         <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18069,7 +18069,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6893782</v>
+        <v>6893783</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18081,46 +18081,46 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K198">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L198">
         <v>4.2</v>
       </c>
       <c r="M198">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N198">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="O198">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P198">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
         <v>3.75</v>
@@ -18132,19 +18132,19 @@
         <v>1.825</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA198">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>0.9750000000000001</v>
@@ -18158,7 +18158,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6893783</v>
+        <v>6893782</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18170,46 +18170,46 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K199">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L199">
         <v>4.2</v>
       </c>
       <c r="M199">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N199">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O199">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T199">
         <v>3.75</v>
@@ -18221,19 +18221,19 @@
         <v>1.825</v>
       </c>
       <c r="W199">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB199">
         <v>0.9750000000000001</v>
@@ -18262,7 +18262,7 @@
         <v>38</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18425,72 +18425,1347 @@
         <v>200</v>
       </c>
       <c r="B202">
+        <v>6893014</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45368.28125</v>
+      </c>
+      <c r="F202" t="s">
+        <v>40</v>
+      </c>
+      <c r="G202" t="s">
+        <v>46</v>
+      </c>
+      <c r="H202">
+        <v>3</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>48</v>
+      </c>
+      <c r="K202">
+        <v>1.666</v>
+      </c>
+      <c r="L202">
+        <v>4.5</v>
+      </c>
+      <c r="M202">
+        <v>3.4</v>
+      </c>
+      <c r="N202">
+        <v>1.727</v>
+      </c>
+      <c r="O202">
+        <v>4.5</v>
+      </c>
+      <c r="P202">
+        <v>3.2</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.925</v>
+      </c>
+      <c r="S202">
+        <v>1.875</v>
+      </c>
+      <c r="T202">
+        <v>3.75</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.925</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6893785</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45368.28125</v>
+      </c>
+      <c r="F203" t="s">
+        <v>33</v>
+      </c>
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+      <c r="H203">
+        <v>5</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
+      </c>
+      <c r="K203">
+        <v>1.25</v>
+      </c>
+      <c r="L203">
+        <v>6</v>
+      </c>
+      <c r="M203">
+        <v>7</v>
+      </c>
+      <c r="N203">
+        <v>1.333</v>
+      </c>
+      <c r="O203">
+        <v>5.25</v>
+      </c>
+      <c r="P203">
+        <v>5.5</v>
+      </c>
+      <c r="Q203">
+        <v>-1.5</v>
+      </c>
+      <c r="R203">
+        <v>1.85</v>
+      </c>
+      <c r="S203">
+        <v>1.95</v>
+      </c>
+      <c r="T203">
+        <v>3.5</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>0.333</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
         <v>6893310</v>
       </c>
-      <c r="C202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" t="s">
-        <v>28</v>
-      </c>
-      <c r="E202" s="2">
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
         <v>45368.41666666666</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F204" t="s">
         <v>45</v>
       </c>
-      <c r="G202" t="s">
-        <v>42</v>
-      </c>
-      <c r="K202">
+      <c r="G204" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>48</v>
+      </c>
+      <c r="K204">
         <v>3.4</v>
       </c>
-      <c r="L202">
+      <c r="L204">
         <v>4.2</v>
       </c>
-      <c r="M202">
+      <c r="M204">
         <v>1.727</v>
       </c>
-      <c r="N202">
+      <c r="N204">
         <v>3.4</v>
       </c>
-      <c r="O202">
+      <c r="O204">
         <v>4.2</v>
       </c>
-      <c r="P202">
+      <c r="P204">
         <v>1.727</v>
       </c>
-      <c r="Q202">
+      <c r="Q204">
         <v>0.75</v>
       </c>
-      <c r="R202">
+      <c r="R204">
         <v>1.85</v>
       </c>
-      <c r="S202">
+      <c r="S204">
         <v>1.95</v>
       </c>
-      <c r="T202">
+      <c r="T204">
+        <v>3.25</v>
+      </c>
+      <c r="U204">
+        <v>1.775</v>
+      </c>
+      <c r="V204">
+        <v>1.925</v>
+      </c>
+      <c r="W204">
+        <v>2.4</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-0.5</v>
+      </c>
+      <c r="AC204">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7890187</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45370.64583333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>39</v>
+      </c>
+      <c r="G205" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
+      <c r="K205">
+        <v>1.4</v>
+      </c>
+      <c r="L205">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>5</v>
+      </c>
+      <c r="N205">
+        <v>1.5</v>
+      </c>
+      <c r="O205">
+        <v>4.5</v>
+      </c>
+      <c r="P205">
+        <v>4.333</v>
+      </c>
+      <c r="Q205">
+        <v>-1.25</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>4</v>
+      </c>
+      <c r="U205">
+        <v>1.825</v>
+      </c>
+      <c r="V205">
+        <v>1.975</v>
+      </c>
+      <c r="W205">
+        <v>0.5</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.95</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7582605</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45370.64583333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>50</v>
+      </c>
+      <c r="K206">
+        <v>2.55</v>
+      </c>
+      <c r="L206">
+        <v>4.5</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>2.7</v>
+      </c>
+      <c r="O206">
+        <v>4.75</v>
+      </c>
+      <c r="P206">
+        <v>1.909</v>
+      </c>
+      <c r="Q206">
+        <v>0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>4</v>
+      </c>
+      <c r="U206">
+        <v>1.9</v>
+      </c>
+      <c r="V206">
+        <v>1.9</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>3.75</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6893311</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45373.63541666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>46</v>
+      </c>
+      <c r="G207" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207">
+        <v>6</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207" t="s">
+        <v>48</v>
+      </c>
+      <c r="K207">
+        <v>2.2</v>
+      </c>
+      <c r="L207">
+        <v>4.2</v>
+      </c>
+      <c r="M207">
+        <v>2.375</v>
+      </c>
+      <c r="N207">
+        <v>1.85</v>
+      </c>
+      <c r="O207">
+        <v>4.333</v>
+      </c>
+      <c r="P207">
+        <v>2.9</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>1.85</v>
+      </c>
+      <c r="T207">
+        <v>3.75</v>
+      </c>
+      <c r="U207">
+        <v>1.875</v>
+      </c>
+      <c r="V207">
+        <v>1.925</v>
+      </c>
+      <c r="W207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.95</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>0.875</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6893787</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45373.64583333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>49</v>
+      </c>
+      <c r="K208">
+        <v>2.625</v>
+      </c>
+      <c r="L208">
+        <v>4.333</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>2.7</v>
+      </c>
+      <c r="O208">
+        <v>4.75</v>
+      </c>
+      <c r="P208">
+        <v>1.909</v>
+      </c>
+      <c r="Q208">
+        <v>0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>3.25</v>
+      </c>
+      <c r="U208">
+        <v>1.9</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>0.909</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.95</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6893788</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45374.375</v>
+      </c>
+      <c r="F209" t="s">
+        <v>47</v>
+      </c>
+      <c r="G209" t="s">
+        <v>29</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>48</v>
+      </c>
+      <c r="K209">
+        <v>1.444</v>
+      </c>
+      <c r="L209">
+        <v>5</v>
+      </c>
+      <c r="M209">
+        <v>4.5</v>
+      </c>
+      <c r="N209">
+        <v>1.2</v>
+      </c>
+      <c r="O209">
+        <v>7</v>
+      </c>
+      <c r="P209">
+        <v>8.5</v>
+      </c>
+      <c r="Q209">
+        <v>-2</v>
+      </c>
+      <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.875</v>
+      </c>
+      <c r="T209">
+        <v>4.25</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>1.85</v>
+      </c>
+      <c r="W209">
+        <v>0.2</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.875</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6893789</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45374.41666666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" t="s">
+        <v>39</v>
+      </c>
+      <c r="H210">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>50</v>
+      </c>
+      <c r="K210">
+        <v>2.625</v>
+      </c>
+      <c r="L210">
+        <v>4.333</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>2.9</v>
+      </c>
+      <c r="O210">
+        <v>4.5</v>
+      </c>
+      <c r="P210">
+        <v>1.8</v>
+      </c>
+      <c r="Q210">
+        <v>0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
+        <v>3.75</v>
+      </c>
+      <c r="U210">
+        <v>1.925</v>
+      </c>
+      <c r="V210">
+        <v>1.875</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
         <v>3.5</v>
       </c>
-      <c r="U202">
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>0.95</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>0.925</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6893379</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>36</v>
+      </c>
+      <c r="G211" t="s">
+        <v>45</v>
+      </c>
+      <c r="H211">
+        <v>3</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211">
+        <v>1.166</v>
+      </c>
+      <c r="L211">
+        <v>7</v>
+      </c>
+      <c r="M211">
+        <v>9</v>
+      </c>
+      <c r="N211">
+        <v>1.166</v>
+      </c>
+      <c r="O211">
+        <v>8</v>
+      </c>
+      <c r="P211">
+        <v>10</v>
+      </c>
+      <c r="Q211">
+        <v>-2.5</v>
+      </c>
+      <c r="R211">
+        <v>1.975</v>
+      </c>
+      <c r="S211">
+        <v>1.825</v>
+      </c>
+      <c r="T211">
+        <v>4</v>
+      </c>
+      <c r="U211">
+        <v>1.975</v>
+      </c>
+      <c r="V211">
+        <v>1.825</v>
+      </c>
+      <c r="W211">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>6893791</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>34</v>
+      </c>
+      <c r="G212" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>5</v>
+      </c>
+      <c r="J212" t="s">
+        <v>49</v>
+      </c>
+      <c r="K212">
+        <v>2.875</v>
+      </c>
+      <c r="L212">
+        <v>4.2</v>
+      </c>
+      <c r="M212">
+        <v>1.909</v>
+      </c>
+      <c r="N212">
+        <v>2.75</v>
+      </c>
+      <c r="O212">
+        <v>4.2</v>
+      </c>
+      <c r="P212">
         <v>2</v>
       </c>
-      <c r="V202">
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.825</v>
+      </c>
+      <c r="T212">
+        <v>3.25</v>
+      </c>
+      <c r="U212">
+        <v>1.9</v>
+      </c>
+      <c r="V212">
+        <v>1.9</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>1</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>0.825</v>
+      </c>
+      <c r="AB212">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7582032</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45379.625</v>
+      </c>
+      <c r="F213" t="s">
+        <v>34</v>
+      </c>
+      <c r="G213" t="s">
+        <v>43</v>
+      </c>
+      <c r="K213">
+        <v>1.666</v>
+      </c>
+      <c r="L213">
+        <v>4.5</v>
+      </c>
+      <c r="M213">
+        <v>3.4</v>
+      </c>
+      <c r="N213">
+        <v>1.7</v>
+      </c>
+      <c r="O213">
+        <v>4.5</v>
+      </c>
+      <c r="P213">
+        <v>3.3</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
+        <v>1.9</v>
+      </c>
+      <c r="T213">
+        <v>3.5</v>
+      </c>
+      <c r="U213">
+        <v>1.825</v>
+      </c>
+      <c r="V213">
+        <v>1.975</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7582031</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>39</v>
+      </c>
+      <c r="G214" t="s">
+        <v>38</v>
+      </c>
+      <c r="K214">
+        <v>1.25</v>
+      </c>
+      <c r="L214">
+        <v>5.5</v>
+      </c>
+      <c r="M214">
+        <v>7.5</v>
+      </c>
+      <c r="N214">
+        <v>1.363</v>
+      </c>
+      <c r="O214">
+        <v>5</v>
+      </c>
+      <c r="P214">
+        <v>5.75</v>
+      </c>
+      <c r="Q214">
+        <v>-1.5</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>4</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7582033</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G215" t="s">
+        <v>37</v>
+      </c>
+      <c r="K215">
+        <v>3.4</v>
+      </c>
+      <c r="L215">
+        <v>4.2</v>
+      </c>
+      <c r="M215">
+        <v>1.727</v>
+      </c>
+      <c r="N215">
+        <v>4.333</v>
+      </c>
+      <c r="O215">
+        <v>4.5</v>
+      </c>
+      <c r="P215">
+        <v>1.533</v>
+      </c>
+      <c r="Q215">
+        <v>1</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
         <v>1.8</v>
       </c>
-      <c r="W202">
+      <c r="T215">
+        <v>3.75</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215">
         <v>0</v>
       </c>
-      <c r="X202">
+      <c r="X215">
         <v>0</v>
       </c>
-      <c r="Y202">
+      <c r="Y215">
         <v>0</v>
       </c>
-      <c r="Z202">
+      <c r="Z215">
         <v>0</v>
       </c>
-      <c r="AA202">
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7581959</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F216" t="s">
+        <v>33</v>
+      </c>
+      <c r="G216" t="s">
+        <v>40</v>
+      </c>
+      <c r="K216">
+        <v>1.615</v>
+      </c>
+      <c r="L216">
+        <v>4.5</v>
+      </c>
+      <c r="M216">
+        <v>3.6</v>
+      </c>
+      <c r="N216">
+        <v>1.85</v>
+      </c>
+      <c r="O216">
+        <v>4.2</v>
+      </c>
+      <c r="P216">
+        <v>3</v>
+      </c>
+      <c r="Q216">
+        <v>-0.5</v>
+      </c>
+      <c r="R216">
+        <v>1.925</v>
+      </c>
+      <c r="S216">
+        <v>1.875</v>
+      </c>
+      <c r="T216">
+        <v>3.5</v>
+      </c>
+      <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7581997</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45379.64583333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" t="s">
+        <v>41</v>
+      </c>
+      <c r="K217">
+        <v>1.727</v>
+      </c>
+      <c r="L217">
+        <v>4.2</v>
+      </c>
+      <c r="M217">
+        <v>3.4</v>
+      </c>
+      <c r="N217">
+        <v>1.55</v>
+      </c>
+      <c r="O217">
+        <v>4.5</v>
+      </c>
+      <c r="P217">
+        <v>4.333</v>
+      </c>
+      <c r="Q217">
+        <v>-1</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
+        <v>1.9</v>
+      </c>
+      <c r="T217">
+        <v>3.75</v>
+      </c>
+      <c r="U217">
+        <v>1.9</v>
+      </c>
+      <c r="V217">
+        <v>1.9</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
         <v>0</v>
       </c>
     </row>

--- a/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
+++ b/Germany Oberliga Hamburg/Germany Oberliga Hamburg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -139,16 +139,16 @@
     <t>Uhlenhorster SC Paloma</t>
   </si>
   <si>
+    <t>FC Alsterbruder</t>
+  </si>
+  <si>
     <t>TSV Buchholz 08</t>
   </si>
   <si>
-    <t>FC Alsterbruder</t>
+    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>TSV Sasel</t>
-  </si>
-  <si>
-    <t>FC Union Tornesch</t>
   </si>
   <si>
     <t>SV Rugenbergen</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC217"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1174,7 +1174,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6893654</v>
+        <v>6893655</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,58 +1705,58 @@
         <v>45144.375</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M14">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="O14">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q14">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
+        <v>1.875</v>
+      </c>
+      <c r="S14">
         <v>1.925</v>
       </c>
-      <c r="S14">
-        <v>1.875</v>
-      </c>
       <c r="T14">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1765,16 +1765,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>45144.375</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -1871,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6893655</v>
+        <v>6893654</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1883,58 +1883,58 @@
         <v>45144.375</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
         <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L16">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N16">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R16">
+        <v>1.925</v>
+      </c>
+      <c r="S16">
         <v>1.875</v>
       </c>
-      <c r="S16">
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
         <v>1.925</v>
       </c>
-      <c r="T16">
-        <v>3.75</v>
-      </c>
-      <c r="U16">
-        <v>1.95</v>
-      </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>0.8500000000000001</v>
+        <v>0.333</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1943,16 +1943,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0.925</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
+      <c r="AB16">
         <v>0.875</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6893657</v>
+        <v>6893658</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1975,73 +1975,73 @@
         <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>1.1</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>1.083</v>
+      </c>
+      <c r="Q17">
         <v>3</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
-        <v>1.444</v>
-      </c>
-      <c r="L17">
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
         <v>4.5</v>
       </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>1.25</v>
-      </c>
-      <c r="O17">
-        <v>5.5</v>
-      </c>
-      <c r="P17">
-        <v>7.5</v>
-      </c>
-      <c r="Q17">
-        <v>-2</v>
-      </c>
-      <c r="R17">
+      <c r="U17">
         <v>1.875</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.925</v>
       </c>
-      <c r="T17">
-        <v>4.25</v>
-      </c>
-      <c r="U17">
-        <v>1.975</v>
-      </c>
-      <c r="V17">
-        <v>1.825</v>
-      </c>
       <c r="W17">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6893658</v>
+        <v>6893657</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2064,73 +2064,73 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>1.444</v>
+      </c>
+      <c r="L18">
+        <v>4.5</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>11</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
       <c r="N18">
-        <v>19</v>
+        <v>1.25</v>
       </c>
       <c r="O18">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P18">
-        <v>1.083</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6892992</v>
+        <v>6893660</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2239,76 +2239,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N20">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="O20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P20">
+        <v>2.8</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
         <v>3.5</v>
       </c>
-      <c r="Q20">
-        <v>-0.75</v>
-      </c>
-      <c r="R20">
+      <c r="U20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y20">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2316,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6893660</v>
+        <v>6892992</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2328,76 +2328,76 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
+        <v>1.727</v>
+      </c>
+      <c r="O21">
+        <v>4.2</v>
+      </c>
+      <c r="P21">
+        <v>3.5</v>
+      </c>
+      <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
         <v>1.95</v>
       </c>
-      <c r="O21">
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="P21">
-        <v>2.8</v>
-      </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>3.5</v>
-      </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2672,7 +2672,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6893664</v>
+        <v>6893663</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2684,76 +2684,76 @@
         <v>45151.375</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>2.25</v>
+        <v>1.083</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="N25">
-        <v>1.909</v>
+        <v>1.083</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2761,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6893663</v>
+        <v>6893664</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2773,76 +2773,76 @@
         <v>45151.375</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>1.083</v>
+        <v>2.25</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>1.083</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P26">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="Q26">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T26">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W26">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3307,7 +3307,7 @@
         <v>45158.375</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -3396,7 +3396,7 @@
         <v>45158.375</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -3473,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6893668</v>
+        <v>6893669</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,70 +3488,70 @@
         <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L34">
         <v>4.2</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P34">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6893669</v>
+        <v>6893668</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,70 +3577,70 @@
         <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L35">
         <v>4.2</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P35">
-        <v>1.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3755,7 +3755,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6893673</v>
+        <v>6892994</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4197,76 +4197,76 @@
         <v>45165.375</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42">
+        <v>2.1</v>
+      </c>
+      <c r="L42">
+        <v>4.2</v>
+      </c>
+      <c r="M42">
+        <v>2.5</v>
+      </c>
+      <c r="N42">
+        <v>2.1</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>2.5</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>3.5</v>
+      </c>
+      <c r="U42">
+        <v>1.9</v>
+      </c>
+      <c r="V42">
+        <v>1.9</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
         <v>1.5</v>
       </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>1.5</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-      <c r="Q42">
-        <v>-1</v>
-      </c>
-      <c r="R42">
-        <v>1.75</v>
-      </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
-      <c r="T42">
-        <v>4</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
-      <c r="V42">
